--- a/AAII_Financials/Yearly/NOA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NOA_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>NOA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,154 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41364</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40999</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>308700</v>
+        <v>522500</v>
       </c>
       <c r="E8" s="3">
-        <v>220200</v>
+        <v>298000</v>
       </c>
       <c r="F8" s="3">
-        <v>160500</v>
+        <v>212600</v>
       </c>
       <c r="G8" s="3">
-        <v>211700</v>
+        <v>154900</v>
       </c>
       <c r="H8" s="3">
-        <v>355100</v>
+        <v>204400</v>
       </c>
       <c r="I8" s="3">
-        <v>354200</v>
+        <v>342800</v>
       </c>
       <c r="J8" s="3">
+        <v>341900</v>
+      </c>
+      <c r="K8" s="3">
         <v>410000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>515300</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>256700</v>
+        <v>452500</v>
       </c>
       <c r="E9" s="3">
-        <v>190400</v>
+        <v>247800</v>
       </c>
       <c r="F9" s="3">
-        <v>136100</v>
+        <v>183800</v>
       </c>
       <c r="G9" s="3">
-        <v>187700</v>
+        <v>131400</v>
       </c>
       <c r="H9" s="3">
-        <v>316500</v>
+        <v>181200</v>
       </c>
       <c r="I9" s="3">
-        <v>319700</v>
+        <v>305500</v>
       </c>
       <c r="J9" s="3">
+        <v>308700</v>
+      </c>
+      <c r="K9" s="3">
         <v>384500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>490700</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>52000</v>
+        <v>70100</v>
       </c>
       <c r="E10" s="3">
-        <v>29800</v>
+        <v>50200</v>
       </c>
       <c r="F10" s="3">
-        <v>24300</v>
+        <v>28800</v>
       </c>
       <c r="G10" s="3">
-        <v>24000</v>
+        <v>23500</v>
       </c>
       <c r="H10" s="3">
-        <v>38700</v>
+        <v>23200</v>
       </c>
       <c r="I10" s="3">
-        <v>34400</v>
+        <v>37400</v>
       </c>
       <c r="J10" s="3">
+        <v>33200</v>
+      </c>
+      <c r="K10" s="3">
         <v>25500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>24600</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -813,8 +825,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -842,9 +855,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,69 +888,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>1300</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>400</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
-        <v>4900</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>4700</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>500</v>
+      </c>
+      <c r="E15" s="3">
         <v>300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>700</v>
       </c>
-      <c r="F15" s="3">
-        <v>1300</v>
-      </c>
       <c r="G15" s="3">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="H15" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I15" s="3">
         <v>2700</v>
       </c>
-      <c r="I15" s="3">
-        <v>2500</v>
-      </c>
       <c r="J15" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K15" s="3">
         <v>2800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3300</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -944,68 +969,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>286100</v>
+        <v>479800</v>
       </c>
       <c r="E17" s="3">
-        <v>210100</v>
+        <v>276200</v>
       </c>
       <c r="F17" s="3">
-        <v>157500</v>
+        <v>202900</v>
       </c>
       <c r="G17" s="3">
-        <v>210000</v>
+        <v>152100</v>
       </c>
       <c r="H17" s="3">
-        <v>346500</v>
+        <v>202800</v>
       </c>
       <c r="I17" s="3">
-        <v>361100</v>
+        <v>334400</v>
       </c>
       <c r="J17" s="3">
+        <v>348600</v>
+      </c>
+      <c r="K17" s="3">
         <v>422000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>526600</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>22600</v>
+        <v>42700</v>
       </c>
       <c r="E18" s="3">
-        <v>10100</v>
+        <v>21800</v>
       </c>
       <c r="F18" s="3">
-        <v>3000</v>
+        <v>9700</v>
       </c>
       <c r="G18" s="3">
-        <v>1700</v>
+        <v>2900</v>
       </c>
       <c r="H18" s="3">
-        <v>8700</v>
+        <v>1600</v>
       </c>
       <c r="I18" s="3">
-        <v>-6900</v>
+        <v>8400</v>
       </c>
       <c r="J18" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="K18" s="3">
         <v>-12100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-11400</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,158 +1050,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>1900</v>
       </c>
       <c r="E20" s="3">
         <v>100</v>
       </c>
       <c r="F20" s="3">
-        <v>1200</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>5300</v>
-      </c>
       <c r="J20" s="3">
+        <v>5100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-15900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-14000</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>67000</v>
+        <v>119000</v>
       </c>
       <c r="E21" s="3">
-        <v>44600</v>
+        <v>64700</v>
       </c>
       <c r="F21" s="3">
-        <v>36100</v>
+        <v>43100</v>
       </c>
       <c r="G21" s="3">
-        <v>33500</v>
+        <v>34900</v>
       </c>
       <c r="H21" s="3">
-        <v>43700</v>
+        <v>32300</v>
       </c>
       <c r="I21" s="3">
-        <v>28300</v>
+        <v>42200</v>
       </c>
       <c r="J21" s="3">
+        <v>27300</v>
+      </c>
+      <c r="K21" s="3">
         <v>3200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>12400</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>6600</v>
+        <v>15600</v>
       </c>
       <c r="E22" s="3">
-        <v>5300</v>
+        <v>6400</v>
       </c>
       <c r="F22" s="3">
-        <v>4500</v>
+        <v>5200</v>
       </c>
       <c r="G22" s="3">
-        <v>7500</v>
+        <v>4300</v>
       </c>
       <c r="H22" s="3">
-        <v>9100</v>
+        <v>7300</v>
       </c>
       <c r="I22" s="3">
-        <v>16500</v>
-      </c>
-      <c r="J22" s="3" t="s">
+        <v>8800</v>
+      </c>
+      <c r="J22" s="3">
+        <v>16000</v>
+      </c>
+      <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1200</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>16100</v>
+        <v>29100</v>
       </c>
       <c r="E23" s="3">
-        <v>4900</v>
+        <v>15600</v>
       </c>
       <c r="F23" s="3">
+        <v>4700</v>
+      </c>
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
-        <v>-5700</v>
-      </c>
       <c r="H23" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="I23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
-        <v>-18200</v>
-      </c>
       <c r="J23" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-28000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-26600</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>4600</v>
+        <v>2100</v>
       </c>
       <c r="E24" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F24" s="3">
         <v>900</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
-        <v>-4600</v>
+        <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="K24" s="3">
         <v>-6700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-7100</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,69 +1245,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>11500</v>
+        <v>27000</v>
       </c>
       <c r="E26" s="3">
-        <v>4000</v>
+        <v>11100</v>
       </c>
       <c r="F26" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
-        <v>-5600</v>
-      </c>
       <c r="H26" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="I26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3">
-        <v>-13600</v>
-      </c>
       <c r="J26" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-21300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-19500</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>11500</v>
+        <v>26800</v>
       </c>
       <c r="E27" s="3">
-        <v>4000</v>
+        <v>11100</v>
       </c>
       <c r="F27" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
-        <v>-5600</v>
-      </c>
       <c r="H27" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="I27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
-        <v>-13600</v>
-      </c>
       <c r="J27" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-21300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-19500</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,9 +1344,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1302,24 +1362,27 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>65700</v>
+        <v>-300</v>
       </c>
       <c r="J29" s="3">
+        <v>63400</v>
+      </c>
+      <c r="K29" s="3">
         <v>20200</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>3200</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1377,69 +1443,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-100</v>
+        <v>-1900</v>
       </c>
       <c r="E32" s="3">
         <v>-100</v>
       </c>
       <c r="F32" s="3">
-        <v>-1200</v>
+        <v>-100</v>
       </c>
       <c r="G32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
-        <v>-5300</v>
-      </c>
       <c r="J32" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="K32" s="3">
         <v>15900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>14000</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>11500</v>
+        <v>26800</v>
       </c>
       <c r="E33" s="3">
-        <v>4000</v>
+        <v>11100</v>
       </c>
       <c r="F33" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
-        <v>-5600</v>
-      </c>
       <c r="H33" s="3">
-        <v>-900</v>
+        <v>-5400</v>
       </c>
       <c r="I33" s="3">
-        <v>52100</v>
+        <v>-800</v>
       </c>
       <c r="J33" s="3">
+        <v>50300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-16300</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,74 +1542,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>11500</v>
+        <v>26800</v>
       </c>
       <c r="E35" s="3">
-        <v>4000</v>
+        <v>11100</v>
       </c>
       <c r="F35" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
-        <v>-5600</v>
-      </c>
       <c r="H35" s="3">
-        <v>-900</v>
+        <v>-5400</v>
       </c>
       <c r="I35" s="3">
-        <v>52100</v>
+        <v>-800</v>
       </c>
       <c r="J35" s="3">
+        <v>50300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-16300</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41364</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40999</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,38 +1646,42 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>14700</v>
+        <v>4000</v>
       </c>
       <c r="E41" s="3">
-        <v>6200</v>
+        <v>14200</v>
       </c>
       <c r="F41" s="3">
-        <v>10300</v>
+        <v>5900</v>
       </c>
       <c r="G41" s="3">
-        <v>24400</v>
+        <v>9900</v>
       </c>
       <c r="H41" s="3">
+        <v>23500</v>
+      </c>
+      <c r="I41" s="3">
         <v>700</v>
       </c>
-      <c r="I41" s="3">
-        <v>10300</v>
-      </c>
       <c r="J41" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K41" s="3">
         <v>500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1100</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1618,142 +1707,157 @@
         <v>0</v>
       </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>1200</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>70100</v>
+        <v>62400</v>
       </c>
       <c r="E43" s="3">
-        <v>51500</v>
+        <v>67600</v>
       </c>
       <c r="F43" s="3">
-        <v>42200</v>
+        <v>49700</v>
       </c>
       <c r="G43" s="3">
-        <v>31800</v>
+        <v>40700</v>
       </c>
       <c r="H43" s="3">
-        <v>133000</v>
+        <v>30700</v>
       </c>
       <c r="I43" s="3">
-        <v>77000</v>
+        <v>128300</v>
       </c>
       <c r="J43" s="3">
+        <v>74300</v>
+      </c>
+      <c r="K43" s="3">
         <v>117900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>231200</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>10100</v>
+        <v>15700</v>
       </c>
       <c r="E44" s="3">
-        <v>3600</v>
+        <v>9700</v>
       </c>
       <c r="F44" s="3">
-        <v>2600</v>
+        <v>3500</v>
       </c>
       <c r="G44" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H44" s="3">
         <v>1900</v>
       </c>
-      <c r="H44" s="3">
-        <v>5600</v>
-      </c>
       <c r="I44" s="3">
-        <v>4400</v>
+        <v>5400</v>
       </c>
       <c r="J44" s="3">
         <v>4300</v>
       </c>
       <c r="K44" s="3">
+        <v>4300</v>
+      </c>
+      <c r="L44" s="3">
         <v>8000</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="E45" s="3">
-        <v>5700</v>
+        <v>3200</v>
       </c>
       <c r="F45" s="3">
+        <v>5500</v>
+      </c>
+      <c r="G45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H45" s="3">
         <v>1400</v>
       </c>
-      <c r="G45" s="3">
-        <v>1400</v>
-      </c>
-      <c r="H45" s="3">
-        <v>28200</v>
-      </c>
       <c r="I45" s="3">
-        <v>4400</v>
+        <v>27200</v>
       </c>
       <c r="J45" s="3">
+        <v>4300</v>
+      </c>
+      <c r="K45" s="3">
         <v>145800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>9600</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>97600</v>
+        <v>85600</v>
       </c>
       <c r="E46" s="3">
-        <v>66900</v>
+        <v>94200</v>
       </c>
       <c r="F46" s="3">
-        <v>56400</v>
+        <v>64500</v>
       </c>
       <c r="G46" s="3">
-        <v>59500</v>
+        <v>54400</v>
       </c>
       <c r="H46" s="3">
-        <v>113200</v>
+        <v>57400</v>
       </c>
       <c r="I46" s="3">
-        <v>96300</v>
+        <v>109200</v>
       </c>
       <c r="J46" s="3">
+        <v>92900</v>
+      </c>
+      <c r="K46" s="3">
         <v>268500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>251200</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>11100</v>
+        <v>31200</v>
       </c>
       <c r="E47" s="3">
+        <v>10700</v>
+      </c>
+      <c r="F47" s="3">
         <v>300</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>8</v>
@@ -1767,72 +1871,81 @@
       <c r="J47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>795200</v>
+        <v>442700</v>
       </c>
       <c r="E48" s="3">
-        <v>209800</v>
+        <v>767200</v>
       </c>
       <c r="F48" s="3">
-        <v>193100</v>
+        <v>202400</v>
       </c>
       <c r="G48" s="3">
-        <v>389600</v>
+        <v>186300</v>
       </c>
       <c r="H48" s="3">
-        <v>196400</v>
+        <v>375800</v>
       </c>
       <c r="I48" s="3">
-        <v>189800</v>
+        <v>189500</v>
       </c>
       <c r="J48" s="3">
+        <v>183100</v>
+      </c>
+      <c r="K48" s="3">
         <v>210200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>245000</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>2200</v>
+      <c r="D49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E49" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F49" s="3">
         <v>1400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1300</v>
       </c>
-      <c r="G49" s="3">
-        <v>2400</v>
-      </c>
       <c r="H49" s="3">
-        <v>3300</v>
+        <v>2300</v>
       </c>
       <c r="I49" s="3">
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3">
         <v>6500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>35200</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,39 +2006,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>18500</v>
+        <v>16200</v>
       </c>
       <c r="E52" s="3">
-        <v>11100</v>
+        <v>17800</v>
       </c>
       <c r="F52" s="3">
-        <v>12700</v>
+        <v>10700</v>
       </c>
       <c r="G52" s="3">
-        <v>19700</v>
+        <v>12300</v>
       </c>
       <c r="H52" s="3">
-        <v>30800</v>
+        <v>19000</v>
       </c>
       <c r="I52" s="3">
-        <v>49500</v>
+        <v>29700</v>
       </c>
       <c r="J52" s="3">
+        <v>47700</v>
+      </c>
+      <c r="K52" s="3">
         <v>11600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>46200</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,39 +2072,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>519300</v>
+        <v>575700</v>
       </c>
       <c r="E54" s="3">
-        <v>288800</v>
+        <v>501000</v>
       </c>
       <c r="F54" s="3">
-        <v>263500</v>
+        <v>278600</v>
       </c>
       <c r="G54" s="3">
-        <v>271100</v>
+        <v>254300</v>
       </c>
       <c r="H54" s="3">
-        <v>343700</v>
+        <v>261600</v>
       </c>
       <c r="I54" s="3">
-        <v>335500</v>
+        <v>331600</v>
       </c>
       <c r="J54" s="3">
+        <v>323700</v>
+      </c>
+      <c r="K54" s="3">
         <v>496800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>576200</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2009,188 +2138,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>47800</v>
+        <v>64100</v>
       </c>
       <c r="E57" s="3">
-        <v>26500</v>
+        <v>46100</v>
       </c>
       <c r="F57" s="3">
-        <v>22200</v>
+        <v>25600</v>
       </c>
       <c r="G57" s="3">
-        <v>18800</v>
+        <v>21500</v>
       </c>
       <c r="H57" s="3">
-        <v>43700</v>
+        <v>18200</v>
       </c>
       <c r="I57" s="3">
-        <v>36500</v>
+        <v>42200</v>
       </c>
       <c r="J57" s="3">
+        <v>35200</v>
+      </c>
+      <c r="K57" s="3">
         <v>55500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>131500</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>46900</v>
+        <v>34700</v>
       </c>
       <c r="E58" s="3">
-        <v>21900</v>
+        <v>45200</v>
       </c>
       <c r="F58" s="3">
-        <v>24300</v>
+        <v>21200</v>
       </c>
       <c r="G58" s="3">
-        <v>22600</v>
+        <v>23400</v>
       </c>
       <c r="H58" s="3">
-        <v>16700</v>
+        <v>21800</v>
       </c>
       <c r="I58" s="3">
-        <v>11300</v>
+        <v>16100</v>
       </c>
       <c r="J58" s="3">
+        <v>10900</v>
+      </c>
+      <c r="K58" s="3">
         <v>16100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>22100</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>31900</v>
+        <v>15500</v>
       </c>
       <c r="E59" s="3">
-        <v>11100</v>
+        <v>30800</v>
       </c>
       <c r="F59" s="3">
-        <v>9200</v>
+        <v>10700</v>
       </c>
       <c r="G59" s="3">
-        <v>10500</v>
+        <v>8900</v>
       </c>
       <c r="H59" s="3">
-        <v>26400</v>
+        <v>10200</v>
       </c>
       <c r="I59" s="3">
-        <v>22600</v>
+        <v>25500</v>
       </c>
       <c r="J59" s="3">
+        <v>21800</v>
+      </c>
+      <c r="K59" s="3">
         <v>72300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>53000</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>112100</v>
+        <v>114200</v>
       </c>
       <c r="E60" s="3">
-        <v>58400</v>
+        <v>108100</v>
       </c>
       <c r="F60" s="3">
-        <v>55700</v>
+        <v>56300</v>
       </c>
       <c r="G60" s="3">
-        <v>46800</v>
+        <v>53800</v>
       </c>
       <c r="H60" s="3">
-        <v>71700</v>
+        <v>45200</v>
       </c>
       <c r="I60" s="3">
-        <v>70400</v>
+        <v>69200</v>
       </c>
       <c r="J60" s="3">
+        <v>67900</v>
+      </c>
+      <c r="K60" s="3">
         <v>143900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>195600</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>241100</v>
+        <v>261800</v>
       </c>
       <c r="E61" s="3">
-        <v>81200</v>
+        <v>232600</v>
       </c>
       <c r="F61" s="3">
-        <v>51600</v>
+        <v>78400</v>
       </c>
       <c r="G61" s="3">
-        <v>60600</v>
+        <v>49800</v>
       </c>
       <c r="H61" s="3">
-        <v>79900</v>
+        <v>58400</v>
       </c>
       <c r="I61" s="3">
-        <v>77800</v>
+        <v>77100</v>
       </c>
       <c r="J61" s="3">
+        <v>75000</v>
+      </c>
+      <c r="K61" s="3">
         <v>218800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>230500</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>53000</v>
+        <v>68800</v>
       </c>
       <c r="E62" s="3">
-        <v>39300</v>
+        <v>51100</v>
       </c>
       <c r="F62" s="3">
-        <v>36500</v>
+        <v>37900</v>
       </c>
       <c r="G62" s="3">
-        <v>34500</v>
+        <v>35200</v>
       </c>
       <c r="H62" s="3">
-        <v>49400</v>
+        <v>33300</v>
       </c>
       <c r="I62" s="3">
-        <v>42900</v>
+        <v>47600</v>
       </c>
       <c r="J62" s="3">
+        <v>41400</v>
+      </c>
+      <c r="K62" s="3">
         <v>37700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>51900</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2278,39 +2432,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>406600</v>
+        <v>444900</v>
       </c>
       <c r="E66" s="3">
-        <v>179000</v>
+        <v>392200</v>
       </c>
       <c r="F66" s="3">
-        <v>143900</v>
+        <v>172600</v>
       </c>
       <c r="G66" s="3">
-        <v>141900</v>
+        <v>138800</v>
       </c>
       <c r="H66" s="3">
-        <v>201000</v>
+        <v>136900</v>
       </c>
       <c r="I66" s="3">
-        <v>191100</v>
+        <v>193900</v>
       </c>
       <c r="J66" s="3">
+        <v>184300</v>
+      </c>
+      <c r="K66" s="3">
         <v>400500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>478000</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2323,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2382,9 +2546,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2412,9 +2579,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2442,39 +2612,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-85800</v>
+        <v>-58000</v>
       </c>
       <c r="E72" s="3">
-        <v>-95700</v>
+        <v>-82700</v>
       </c>
       <c r="F72" s="3">
-        <v>-98100</v>
+        <v>-92400</v>
       </c>
       <c r="G72" s="3">
-        <v>-96000</v>
+        <v>-94600</v>
       </c>
       <c r="H72" s="3">
-        <v>-88400</v>
+        <v>-92600</v>
       </c>
       <c r="I72" s="3">
-        <v>-85400</v>
+        <v>-85300</v>
       </c>
       <c r="J72" s="3">
+        <v>-82400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-141000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-142800</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2502,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2532,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,39 +2744,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>112700</v>
+        <v>130800</v>
       </c>
       <c r="E76" s="3">
-        <v>109900</v>
+        <v>108700</v>
       </c>
       <c r="F76" s="3">
-        <v>119700</v>
+        <v>106000</v>
       </c>
       <c r="G76" s="3">
-        <v>129200</v>
+        <v>115400</v>
       </c>
       <c r="H76" s="3">
-        <v>142700</v>
+        <v>124600</v>
       </c>
       <c r="I76" s="3">
-        <v>144400</v>
+        <v>137700</v>
       </c>
       <c r="J76" s="3">
+        <v>139300</v>
+      </c>
+      <c r="K76" s="3">
         <v>96300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>98200</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2622,74 +2810,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41364</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40999</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>11500</v>
+        <v>26800</v>
       </c>
       <c r="E81" s="3">
-        <v>4000</v>
+        <v>11100</v>
       </c>
       <c r="F81" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
-        <v>-5600</v>
-      </c>
       <c r="H81" s="3">
-        <v>-900</v>
+        <v>-5400</v>
       </c>
       <c r="I81" s="3">
-        <v>52100</v>
+        <v>-800</v>
       </c>
       <c r="J81" s="3">
+        <v>50300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-16300</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2702,38 +2899,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>44200</v>
+        <v>74300</v>
       </c>
       <c r="E83" s="3">
-        <v>34400</v>
+        <v>42700</v>
       </c>
       <c r="F83" s="3">
-        <v>32000</v>
+        <v>33200</v>
       </c>
       <c r="G83" s="3">
-        <v>31600</v>
+        <v>30900</v>
       </c>
       <c r="H83" s="3">
-        <v>35100</v>
+        <v>30500</v>
       </c>
       <c r="I83" s="3">
-        <v>29900</v>
+        <v>33800</v>
       </c>
       <c r="J83" s="3">
+        <v>28900</v>
+      </c>
+      <c r="K83" s="3">
         <v>31200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>37600</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2851,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2881,39 +3094,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>82300</v>
+        <v>114800</v>
       </c>
       <c r="E89" s="3">
-        <v>37400</v>
+        <v>79500</v>
       </c>
       <c r="F89" s="3">
+        <v>36100</v>
+      </c>
+      <c r="G89" s="3">
+        <v>28900</v>
+      </c>
+      <c r="H89" s="3">
+        <v>56000</v>
+      </c>
+      <c r="I89" s="3">
         <v>30000</v>
       </c>
-      <c r="G89" s="3">
-        <v>58000</v>
-      </c>
-      <c r="H89" s="3">
-        <v>31000</v>
-      </c>
-      <c r="I89" s="3">
-        <v>77700</v>
-      </c>
       <c r="J89" s="3">
+        <v>75000</v>
+      </c>
+      <c r="K89" s="3">
         <v>68600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>48600</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2926,38 +3145,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-61000</v>
+        <v>-114100</v>
       </c>
       <c r="E91" s="3">
-        <v>-40500</v>
+        <v>-58900</v>
       </c>
       <c r="F91" s="3">
-        <v>-20400</v>
+        <v>-39100</v>
       </c>
       <c r="G91" s="3">
-        <v>-24500</v>
+        <v>-19700</v>
       </c>
       <c r="H91" s="3">
-        <v>-26500</v>
+        <v>-23600</v>
       </c>
       <c r="I91" s="3">
-        <v>-23600</v>
+        <v>-25500</v>
       </c>
       <c r="J91" s="3">
+        <v>-22800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-24600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-40700</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3015,39 +3241,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-172100</v>
+        <v>-116800</v>
       </c>
       <c r="E94" s="3">
-        <v>-25300</v>
+        <v>-166100</v>
       </c>
       <c r="F94" s="3">
-        <v>-7900</v>
+        <v>-24400</v>
       </c>
       <c r="G94" s="3">
-        <v>3600</v>
+        <v>-7600</v>
       </c>
       <c r="H94" s="3">
-        <v>-14700</v>
+        <v>3500</v>
       </c>
       <c r="I94" s="3">
-        <v>117200</v>
+        <v>-14200</v>
       </c>
       <c r="J94" s="3">
+        <v>113200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-34900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-49300</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3060,28 +3292,29 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1500</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1600</v>
       </c>
-      <c r="F96" s="3">
-        <v>-1400</v>
-      </c>
       <c r="G96" s="3">
-        <v>-2500</v>
+        <v>-1300</v>
       </c>
       <c r="H96" s="3">
-        <v>-1600</v>
+        <v>-2400</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -3089,9 +3322,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3119,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3179,39 +3421,45 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>98300</v>
+        <v>-8200</v>
       </c>
       <c r="E100" s="3">
-        <v>-16300</v>
+        <v>94900</v>
       </c>
       <c r="F100" s="3">
-        <v>-36100</v>
+        <v>-15700</v>
       </c>
       <c r="G100" s="3">
-        <v>-38000</v>
+        <v>-34900</v>
       </c>
       <c r="H100" s="3">
-        <v>-26000</v>
+        <v>-36700</v>
       </c>
       <c r="I100" s="3">
-        <v>-185500</v>
+        <v>-25100</v>
       </c>
       <c r="J100" s="3">
+        <v>-179100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-34400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1200</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3224,8 +3472,8 @@
       <c r="F101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
+      <c r="G101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
@@ -3239,37 +3487,43 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>8500</v>
+        <v>-10100</v>
       </c>
       <c r="E102" s="3">
-        <v>-4100</v>
+        <v>8200</v>
       </c>
       <c r="F102" s="3">
-        <v>-14100</v>
+        <v>-4000</v>
       </c>
       <c r="G102" s="3">
-        <v>23600</v>
+        <v>-13600</v>
       </c>
       <c r="H102" s="3">
-        <v>-9600</v>
+        <v>22800</v>
       </c>
       <c r="I102" s="3">
-        <v>9500</v>
+        <v>-9300</v>
       </c>
       <c r="J102" s="3">
+        <v>9100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>500</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/NOA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NOA_YR_FIN.xlsx
@@ -718,25 +718,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>522500</v>
+        <v>547300</v>
       </c>
       <c r="E8" s="3">
-        <v>298000</v>
+        <v>312100</v>
       </c>
       <c r="F8" s="3">
-        <v>212600</v>
+        <v>222700</v>
       </c>
       <c r="G8" s="3">
-        <v>154900</v>
+        <v>162200</v>
       </c>
       <c r="H8" s="3">
-        <v>204400</v>
+        <v>214100</v>
       </c>
       <c r="I8" s="3">
-        <v>342800</v>
+        <v>359100</v>
       </c>
       <c r="J8" s="3">
-        <v>341900</v>
+        <v>358100</v>
       </c>
       <c r="K8" s="3">
         <v>410000</v>
@@ -751,25 +751,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>452500</v>
+        <v>473900</v>
       </c>
       <c r="E9" s="3">
-        <v>247800</v>
+        <v>259500</v>
       </c>
       <c r="F9" s="3">
-        <v>183800</v>
+        <v>192500</v>
       </c>
       <c r="G9" s="3">
-        <v>131400</v>
+        <v>137600</v>
       </c>
       <c r="H9" s="3">
-        <v>181200</v>
+        <v>189800</v>
       </c>
       <c r="I9" s="3">
-        <v>305500</v>
+        <v>319900</v>
       </c>
       <c r="J9" s="3">
-        <v>308700</v>
+        <v>323300</v>
       </c>
       <c r="K9" s="3">
         <v>384500</v>
@@ -784,25 +784,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>70100</v>
+        <v>73400</v>
       </c>
       <c r="E10" s="3">
-        <v>50200</v>
+        <v>52600</v>
       </c>
       <c r="F10" s="3">
-        <v>28800</v>
+        <v>30200</v>
       </c>
       <c r="G10" s="3">
-        <v>23500</v>
+        <v>24600</v>
       </c>
       <c r="H10" s="3">
-        <v>23200</v>
+        <v>24300</v>
       </c>
       <c r="I10" s="3">
-        <v>37400</v>
+        <v>39100</v>
       </c>
       <c r="J10" s="3">
-        <v>33200</v>
+        <v>34800</v>
       </c>
       <c r="K10" s="3">
         <v>25500</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -940,16 +940,16 @@
         <v>700</v>
       </c>
       <c r="G15" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="H15" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="I15" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="J15" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="K15" s="3">
         <v>2800</v>
@@ -976,25 +976,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>479800</v>
+        <v>502500</v>
       </c>
       <c r="E17" s="3">
-        <v>276200</v>
+        <v>289300</v>
       </c>
       <c r="F17" s="3">
-        <v>202900</v>
+        <v>212500</v>
       </c>
       <c r="G17" s="3">
-        <v>152100</v>
+        <v>159300</v>
       </c>
       <c r="H17" s="3">
-        <v>202800</v>
+        <v>212400</v>
       </c>
       <c r="I17" s="3">
-        <v>334400</v>
+        <v>350300</v>
       </c>
       <c r="J17" s="3">
-        <v>348600</v>
+        <v>365100</v>
       </c>
       <c r="K17" s="3">
         <v>422000</v>
@@ -1009,25 +1009,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>42700</v>
+        <v>44800</v>
       </c>
       <c r="E18" s="3">
-        <v>21800</v>
+        <v>22800</v>
       </c>
       <c r="F18" s="3">
-        <v>9700</v>
+        <v>10200</v>
       </c>
       <c r="G18" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="H18" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="I18" s="3">
-        <v>8400</v>
+        <v>8800</v>
       </c>
       <c r="J18" s="3">
-        <v>-6700</v>
+        <v>-7000</v>
       </c>
       <c r="K18" s="3">
         <v>-12100</v>
@@ -1057,7 +1057,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="E20" s="3">
         <v>100</v>
@@ -1066,7 +1066,7 @@
         <v>100</v>
       </c>
       <c r="G20" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="H20" s="3">
         <v>100</v>
@@ -1075,7 +1075,7 @@
         <v>-100</v>
       </c>
       <c r="J20" s="3">
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="K20" s="3">
         <v>-15900</v>
@@ -1090,25 +1090,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>119000</v>
+        <v>124500</v>
       </c>
       <c r="E21" s="3">
-        <v>64700</v>
+        <v>67600</v>
       </c>
       <c r="F21" s="3">
-        <v>43100</v>
+        <v>45000</v>
       </c>
       <c r="G21" s="3">
-        <v>34900</v>
+        <v>36400</v>
       </c>
       <c r="H21" s="3">
-        <v>32300</v>
+        <v>33800</v>
       </c>
       <c r="I21" s="3">
-        <v>42200</v>
+        <v>44100</v>
       </c>
       <c r="J21" s="3">
-        <v>27300</v>
+        <v>28500</v>
       </c>
       <c r="K21" s="3">
         <v>3200</v>
@@ -1123,25 +1123,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>15600</v>
+        <v>16300</v>
       </c>
       <c r="E22" s="3">
-        <v>6400</v>
+        <v>6700</v>
       </c>
       <c r="F22" s="3">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="G22" s="3">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="H22" s="3">
-        <v>7300</v>
+        <v>7600</v>
       </c>
       <c r="I22" s="3">
-        <v>8800</v>
+        <v>9200</v>
       </c>
       <c r="J22" s="3">
-        <v>16000</v>
+        <v>16700</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
@@ -1156,25 +1156,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>29100</v>
+        <v>30400</v>
       </c>
       <c r="E23" s="3">
-        <v>15600</v>
+        <v>16300</v>
       </c>
       <c r="F23" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="G23" s="3">
         <v>-400</v>
       </c>
       <c r="H23" s="3">
-        <v>-5500</v>
+        <v>-5800</v>
       </c>
       <c r="I23" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="J23" s="3">
-        <v>-17500</v>
+        <v>-18400</v>
       </c>
       <c r="K23" s="3">
         <v>-28000</v>
@@ -1189,10 +1189,10 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="E24" s="3">
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="F24" s="3">
         <v>900</v>
@@ -1207,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
-        <v>-4400</v>
+        <v>-4600</v>
       </c>
       <c r="K24" s="3">
         <v>-6700</v>
@@ -1255,25 +1255,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>27000</v>
+        <v>28300</v>
       </c>
       <c r="E26" s="3">
-        <v>11100</v>
+        <v>11700</v>
       </c>
       <c r="F26" s="3">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="G26" s="3">
         <v>-300</v>
       </c>
       <c r="H26" s="3">
-        <v>-5400</v>
+        <v>-5700</v>
       </c>
       <c r="I26" s="3">
         <v>-500</v>
       </c>
       <c r="J26" s="3">
-        <v>-13100</v>
+        <v>-13700</v>
       </c>
       <c r="K26" s="3">
         <v>-21300</v>
@@ -1288,25 +1288,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>26800</v>
+        <v>28100</v>
       </c>
       <c r="E27" s="3">
-        <v>11100</v>
+        <v>11600</v>
       </c>
       <c r="F27" s="3">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="G27" s="3">
         <v>-300</v>
       </c>
       <c r="H27" s="3">
-        <v>-5400</v>
+        <v>-5700</v>
       </c>
       <c r="I27" s="3">
         <v>-500</v>
       </c>
       <c r="J27" s="3">
-        <v>-13100</v>
+        <v>-13700</v>
       </c>
       <c r="K27" s="3">
         <v>-21300</v>
@@ -1369,10 +1369,10 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="J29" s="3">
-        <v>63400</v>
+        <v>66400</v>
       </c>
       <c r="K29" s="3">
         <v>20200</v>
@@ -1453,7 +1453,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="E32" s="3">
         <v>-100</v>
@@ -1462,7 +1462,7 @@
         <v>-100</v>
       </c>
       <c r="G32" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="H32" s="3">
         <v>-100</v>
@@ -1471,7 +1471,7 @@
         <v>100</v>
       </c>
       <c r="J32" s="3">
-        <v>-5100</v>
+        <v>-5300</v>
       </c>
       <c r="K32" s="3">
         <v>15900</v>
@@ -1486,25 +1486,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>26800</v>
+        <v>28100</v>
       </c>
       <c r="E33" s="3">
-        <v>11100</v>
+        <v>11600</v>
       </c>
       <c r="F33" s="3">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="G33" s="3">
         <v>-300</v>
       </c>
       <c r="H33" s="3">
-        <v>-5400</v>
+        <v>-5700</v>
       </c>
       <c r="I33" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="J33" s="3">
-        <v>50300</v>
+        <v>52700</v>
       </c>
       <c r="K33" s="3">
         <v>-1100</v>
@@ -1552,25 +1552,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>26800</v>
+        <v>28100</v>
       </c>
       <c r="E35" s="3">
-        <v>11100</v>
+        <v>11600</v>
       </c>
       <c r="F35" s="3">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="G35" s="3">
         <v>-300</v>
       </c>
       <c r="H35" s="3">
-        <v>-5400</v>
+        <v>-5700</v>
       </c>
       <c r="I35" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="J35" s="3">
-        <v>50300</v>
+        <v>52700</v>
       </c>
       <c r="K35" s="3">
         <v>-1100</v>
@@ -1653,25 +1653,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="E41" s="3">
-        <v>14200</v>
+        <v>14800</v>
       </c>
       <c r="F41" s="3">
-        <v>5900</v>
+        <v>6200</v>
       </c>
       <c r="G41" s="3">
-        <v>9900</v>
+        <v>10400</v>
       </c>
       <c r="H41" s="3">
-        <v>23500</v>
+        <v>24600</v>
       </c>
       <c r="I41" s="3">
         <v>700</v>
       </c>
       <c r="J41" s="3">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="K41" s="3">
         <v>500</v>
@@ -1719,25 +1719,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>62400</v>
+        <v>65400</v>
       </c>
       <c r="E43" s="3">
-        <v>67600</v>
+        <v>70800</v>
       </c>
       <c r="F43" s="3">
-        <v>49700</v>
+        <v>52000</v>
       </c>
       <c r="G43" s="3">
-        <v>40700</v>
+        <v>42700</v>
       </c>
       <c r="H43" s="3">
-        <v>30700</v>
+        <v>32200</v>
       </c>
       <c r="I43" s="3">
-        <v>128300</v>
+        <v>134400</v>
       </c>
       <c r="J43" s="3">
-        <v>74300</v>
+        <v>77900</v>
       </c>
       <c r="K43" s="3">
         <v>117900</v>
@@ -1752,25 +1752,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>15700</v>
+        <v>16500</v>
       </c>
       <c r="E44" s="3">
-        <v>9700</v>
+        <v>10200</v>
       </c>
       <c r="F44" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="G44" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="H44" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="I44" s="3">
-        <v>5400</v>
+        <v>5700</v>
       </c>
       <c r="J44" s="3">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="K44" s="3">
         <v>4300</v>
@@ -1785,25 +1785,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E45" s="3">
         <v>3400</v>
       </c>
-      <c r="E45" s="3">
-        <v>3200</v>
-      </c>
       <c r="F45" s="3">
-        <v>5500</v>
+        <v>5700</v>
       </c>
       <c r="G45" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="H45" s="3">
         <v>1400</v>
       </c>
       <c r="I45" s="3">
-        <v>27200</v>
+        <v>28500</v>
       </c>
       <c r="J45" s="3">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="K45" s="3">
         <v>145800</v>
@@ -1818,25 +1818,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>85600</v>
+        <v>89700</v>
       </c>
       <c r="E46" s="3">
-        <v>94200</v>
+        <v>98700</v>
       </c>
       <c r="F46" s="3">
-        <v>64500</v>
+        <v>67600</v>
       </c>
       <c r="G46" s="3">
-        <v>54400</v>
+        <v>57000</v>
       </c>
       <c r="H46" s="3">
-        <v>57400</v>
+        <v>60200</v>
       </c>
       <c r="I46" s="3">
-        <v>109200</v>
+        <v>114400</v>
       </c>
       <c r="J46" s="3">
-        <v>92900</v>
+        <v>97300</v>
       </c>
       <c r="K46" s="3">
         <v>268500</v>
@@ -1851,10 +1851,10 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>31200</v>
+        <v>32700</v>
       </c>
       <c r="E47" s="3">
-        <v>10700</v>
+        <v>11200</v>
       </c>
       <c r="F47" s="3">
         <v>300</v>
@@ -1884,25 +1884,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>442700</v>
+        <v>463900</v>
       </c>
       <c r="E48" s="3">
-        <v>767200</v>
+        <v>804000</v>
       </c>
       <c r="F48" s="3">
-        <v>202400</v>
+        <v>212100</v>
       </c>
       <c r="G48" s="3">
-        <v>186300</v>
+        <v>195200</v>
       </c>
       <c r="H48" s="3">
-        <v>375800</v>
+        <v>393900</v>
       </c>
       <c r="I48" s="3">
-        <v>189500</v>
+        <v>198600</v>
       </c>
       <c r="J48" s="3">
-        <v>183100</v>
+        <v>191800</v>
       </c>
       <c r="K48" s="3">
         <v>210200</v>
@@ -1920,19 +1920,19 @@
         <v>8</v>
       </c>
       <c r="E49" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="F49" s="3">
         <v>1400</v>
       </c>
       <c r="G49" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="H49" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="I49" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="J49" s="3">
         <v>0</v>
@@ -2016,25 +2016,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>16200</v>
+        <v>17000</v>
       </c>
       <c r="E52" s="3">
-        <v>17800</v>
+        <v>18700</v>
       </c>
       <c r="F52" s="3">
-        <v>10700</v>
+        <v>11200</v>
       </c>
       <c r="G52" s="3">
-        <v>12300</v>
+        <v>12900</v>
       </c>
       <c r="H52" s="3">
-        <v>19000</v>
+        <v>19900</v>
       </c>
       <c r="I52" s="3">
-        <v>29700</v>
+        <v>31100</v>
       </c>
       <c r="J52" s="3">
-        <v>47700</v>
+        <v>50000</v>
       </c>
       <c r="K52" s="3">
         <v>11600</v>
@@ -2082,25 +2082,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>575700</v>
+        <v>603300</v>
       </c>
       <c r="E54" s="3">
-        <v>501000</v>
+        <v>525000</v>
       </c>
       <c r="F54" s="3">
-        <v>278600</v>
+        <v>292000</v>
       </c>
       <c r="G54" s="3">
-        <v>254300</v>
+        <v>266400</v>
       </c>
       <c r="H54" s="3">
-        <v>261600</v>
+        <v>274100</v>
       </c>
       <c r="I54" s="3">
-        <v>331600</v>
+        <v>347500</v>
       </c>
       <c r="J54" s="3">
-        <v>323700</v>
+        <v>339200</v>
       </c>
       <c r="K54" s="3">
         <v>496800</v>
@@ -2145,25 +2145,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>64100</v>
+        <v>67100</v>
       </c>
       <c r="E57" s="3">
-        <v>46100</v>
+        <v>48300</v>
       </c>
       <c r="F57" s="3">
-        <v>25600</v>
+        <v>26800</v>
       </c>
       <c r="G57" s="3">
-        <v>21500</v>
+        <v>22500</v>
       </c>
       <c r="H57" s="3">
-        <v>18200</v>
+        <v>19100</v>
       </c>
       <c r="I57" s="3">
-        <v>42200</v>
+        <v>44200</v>
       </c>
       <c r="J57" s="3">
-        <v>35200</v>
+        <v>36900</v>
       </c>
       <c r="K57" s="3">
         <v>55500</v>
@@ -2178,25 +2178,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>34700</v>
+        <v>36300</v>
       </c>
       <c r="E58" s="3">
-        <v>45200</v>
+        <v>47400</v>
       </c>
       <c r="F58" s="3">
-        <v>21200</v>
+        <v>22200</v>
       </c>
       <c r="G58" s="3">
-        <v>23400</v>
+        <v>24500</v>
       </c>
       <c r="H58" s="3">
-        <v>21800</v>
+        <v>22800</v>
       </c>
       <c r="I58" s="3">
-        <v>16100</v>
+        <v>16900</v>
       </c>
       <c r="J58" s="3">
-        <v>10900</v>
+        <v>11400</v>
       </c>
       <c r="K58" s="3">
         <v>16100</v>
@@ -2211,25 +2211,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>15500</v>
+        <v>16300</v>
       </c>
       <c r="E59" s="3">
-        <v>30800</v>
+        <v>32200</v>
       </c>
       <c r="F59" s="3">
-        <v>10700</v>
+        <v>11200</v>
       </c>
       <c r="G59" s="3">
-        <v>8900</v>
+        <v>9300</v>
       </c>
       <c r="H59" s="3">
-        <v>10200</v>
+        <v>10600</v>
       </c>
       <c r="I59" s="3">
-        <v>25500</v>
+        <v>26700</v>
       </c>
       <c r="J59" s="3">
-        <v>21800</v>
+        <v>22900</v>
       </c>
       <c r="K59" s="3">
         <v>72300</v>
@@ -2244,25 +2244,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>114200</v>
+        <v>119700</v>
       </c>
       <c r="E60" s="3">
-        <v>108100</v>
+        <v>113300</v>
       </c>
       <c r="F60" s="3">
+        <v>59000</v>
+      </c>
+      <c r="G60" s="3">
         <v>56300</v>
       </c>
-      <c r="G60" s="3">
-        <v>53800</v>
-      </c>
       <c r="H60" s="3">
-        <v>45200</v>
+        <v>47400</v>
       </c>
       <c r="I60" s="3">
-        <v>69200</v>
+        <v>72500</v>
       </c>
       <c r="J60" s="3">
-        <v>67900</v>
+        <v>71100</v>
       </c>
       <c r="K60" s="3">
         <v>143900</v>
@@ -2277,25 +2277,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>261800</v>
+        <v>274400</v>
       </c>
       <c r="E61" s="3">
-        <v>232600</v>
+        <v>243800</v>
       </c>
       <c r="F61" s="3">
-        <v>78400</v>
+        <v>82100</v>
       </c>
       <c r="G61" s="3">
-        <v>49800</v>
+        <v>52200</v>
       </c>
       <c r="H61" s="3">
-        <v>58400</v>
+        <v>61200</v>
       </c>
       <c r="I61" s="3">
-        <v>77100</v>
+        <v>80800</v>
       </c>
       <c r="J61" s="3">
-        <v>75000</v>
+        <v>78600</v>
       </c>
       <c r="K61" s="3">
         <v>218800</v>
@@ -2310,25 +2310,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>68800</v>
+        <v>72100</v>
       </c>
       <c r="E62" s="3">
-        <v>51100</v>
+        <v>53600</v>
       </c>
       <c r="F62" s="3">
-        <v>37900</v>
+        <v>39800</v>
       </c>
       <c r="G62" s="3">
-        <v>35200</v>
+        <v>36900</v>
       </c>
       <c r="H62" s="3">
-        <v>33300</v>
+        <v>34900</v>
       </c>
       <c r="I62" s="3">
-        <v>47600</v>
+        <v>49900</v>
       </c>
       <c r="J62" s="3">
-        <v>41400</v>
+        <v>43400</v>
       </c>
       <c r="K62" s="3">
         <v>37700</v>
@@ -2442,25 +2442,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>444900</v>
+        <v>466200</v>
       </c>
       <c r="E66" s="3">
-        <v>392200</v>
+        <v>411000</v>
       </c>
       <c r="F66" s="3">
-        <v>172600</v>
+        <v>180900</v>
       </c>
       <c r="G66" s="3">
-        <v>138800</v>
+        <v>145500</v>
       </c>
       <c r="H66" s="3">
-        <v>136900</v>
+        <v>143500</v>
       </c>
       <c r="I66" s="3">
-        <v>193900</v>
+        <v>203200</v>
       </c>
       <c r="J66" s="3">
-        <v>184300</v>
+        <v>193200</v>
       </c>
       <c r="K66" s="3">
         <v>400500</v>
@@ -2622,25 +2622,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-58000</v>
+        <v>-60800</v>
       </c>
       <c r="E72" s="3">
-        <v>-82700</v>
+        <v>-86700</v>
       </c>
       <c r="F72" s="3">
-        <v>-92400</v>
+        <v>-96800</v>
       </c>
       <c r="G72" s="3">
-        <v>-94600</v>
+        <v>-99200</v>
       </c>
       <c r="H72" s="3">
-        <v>-92600</v>
+        <v>-97000</v>
       </c>
       <c r="I72" s="3">
-        <v>-85300</v>
+        <v>-89400</v>
       </c>
       <c r="J72" s="3">
-        <v>-82400</v>
+        <v>-86300</v>
       </c>
       <c r="K72" s="3">
         <v>-141000</v>
@@ -2754,25 +2754,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>130800</v>
+        <v>137100</v>
       </c>
       <c r="E76" s="3">
-        <v>108700</v>
+        <v>114000</v>
       </c>
       <c r="F76" s="3">
-        <v>106000</v>
+        <v>111100</v>
       </c>
       <c r="G76" s="3">
-        <v>115400</v>
+        <v>121000</v>
       </c>
       <c r="H76" s="3">
-        <v>124600</v>
+        <v>130600</v>
       </c>
       <c r="I76" s="3">
-        <v>137700</v>
+        <v>144300</v>
       </c>
       <c r="J76" s="3">
-        <v>139300</v>
+        <v>146000</v>
       </c>
       <c r="K76" s="3">
         <v>96300</v>
@@ -2858,25 +2858,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>26800</v>
+        <v>28100</v>
       </c>
       <c r="E81" s="3">
-        <v>11100</v>
+        <v>11600</v>
       </c>
       <c r="F81" s="3">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="G81" s="3">
         <v>-300</v>
       </c>
       <c r="H81" s="3">
-        <v>-5400</v>
+        <v>-5700</v>
       </c>
       <c r="I81" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="J81" s="3">
-        <v>50300</v>
+        <v>52700</v>
       </c>
       <c r="K81" s="3">
         <v>-1100</v>
@@ -2906,25 +2906,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>74300</v>
+        <v>77900</v>
       </c>
       <c r="E83" s="3">
-        <v>42700</v>
+        <v>44700</v>
       </c>
       <c r="F83" s="3">
-        <v>33200</v>
+        <v>34700</v>
       </c>
       <c r="G83" s="3">
-        <v>30900</v>
+        <v>32300</v>
       </c>
       <c r="H83" s="3">
-        <v>30500</v>
+        <v>32000</v>
       </c>
       <c r="I83" s="3">
-        <v>33800</v>
+        <v>35400</v>
       </c>
       <c r="J83" s="3">
-        <v>28900</v>
+        <v>30300</v>
       </c>
       <c r="K83" s="3">
         <v>31200</v>
@@ -3104,25 +3104,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>114800</v>
+        <v>120200</v>
       </c>
       <c r="E89" s="3">
-        <v>79500</v>
+        <v>83200</v>
       </c>
       <c r="F89" s="3">
-        <v>36100</v>
+        <v>37900</v>
       </c>
       <c r="G89" s="3">
-        <v>28900</v>
+        <v>30300</v>
       </c>
       <c r="H89" s="3">
-        <v>56000</v>
+        <v>58700</v>
       </c>
       <c r="I89" s="3">
-        <v>30000</v>
+        <v>31400</v>
       </c>
       <c r="J89" s="3">
-        <v>75000</v>
+        <v>78600</v>
       </c>
       <c r="K89" s="3">
         <v>68600</v>
@@ -3152,25 +3152,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-114100</v>
+        <v>-119500</v>
       </c>
       <c r="E91" s="3">
-        <v>-58900</v>
+        <v>-61700</v>
       </c>
       <c r="F91" s="3">
-        <v>-39100</v>
+        <v>-41000</v>
       </c>
       <c r="G91" s="3">
-        <v>-19700</v>
+        <v>-20600</v>
       </c>
       <c r="H91" s="3">
-        <v>-23600</v>
+        <v>-24700</v>
       </c>
       <c r="I91" s="3">
-        <v>-25500</v>
+        <v>-26700</v>
       </c>
       <c r="J91" s="3">
-        <v>-22800</v>
+        <v>-23900</v>
       </c>
       <c r="K91" s="3">
         <v>-24600</v>
@@ -3251,25 +3251,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-116800</v>
+        <v>-122300</v>
       </c>
       <c r="E94" s="3">
-        <v>-166100</v>
+        <v>-174000</v>
       </c>
       <c r="F94" s="3">
-        <v>-24400</v>
+        <v>-25600</v>
       </c>
       <c r="G94" s="3">
-        <v>-7600</v>
+        <v>-8000</v>
       </c>
       <c r="H94" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="I94" s="3">
-        <v>-14200</v>
+        <v>-14800</v>
       </c>
       <c r="J94" s="3">
-        <v>113200</v>
+        <v>118500</v>
       </c>
       <c r="K94" s="3">
         <v>-34900</v>
@@ -3299,22 +3299,22 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="E96" s="3">
         <v>-1500</v>
       </c>
       <c r="F96" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="I96" s="3">
         <v>-1600</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-1500</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -3431,25 +3431,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-8200</v>
+        <v>-8500</v>
       </c>
       <c r="E100" s="3">
-        <v>94900</v>
+        <v>99400</v>
       </c>
       <c r="F100" s="3">
-        <v>-15700</v>
+        <v>-16500</v>
       </c>
       <c r="G100" s="3">
-        <v>-34900</v>
+        <v>-36500</v>
       </c>
       <c r="H100" s="3">
-        <v>-36700</v>
+        <v>-38400</v>
       </c>
       <c r="I100" s="3">
-        <v>-25100</v>
+        <v>-26300</v>
       </c>
       <c r="J100" s="3">
-        <v>-179100</v>
+        <v>-187500</v>
       </c>
       <c r="K100" s="3">
         <v>-34400</v>
@@ -3497,25 +3497,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-10100</v>
+        <v>-10600</v>
       </c>
       <c r="E102" s="3">
-        <v>8200</v>
+        <v>8600</v>
       </c>
       <c r="F102" s="3">
-        <v>-4000</v>
+        <v>-4200</v>
       </c>
       <c r="G102" s="3">
-        <v>-13600</v>
+        <v>-14200</v>
       </c>
       <c r="H102" s="3">
-        <v>22800</v>
+        <v>23900</v>
       </c>
       <c r="I102" s="3">
-        <v>-9300</v>
+        <v>-9700</v>
       </c>
       <c r="J102" s="3">
-        <v>9100</v>
+        <v>9600</v>
       </c>
       <c r="K102" s="3">
         <v>-600</v>

--- a/AAII_Financials/Yearly/NOA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NOA_YR_FIN.xlsx
@@ -718,25 +718,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>547300</v>
+        <v>553600</v>
       </c>
       <c r="E8" s="3">
-        <v>312100</v>
+        <v>315700</v>
       </c>
       <c r="F8" s="3">
-        <v>222700</v>
+        <v>225200</v>
       </c>
       <c r="G8" s="3">
-        <v>162200</v>
+        <v>164100</v>
       </c>
       <c r="H8" s="3">
-        <v>214100</v>
+        <v>216500</v>
       </c>
       <c r="I8" s="3">
-        <v>359100</v>
+        <v>363200</v>
       </c>
       <c r="J8" s="3">
-        <v>358100</v>
+        <v>362200</v>
       </c>
       <c r="K8" s="3">
         <v>410000</v>
@@ -751,25 +751,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>473900</v>
+        <v>479300</v>
       </c>
       <c r="E9" s="3">
-        <v>259500</v>
+        <v>262500</v>
       </c>
       <c r="F9" s="3">
-        <v>192500</v>
+        <v>194700</v>
       </c>
       <c r="G9" s="3">
-        <v>137600</v>
+        <v>139200</v>
       </c>
       <c r="H9" s="3">
-        <v>189800</v>
+        <v>192000</v>
       </c>
       <c r="I9" s="3">
-        <v>319900</v>
+        <v>323600</v>
       </c>
       <c r="J9" s="3">
-        <v>323300</v>
+        <v>327000</v>
       </c>
       <c r="K9" s="3">
         <v>384500</v>
@@ -784,25 +784,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>73400</v>
+        <v>74200</v>
       </c>
       <c r="E10" s="3">
-        <v>52600</v>
+        <v>53200</v>
       </c>
       <c r="F10" s="3">
-        <v>30200</v>
+        <v>30500</v>
       </c>
       <c r="G10" s="3">
-        <v>24600</v>
+        <v>24900</v>
       </c>
       <c r="H10" s="3">
-        <v>24300</v>
+        <v>24500</v>
       </c>
       <c r="I10" s="3">
-        <v>39100</v>
+        <v>39600</v>
       </c>
       <c r="J10" s="3">
-        <v>34800</v>
+        <v>35200</v>
       </c>
       <c r="K10" s="3">
         <v>25500</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -976,25 +976,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>502500</v>
+        <v>508300</v>
       </c>
       <c r="E17" s="3">
-        <v>289300</v>
+        <v>292600</v>
       </c>
       <c r="F17" s="3">
-        <v>212500</v>
+        <v>214900</v>
       </c>
       <c r="G17" s="3">
-        <v>159300</v>
+        <v>161100</v>
       </c>
       <c r="H17" s="3">
-        <v>212400</v>
+        <v>214800</v>
       </c>
       <c r="I17" s="3">
-        <v>350300</v>
+        <v>354300</v>
       </c>
       <c r="J17" s="3">
-        <v>365100</v>
+        <v>369200</v>
       </c>
       <c r="K17" s="3">
         <v>422000</v>
@@ -1009,13 +1009,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>44800</v>
+        <v>45300</v>
       </c>
       <c r="E18" s="3">
-        <v>22800</v>
+        <v>23100</v>
       </c>
       <c r="F18" s="3">
-        <v>10200</v>
+        <v>10300</v>
       </c>
       <c r="G18" s="3">
         <v>3000</v>
@@ -1024,10 +1024,10 @@
         <v>1700</v>
       </c>
       <c r="I18" s="3">
-        <v>8800</v>
+        <v>8900</v>
       </c>
       <c r="J18" s="3">
-        <v>-7000</v>
+        <v>-7100</v>
       </c>
       <c r="K18" s="3">
         <v>-12100</v>
@@ -1060,7 +1060,7 @@
         <v>2000</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F20" s="3">
         <v>100</v>
@@ -1075,7 +1075,7 @@
         <v>-100</v>
       </c>
       <c r="J20" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="K20" s="3">
         <v>-15900</v>
@@ -1090,25 +1090,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>124500</v>
+        <v>125900</v>
       </c>
       <c r="E21" s="3">
-        <v>67600</v>
+        <v>68400</v>
       </c>
       <c r="F21" s="3">
-        <v>45000</v>
+        <v>45500</v>
       </c>
       <c r="G21" s="3">
-        <v>36400</v>
+        <v>36900</v>
       </c>
       <c r="H21" s="3">
-        <v>33800</v>
+        <v>34200</v>
       </c>
       <c r="I21" s="3">
-        <v>44100</v>
+        <v>44600</v>
       </c>
       <c r="J21" s="3">
-        <v>28500</v>
+        <v>28900</v>
       </c>
       <c r="K21" s="3">
         <v>3200</v>
@@ -1123,25 +1123,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>16300</v>
+        <v>16500</v>
       </c>
       <c r="E22" s="3">
         <v>6700</v>
       </c>
       <c r="F22" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="G22" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="H22" s="3">
-        <v>7600</v>
+        <v>7700</v>
       </c>
       <c r="I22" s="3">
-        <v>9200</v>
+        <v>9300</v>
       </c>
       <c r="J22" s="3">
-        <v>16700</v>
+        <v>16900</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
@@ -1156,13 +1156,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>30400</v>
+        <v>30800</v>
       </c>
       <c r="E23" s="3">
-        <v>16300</v>
+        <v>16500</v>
       </c>
       <c r="F23" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="G23" s="3">
         <v>-400</v>
@@ -1174,7 +1174,7 @@
         <v>-600</v>
       </c>
       <c r="J23" s="3">
-        <v>-18400</v>
+        <v>-18600</v>
       </c>
       <c r="K23" s="3">
         <v>-28000</v>
@@ -1192,7 +1192,7 @@
         <v>2200</v>
       </c>
       <c r="E24" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="F24" s="3">
         <v>900</v>
@@ -1207,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
-        <v>-4600</v>
+        <v>-4700</v>
       </c>
       <c r="K24" s="3">
         <v>-6700</v>
@@ -1255,25 +1255,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>28300</v>
+        <v>28600</v>
       </c>
       <c r="E26" s="3">
-        <v>11700</v>
+        <v>11800</v>
       </c>
       <c r="F26" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="G26" s="3">
         <v>-300</v>
       </c>
       <c r="H26" s="3">
-        <v>-5700</v>
+        <v>-5800</v>
       </c>
       <c r="I26" s="3">
         <v>-500</v>
       </c>
       <c r="J26" s="3">
-        <v>-13700</v>
+        <v>-13900</v>
       </c>
       <c r="K26" s="3">
         <v>-21300</v>
@@ -1288,25 +1288,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>28100</v>
+        <v>28400</v>
       </c>
       <c r="E27" s="3">
-        <v>11600</v>
+        <v>11800</v>
       </c>
       <c r="F27" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="G27" s="3">
         <v>-300</v>
       </c>
       <c r="H27" s="3">
-        <v>-5700</v>
+        <v>-5800</v>
       </c>
       <c r="I27" s="3">
         <v>-500</v>
       </c>
       <c r="J27" s="3">
-        <v>-13700</v>
+        <v>-13900</v>
       </c>
       <c r="K27" s="3">
         <v>-21300</v>
@@ -1372,7 +1372,7 @@
         <v>-400</v>
       </c>
       <c r="J29" s="3">
-        <v>66400</v>
+        <v>67200</v>
       </c>
       <c r="K29" s="3">
         <v>20200</v>
@@ -1456,7 +1456,7 @@
         <v>-2000</v>
       </c>
       <c r="E32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F32" s="3">
         <v>-100</v>
@@ -1471,7 +1471,7 @@
         <v>100</v>
       </c>
       <c r="J32" s="3">
-        <v>-5300</v>
+        <v>-5400</v>
       </c>
       <c r="K32" s="3">
         <v>15900</v>
@@ -1486,25 +1486,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>28100</v>
+        <v>28400</v>
       </c>
       <c r="E33" s="3">
-        <v>11600</v>
+        <v>11800</v>
       </c>
       <c r="F33" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="G33" s="3">
         <v>-300</v>
       </c>
       <c r="H33" s="3">
-        <v>-5700</v>
+        <v>-5800</v>
       </c>
       <c r="I33" s="3">
         <v>-900</v>
       </c>
       <c r="J33" s="3">
-        <v>52700</v>
+        <v>53300</v>
       </c>
       <c r="K33" s="3">
         <v>-1100</v>
@@ -1552,25 +1552,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>28100</v>
+        <v>28400</v>
       </c>
       <c r="E35" s="3">
-        <v>11600</v>
+        <v>11800</v>
       </c>
       <c r="F35" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="G35" s="3">
         <v>-300</v>
       </c>
       <c r="H35" s="3">
-        <v>-5700</v>
+        <v>-5800</v>
       </c>
       <c r="I35" s="3">
         <v>-900</v>
       </c>
       <c r="J35" s="3">
-        <v>52700</v>
+        <v>53300</v>
       </c>
       <c r="K35" s="3">
         <v>-1100</v>
@@ -1653,25 +1653,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="E41" s="3">
-        <v>14800</v>
+        <v>15000</v>
       </c>
       <c r="F41" s="3">
-        <v>6200</v>
+        <v>6300</v>
       </c>
       <c r="G41" s="3">
-        <v>10400</v>
+        <v>10500</v>
       </c>
       <c r="H41" s="3">
-        <v>24600</v>
+        <v>24900</v>
       </c>
       <c r="I41" s="3">
         <v>700</v>
       </c>
       <c r="J41" s="3">
-        <v>10500</v>
+        <v>10600</v>
       </c>
       <c r="K41" s="3">
         <v>500</v>
@@ -1719,25 +1719,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>65400</v>
+        <v>66200</v>
       </c>
       <c r="E43" s="3">
-        <v>70800</v>
+        <v>71600</v>
       </c>
       <c r="F43" s="3">
-        <v>52000</v>
+        <v>52600</v>
       </c>
       <c r="G43" s="3">
-        <v>42700</v>
+        <v>43100</v>
       </c>
       <c r="H43" s="3">
-        <v>32200</v>
+        <v>32600</v>
       </c>
       <c r="I43" s="3">
-        <v>134400</v>
+        <v>136000</v>
       </c>
       <c r="J43" s="3">
-        <v>77900</v>
+        <v>78800</v>
       </c>
       <c r="K43" s="3">
         <v>117900</v>
@@ -1752,13 +1752,13 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>16500</v>
+        <v>16700</v>
       </c>
       <c r="E44" s="3">
-        <v>10200</v>
+        <v>10300</v>
       </c>
       <c r="F44" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="G44" s="3">
         <v>2600</v>
@@ -1791,7 +1791,7 @@
         <v>3400</v>
       </c>
       <c r="F45" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="G45" s="3">
         <v>1400</v>
@@ -1800,7 +1800,7 @@
         <v>1400</v>
       </c>
       <c r="I45" s="3">
-        <v>28500</v>
+        <v>28800</v>
       </c>
       <c r="J45" s="3">
         <v>4500</v>
@@ -1818,25 +1818,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>89700</v>
+        <v>90700</v>
       </c>
       <c r="E46" s="3">
-        <v>98700</v>
+        <v>99900</v>
       </c>
       <c r="F46" s="3">
-        <v>67600</v>
+        <v>68400</v>
       </c>
       <c r="G46" s="3">
-        <v>57000</v>
+        <v>57700</v>
       </c>
       <c r="H46" s="3">
-        <v>60200</v>
+        <v>60900</v>
       </c>
       <c r="I46" s="3">
-        <v>114400</v>
+        <v>115800</v>
       </c>
       <c r="J46" s="3">
-        <v>97300</v>
+        <v>98400</v>
       </c>
       <c r="K46" s="3">
         <v>268500</v>
@@ -1851,10 +1851,10 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>32700</v>
+        <v>33000</v>
       </c>
       <c r="E47" s="3">
-        <v>11200</v>
+        <v>11300</v>
       </c>
       <c r="F47" s="3">
         <v>300</v>
@@ -1884,25 +1884,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>463900</v>
+        <v>469300</v>
       </c>
       <c r="E48" s="3">
-        <v>804000</v>
+        <v>813200</v>
       </c>
       <c r="F48" s="3">
-        <v>212100</v>
+        <v>214500</v>
       </c>
       <c r="G48" s="3">
-        <v>195200</v>
+        <v>197400</v>
       </c>
       <c r="H48" s="3">
-        <v>393900</v>
+        <v>398400</v>
       </c>
       <c r="I48" s="3">
-        <v>198600</v>
+        <v>200800</v>
       </c>
       <c r="J48" s="3">
-        <v>191800</v>
+        <v>194000</v>
       </c>
       <c r="K48" s="3">
         <v>210200</v>
@@ -1932,7 +1932,7 @@
         <v>2400</v>
       </c>
       <c r="I49" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="J49" s="3">
         <v>0</v>
@@ -2016,25 +2016,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>17000</v>
+        <v>17200</v>
       </c>
       <c r="E52" s="3">
-        <v>18700</v>
+        <v>18900</v>
       </c>
       <c r="F52" s="3">
-        <v>11200</v>
+        <v>11400</v>
       </c>
       <c r="G52" s="3">
-        <v>12900</v>
+        <v>13000</v>
       </c>
       <c r="H52" s="3">
-        <v>19900</v>
+        <v>20100</v>
       </c>
       <c r="I52" s="3">
-        <v>31100</v>
+        <v>31500</v>
       </c>
       <c r="J52" s="3">
-        <v>50000</v>
+        <v>50600</v>
       </c>
       <c r="K52" s="3">
         <v>11600</v>
@@ -2082,25 +2082,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>603300</v>
+        <v>610200</v>
       </c>
       <c r="E54" s="3">
-        <v>525000</v>
+        <v>531000</v>
       </c>
       <c r="F54" s="3">
-        <v>292000</v>
+        <v>295300</v>
       </c>
       <c r="G54" s="3">
-        <v>266400</v>
+        <v>269500</v>
       </c>
       <c r="H54" s="3">
-        <v>274100</v>
+        <v>277300</v>
       </c>
       <c r="I54" s="3">
-        <v>347500</v>
+        <v>351500</v>
       </c>
       <c r="J54" s="3">
-        <v>339200</v>
+        <v>343100</v>
       </c>
       <c r="K54" s="3">
         <v>496800</v>
@@ -2145,25 +2145,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>67100</v>
+        <v>67900</v>
       </c>
       <c r="E57" s="3">
-        <v>48300</v>
+        <v>48900</v>
       </c>
       <c r="F57" s="3">
-        <v>26800</v>
+        <v>27100</v>
       </c>
       <c r="G57" s="3">
-        <v>22500</v>
+        <v>22700</v>
       </c>
       <c r="H57" s="3">
-        <v>19100</v>
+        <v>19300</v>
       </c>
       <c r="I57" s="3">
-        <v>44200</v>
+        <v>44700</v>
       </c>
       <c r="J57" s="3">
-        <v>36900</v>
+        <v>37300</v>
       </c>
       <c r="K57" s="3">
         <v>55500</v>
@@ -2178,25 +2178,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>36300</v>
+        <v>36700</v>
       </c>
       <c r="E58" s="3">
-        <v>47400</v>
+        <v>47900</v>
       </c>
       <c r="F58" s="3">
-        <v>22200</v>
+        <v>22400</v>
       </c>
       <c r="G58" s="3">
-        <v>24500</v>
+        <v>24800</v>
       </c>
       <c r="H58" s="3">
-        <v>22800</v>
+        <v>23100</v>
       </c>
       <c r="I58" s="3">
-        <v>16900</v>
+        <v>17100</v>
       </c>
       <c r="J58" s="3">
-        <v>11400</v>
+        <v>11500</v>
       </c>
       <c r="K58" s="3">
         <v>16100</v>
@@ -2211,25 +2211,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>16300</v>
+        <v>16500</v>
       </c>
       <c r="E59" s="3">
-        <v>32200</v>
+        <v>32600</v>
       </c>
       <c r="F59" s="3">
-        <v>11200</v>
+        <v>11300</v>
       </c>
       <c r="G59" s="3">
-        <v>9300</v>
+        <v>9400</v>
       </c>
       <c r="H59" s="3">
-        <v>10600</v>
+        <v>10800</v>
       </c>
       <c r="I59" s="3">
-        <v>26700</v>
+        <v>27000</v>
       </c>
       <c r="J59" s="3">
-        <v>22900</v>
+        <v>23100</v>
       </c>
       <c r="K59" s="3">
         <v>72300</v>
@@ -2244,25 +2244,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>119700</v>
+        <v>121100</v>
       </c>
       <c r="E60" s="3">
-        <v>113300</v>
+        <v>114600</v>
       </c>
       <c r="F60" s="3">
-        <v>59000</v>
+        <v>59700</v>
       </c>
       <c r="G60" s="3">
-        <v>56300</v>
+        <v>57000</v>
       </c>
       <c r="H60" s="3">
-        <v>47400</v>
+        <v>47900</v>
       </c>
       <c r="I60" s="3">
-        <v>72500</v>
+        <v>73400</v>
       </c>
       <c r="J60" s="3">
-        <v>71100</v>
+        <v>72000</v>
       </c>
       <c r="K60" s="3">
         <v>143900</v>
@@ -2277,25 +2277,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>274400</v>
+        <v>277500</v>
       </c>
       <c r="E61" s="3">
-        <v>243800</v>
+        <v>246600</v>
       </c>
       <c r="F61" s="3">
-        <v>82100</v>
+        <v>83100</v>
       </c>
       <c r="G61" s="3">
-        <v>52200</v>
+        <v>52800</v>
       </c>
       <c r="H61" s="3">
-        <v>61200</v>
+        <v>61900</v>
       </c>
       <c r="I61" s="3">
-        <v>80800</v>
+        <v>81700</v>
       </c>
       <c r="J61" s="3">
-        <v>78600</v>
+        <v>79500</v>
       </c>
       <c r="K61" s="3">
         <v>218800</v>
@@ -2310,25 +2310,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>72100</v>
+        <v>72900</v>
       </c>
       <c r="E62" s="3">
-        <v>53600</v>
+        <v>54200</v>
       </c>
       <c r="F62" s="3">
-        <v>39800</v>
+        <v>40200</v>
       </c>
       <c r="G62" s="3">
-        <v>36900</v>
+        <v>37300</v>
       </c>
       <c r="H62" s="3">
-        <v>34900</v>
+        <v>35300</v>
       </c>
       <c r="I62" s="3">
-        <v>49900</v>
+        <v>50500</v>
       </c>
       <c r="J62" s="3">
-        <v>43400</v>
+        <v>43900</v>
       </c>
       <c r="K62" s="3">
         <v>37700</v>
@@ -2442,25 +2442,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>466200</v>
+        <v>471500</v>
       </c>
       <c r="E66" s="3">
-        <v>411000</v>
+        <v>415800</v>
       </c>
       <c r="F66" s="3">
-        <v>180900</v>
+        <v>183000</v>
       </c>
       <c r="G66" s="3">
-        <v>145500</v>
+        <v>147100</v>
       </c>
       <c r="H66" s="3">
-        <v>143500</v>
+        <v>145200</v>
       </c>
       <c r="I66" s="3">
-        <v>203200</v>
+        <v>205500</v>
       </c>
       <c r="J66" s="3">
-        <v>193200</v>
+        <v>195400</v>
       </c>
       <c r="K66" s="3">
         <v>400500</v>
@@ -2622,25 +2622,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-60800</v>
+        <v>-61500</v>
       </c>
       <c r="E72" s="3">
-        <v>-86700</v>
+        <v>-87700</v>
       </c>
       <c r="F72" s="3">
-        <v>-96800</v>
+        <v>-97900</v>
       </c>
       <c r="G72" s="3">
-        <v>-99200</v>
+        <v>-100300</v>
       </c>
       <c r="H72" s="3">
-        <v>-97000</v>
+        <v>-98100</v>
       </c>
       <c r="I72" s="3">
-        <v>-89400</v>
+        <v>-90400</v>
       </c>
       <c r="J72" s="3">
-        <v>-86300</v>
+        <v>-87300</v>
       </c>
       <c r="K72" s="3">
         <v>-141000</v>
@@ -2754,25 +2754,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>137100</v>
+        <v>138700</v>
       </c>
       <c r="E76" s="3">
-        <v>114000</v>
+        <v>115300</v>
       </c>
       <c r="F76" s="3">
-        <v>111100</v>
+        <v>112300</v>
       </c>
       <c r="G76" s="3">
-        <v>121000</v>
+        <v>122400</v>
       </c>
       <c r="H76" s="3">
-        <v>130600</v>
+        <v>132100</v>
       </c>
       <c r="I76" s="3">
-        <v>144300</v>
+        <v>145900</v>
       </c>
       <c r="J76" s="3">
-        <v>146000</v>
+        <v>147700</v>
       </c>
       <c r="K76" s="3">
         <v>96300</v>
@@ -2858,25 +2858,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>28100</v>
+        <v>28400</v>
       </c>
       <c r="E81" s="3">
-        <v>11600</v>
+        <v>11800</v>
       </c>
       <c r="F81" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="G81" s="3">
         <v>-300</v>
       </c>
       <c r="H81" s="3">
-        <v>-5700</v>
+        <v>-5800</v>
       </c>
       <c r="I81" s="3">
         <v>-900</v>
       </c>
       <c r="J81" s="3">
-        <v>52700</v>
+        <v>53300</v>
       </c>
       <c r="K81" s="3">
         <v>-1100</v>
@@ -2906,25 +2906,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>77900</v>
+        <v>78700</v>
       </c>
       <c r="E83" s="3">
-        <v>44700</v>
+        <v>45200</v>
       </c>
       <c r="F83" s="3">
-        <v>34700</v>
+        <v>35100</v>
       </c>
       <c r="G83" s="3">
-        <v>32300</v>
+        <v>32700</v>
       </c>
       <c r="H83" s="3">
-        <v>32000</v>
+        <v>32400</v>
       </c>
       <c r="I83" s="3">
-        <v>35400</v>
+        <v>35900</v>
       </c>
       <c r="J83" s="3">
-        <v>30300</v>
+        <v>30600</v>
       </c>
       <c r="K83" s="3">
         <v>31200</v>
@@ -3104,25 +3104,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>120200</v>
+        <v>121600</v>
       </c>
       <c r="E89" s="3">
-        <v>83200</v>
+        <v>84200</v>
       </c>
       <c r="F89" s="3">
-        <v>37900</v>
+        <v>38300</v>
       </c>
       <c r="G89" s="3">
-        <v>30300</v>
+        <v>30700</v>
       </c>
       <c r="H89" s="3">
-        <v>58700</v>
+        <v>59400</v>
       </c>
       <c r="I89" s="3">
-        <v>31400</v>
+        <v>31700</v>
       </c>
       <c r="J89" s="3">
-        <v>78600</v>
+        <v>79500</v>
       </c>
       <c r="K89" s="3">
         <v>68600</v>
@@ -3152,25 +3152,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-119500</v>
+        <v>-120900</v>
       </c>
       <c r="E91" s="3">
-        <v>-61700</v>
+        <v>-62400</v>
       </c>
       <c r="F91" s="3">
-        <v>-41000</v>
+        <v>-41400</v>
       </c>
       <c r="G91" s="3">
-        <v>-20600</v>
+        <v>-20800</v>
       </c>
       <c r="H91" s="3">
-        <v>-24700</v>
+        <v>-25000</v>
       </c>
       <c r="I91" s="3">
-        <v>-26700</v>
+        <v>-27100</v>
       </c>
       <c r="J91" s="3">
-        <v>-23900</v>
+        <v>-24100</v>
       </c>
       <c r="K91" s="3">
         <v>-24600</v>
@@ -3251,25 +3251,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-122300</v>
+        <v>-123700</v>
       </c>
       <c r="E94" s="3">
-        <v>-174000</v>
+        <v>-176000</v>
       </c>
       <c r="F94" s="3">
-        <v>-25600</v>
+        <v>-25900</v>
       </c>
       <c r="G94" s="3">
-        <v>-8000</v>
+        <v>-8100</v>
       </c>
       <c r="H94" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="I94" s="3">
-        <v>-14800</v>
+        <v>-15000</v>
       </c>
       <c r="J94" s="3">
-        <v>118500</v>
+        <v>119900</v>
       </c>
       <c r="K94" s="3">
         <v>-34900</v>
@@ -3299,7 +3299,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="E96" s="3">
         <v>-1500</v>
@@ -3431,25 +3431,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-8500</v>
+        <v>-8600</v>
       </c>
       <c r="E100" s="3">
-        <v>99400</v>
+        <v>100500</v>
       </c>
       <c r="F100" s="3">
-        <v>-16500</v>
+        <v>-16700</v>
       </c>
       <c r="G100" s="3">
-        <v>-36500</v>
+        <v>-37000</v>
       </c>
       <c r="H100" s="3">
-        <v>-38400</v>
+        <v>-38900</v>
       </c>
       <c r="I100" s="3">
-        <v>-26300</v>
+        <v>-26600</v>
       </c>
       <c r="J100" s="3">
-        <v>-187500</v>
+        <v>-189700</v>
       </c>
       <c r="K100" s="3">
         <v>-34400</v>
@@ -3497,25 +3497,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-10600</v>
+        <v>-10700</v>
       </c>
       <c r="E102" s="3">
-        <v>8600</v>
+        <v>8700</v>
       </c>
       <c r="F102" s="3">
         <v>-4200</v>
       </c>
       <c r="G102" s="3">
-        <v>-14200</v>
+        <v>-14400</v>
       </c>
       <c r="H102" s="3">
-        <v>23900</v>
+        <v>24200</v>
       </c>
       <c r="I102" s="3">
-        <v>-9700</v>
+        <v>-9800</v>
       </c>
       <c r="J102" s="3">
-        <v>9600</v>
+        <v>9700</v>
       </c>
       <c r="K102" s="3">
         <v>-600</v>

--- a/AAII_Financials/Yearly/NOA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NOA_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>NOA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,154 +665,166 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41364</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40999</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>553600</v>
+        <v>396800</v>
       </c>
       <c r="E8" s="3">
-        <v>315700</v>
+        <v>570200</v>
       </c>
       <c r="F8" s="3">
-        <v>225200</v>
+        <v>325200</v>
       </c>
       <c r="G8" s="3">
-        <v>164100</v>
+        <v>232000</v>
       </c>
       <c r="H8" s="3">
-        <v>216500</v>
+        <v>169100</v>
       </c>
       <c r="I8" s="3">
-        <v>363200</v>
+        <v>223100</v>
       </c>
       <c r="J8" s="3">
+        <v>374100</v>
+      </c>
+      <c r="K8" s="3">
         <v>362200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>410000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>515300</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>479300</v>
+        <v>342100</v>
       </c>
       <c r="E9" s="3">
-        <v>262500</v>
+        <v>493800</v>
       </c>
       <c r="F9" s="3">
-        <v>194700</v>
+        <v>270400</v>
       </c>
       <c r="G9" s="3">
-        <v>139200</v>
+        <v>200600</v>
       </c>
       <c r="H9" s="3">
-        <v>192000</v>
+        <v>143400</v>
       </c>
       <c r="I9" s="3">
-        <v>323600</v>
+        <v>197800</v>
       </c>
       <c r="J9" s="3">
+        <v>333400</v>
+      </c>
+      <c r="K9" s="3">
         <v>327000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>384500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>490700</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>74200</v>
+        <v>54700</v>
       </c>
       <c r="E10" s="3">
-        <v>53200</v>
+        <v>76500</v>
       </c>
       <c r="F10" s="3">
-        <v>30500</v>
+        <v>54800</v>
       </c>
       <c r="G10" s="3">
-        <v>24900</v>
+        <v>31400</v>
       </c>
       <c r="H10" s="3">
-        <v>24500</v>
+        <v>25600</v>
       </c>
       <c r="I10" s="3">
-        <v>39600</v>
+        <v>25300</v>
       </c>
       <c r="J10" s="3">
+        <v>40800</v>
+      </c>
+      <c r="K10" s="3">
         <v>35200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>25500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>24600</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,8 +838,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -858,9 +871,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,42 +907,48 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-22400</v>
       </c>
       <c r="E14" s="3">
-        <v>1300</v>
-      </c>
-      <c r="F14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>5000</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -934,32 +956,35 @@
         <v>500</v>
       </c>
       <c r="E15" s="3">
+        <v>600</v>
+      </c>
+      <c r="F15" s="3">
         <v>300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1300</v>
       </c>
-      <c r="H15" s="3">
-        <v>1500</v>
-      </c>
       <c r="I15" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J15" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K15" s="3">
+        <v>2500</v>
+      </c>
+      <c r="L15" s="3">
         <v>2800</v>
       </c>
-      <c r="J15" s="3">
-        <v>2500</v>
-      </c>
-      <c r="K15" s="3">
-        <v>2800</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>3300</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -970,74 +995,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>508300</v>
+        <v>342100</v>
       </c>
       <c r="E17" s="3">
-        <v>292600</v>
+        <v>523600</v>
       </c>
       <c r="F17" s="3">
-        <v>214900</v>
+        <v>301400</v>
       </c>
       <c r="G17" s="3">
-        <v>161100</v>
+        <v>221400</v>
       </c>
       <c r="H17" s="3">
-        <v>214800</v>
+        <v>165900</v>
       </c>
       <c r="I17" s="3">
-        <v>354300</v>
+        <v>221300</v>
       </c>
       <c r="J17" s="3">
+        <v>365000</v>
+      </c>
+      <c r="K17" s="3">
         <v>369200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>422000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>526600</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>45300</v>
+        <v>54700</v>
       </c>
       <c r="E18" s="3">
-        <v>23100</v>
+        <v>46600</v>
       </c>
       <c r="F18" s="3">
-        <v>10300</v>
+        <v>23800</v>
       </c>
       <c r="G18" s="3">
-        <v>3000</v>
+        <v>10600</v>
       </c>
       <c r="H18" s="3">
-        <v>1700</v>
+        <v>3100</v>
       </c>
       <c r="I18" s="3">
-        <v>8900</v>
+        <v>1800</v>
       </c>
       <c r="J18" s="3">
+        <v>9200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-7100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-12100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-11400</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1051,173 +1083,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>2000</v>
+        <v>7100</v>
       </c>
       <c r="E20" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>5400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-15900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-14000</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>125900</v>
+        <v>133000</v>
       </c>
       <c r="E21" s="3">
-        <v>68400</v>
+        <v>130100</v>
       </c>
       <c r="F21" s="3">
-        <v>45500</v>
+        <v>70700</v>
       </c>
       <c r="G21" s="3">
-        <v>36900</v>
+        <v>47100</v>
       </c>
       <c r="H21" s="3">
-        <v>34200</v>
+        <v>38100</v>
       </c>
       <c r="I21" s="3">
-        <v>44600</v>
+        <v>35400</v>
       </c>
       <c r="J21" s="3">
+        <v>46100</v>
+      </c>
+      <c r="K21" s="3">
         <v>28900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>12400</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>16500</v>
+        <v>13800</v>
       </c>
       <c r="E22" s="3">
-        <v>6700</v>
+        <v>17000</v>
       </c>
       <c r="F22" s="3">
-        <v>5500</v>
+        <v>6900</v>
       </c>
       <c r="G22" s="3">
-        <v>4600</v>
+        <v>5600</v>
       </c>
       <c r="H22" s="3">
-        <v>7700</v>
+        <v>4700</v>
       </c>
       <c r="I22" s="3">
-        <v>9300</v>
+        <v>7900</v>
       </c>
       <c r="J22" s="3">
+        <v>9600</v>
+      </c>
+      <c r="K22" s="3">
         <v>16900</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1200</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>30800</v>
+        <v>48000</v>
       </c>
       <c r="E23" s="3">
-        <v>16500</v>
+        <v>31700</v>
       </c>
       <c r="F23" s="3">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="G23" s="3">
+        <v>5100</v>
+      </c>
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
-        <v>-5800</v>
-      </c>
       <c r="I23" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="J23" s="3">
         <v>-600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-18600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-28000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-26600</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2200</v>
+        <v>8900</v>
       </c>
       <c r="E24" s="3">
-        <v>4700</v>
+        <v>2300</v>
       </c>
       <c r="F24" s="3">
-        <v>900</v>
+        <v>4800</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-4700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-6700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-7100</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1248,75 +1296,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>28600</v>
+        <v>39000</v>
       </c>
       <c r="E26" s="3">
-        <v>11800</v>
+        <v>29400</v>
       </c>
       <c r="F26" s="3">
-        <v>4100</v>
+        <v>12100</v>
       </c>
       <c r="G26" s="3">
-        <v>-300</v>
+        <v>4200</v>
       </c>
       <c r="H26" s="3">
-        <v>-5800</v>
+        <v>-400</v>
       </c>
       <c r="I26" s="3">
-        <v>-500</v>
+        <v>-5900</v>
       </c>
       <c r="J26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K26" s="3">
         <v>-13900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-21300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-19500</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>28400</v>
+        <v>39000</v>
       </c>
       <c r="E27" s="3">
-        <v>11800</v>
+        <v>29200</v>
       </c>
       <c r="F27" s="3">
-        <v>4100</v>
+        <v>12100</v>
       </c>
       <c r="G27" s="3">
-        <v>-300</v>
+        <v>4200</v>
       </c>
       <c r="H27" s="3">
-        <v>-5800</v>
+        <v>-400</v>
       </c>
       <c r="I27" s="3">
-        <v>-500</v>
+        <v>-5900</v>
       </c>
       <c r="J27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K27" s="3">
         <v>-13900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-21300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-19500</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1347,9 +1404,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1365,24 +1425,27 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-400</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>67200</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>20200</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>3200</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1413,9 +1476,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1446,75 +1512,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2000</v>
+        <v>-7100</v>
       </c>
       <c r="E32" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-5400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>15900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>14000</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>28400</v>
+        <v>39000</v>
       </c>
       <c r="E33" s="3">
-        <v>11800</v>
+        <v>29200</v>
       </c>
       <c r="F33" s="3">
-        <v>4100</v>
+        <v>12100</v>
       </c>
       <c r="G33" s="3">
-        <v>-300</v>
+        <v>4200</v>
       </c>
       <c r="H33" s="3">
-        <v>-5800</v>
+        <v>-400</v>
       </c>
       <c r="I33" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="J33" s="3">
         <v>-900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>53300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-16300</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1545,80 +1620,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>28400</v>
+        <v>39000</v>
       </c>
       <c r="E35" s="3">
-        <v>11800</v>
+        <v>29200</v>
       </c>
       <c r="F35" s="3">
-        <v>4100</v>
+        <v>12100</v>
       </c>
       <c r="G35" s="3">
-        <v>-300</v>
+        <v>4200</v>
       </c>
       <c r="H35" s="3">
-        <v>-5800</v>
+        <v>-400</v>
       </c>
       <c r="I35" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="J35" s="3">
         <v>-900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>53300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-16300</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41364</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40999</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1632,8 +1716,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1647,41 +1732,45 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4300</v>
+        <v>34800</v>
       </c>
       <c r="E41" s="3">
-        <v>15000</v>
+        <v>4400</v>
       </c>
       <c r="F41" s="3">
-        <v>6300</v>
+        <v>15500</v>
       </c>
       <c r="G41" s="3">
-        <v>10500</v>
+        <v>6500</v>
       </c>
       <c r="H41" s="3">
-        <v>24900</v>
+        <v>10800</v>
       </c>
       <c r="I41" s="3">
-        <v>700</v>
+        <v>25700</v>
       </c>
       <c r="J41" s="3">
+        <v>800</v>
+      </c>
+      <c r="K41" s="3">
         <v>10600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1100</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1710,157 +1799,172 @@
         <v>0</v>
       </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>1200</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>66200</v>
+        <v>34400</v>
       </c>
       <c r="E43" s="3">
-        <v>71600</v>
+        <v>68200</v>
       </c>
       <c r="F43" s="3">
-        <v>52600</v>
+        <v>73800</v>
       </c>
       <c r="G43" s="3">
-        <v>43100</v>
+        <v>54200</v>
       </c>
       <c r="H43" s="3">
-        <v>32600</v>
+        <v>44400</v>
       </c>
       <c r="I43" s="3">
-        <v>136000</v>
+        <v>33500</v>
       </c>
       <c r="J43" s="3">
+        <v>140100</v>
+      </c>
+      <c r="K43" s="3">
         <v>78800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>117900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>231200</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>16700</v>
+        <v>15200</v>
       </c>
       <c r="E44" s="3">
-        <v>10300</v>
+        <v>17200</v>
       </c>
       <c r="F44" s="3">
-        <v>3700</v>
+        <v>10600</v>
       </c>
       <c r="G44" s="3">
-        <v>2600</v>
+        <v>3800</v>
       </c>
       <c r="H44" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I44" s="3">
         <v>2000</v>
       </c>
-      <c r="I44" s="3">
-        <v>5700</v>
-      </c>
       <c r="J44" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K44" s="3">
         <v>4500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>8000</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3600</v>
+        <v>10700</v>
       </c>
       <c r="E45" s="3">
-        <v>3400</v>
+        <v>3700</v>
       </c>
       <c r="F45" s="3">
-        <v>5800</v>
+        <v>3500</v>
       </c>
       <c r="G45" s="3">
-        <v>1400</v>
+        <v>6000</v>
       </c>
       <c r="H45" s="3">
         <v>1400</v>
       </c>
       <c r="I45" s="3">
-        <v>28800</v>
+        <v>1500</v>
       </c>
       <c r="J45" s="3">
+        <v>29700</v>
+      </c>
+      <c r="K45" s="3">
         <v>4500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>145800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>9600</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>90700</v>
+        <v>95100</v>
       </c>
       <c r="E46" s="3">
-        <v>99900</v>
+        <v>93400</v>
       </c>
       <c r="F46" s="3">
-        <v>68400</v>
+        <v>102900</v>
       </c>
       <c r="G46" s="3">
-        <v>57700</v>
+        <v>70500</v>
       </c>
       <c r="H46" s="3">
-        <v>60900</v>
+        <v>59400</v>
       </c>
       <c r="I46" s="3">
-        <v>115800</v>
+        <v>62700</v>
       </c>
       <c r="J46" s="3">
+        <v>119200</v>
+      </c>
+      <c r="K46" s="3">
         <v>98400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>268500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>251200</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>33000</v>
+        <v>34900</v>
       </c>
       <c r="E47" s="3">
-        <v>11300</v>
+        <v>34000</v>
       </c>
       <c r="F47" s="3">
+        <v>11700</v>
+      </c>
+      <c r="G47" s="3">
         <v>300</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>8</v>
@@ -1874,78 +1978,87 @@
       <c r="K47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>469300</v>
+        <v>517000</v>
       </c>
       <c r="E48" s="3">
-        <v>813200</v>
+        <v>966800</v>
       </c>
       <c r="F48" s="3">
-        <v>214500</v>
+        <v>837700</v>
       </c>
       <c r="G48" s="3">
-        <v>197400</v>
+        <v>221000</v>
       </c>
       <c r="H48" s="3">
-        <v>398400</v>
+        <v>203400</v>
       </c>
       <c r="I48" s="3">
-        <v>200800</v>
+        <v>410400</v>
       </c>
       <c r="J48" s="3">
+        <v>206900</v>
+      </c>
+      <c r="K48" s="3">
         <v>194000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>210200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>245000</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="3">
-        <v>2200</v>
+      <c r="E49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F49" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G49" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H49" s="3">
         <v>1400</v>
       </c>
-      <c r="G49" s="3">
-        <v>1400</v>
-      </c>
-      <c r="H49" s="3">
-        <v>2400</v>
-      </c>
       <c r="I49" s="3">
-        <v>3400</v>
+        <v>2500</v>
       </c>
       <c r="J49" s="3">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3">
         <v>6500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>35200</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1976,9 +2089,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,42 +2125,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>17200</v>
+        <v>18300</v>
       </c>
       <c r="E52" s="3">
-        <v>18900</v>
+        <v>17700</v>
       </c>
       <c r="F52" s="3">
-        <v>11400</v>
+        <v>19400</v>
       </c>
       <c r="G52" s="3">
-        <v>13000</v>
+        <v>11700</v>
       </c>
       <c r="H52" s="3">
-        <v>20100</v>
+        <v>13400</v>
       </c>
       <c r="I52" s="3">
-        <v>31500</v>
+        <v>20800</v>
       </c>
       <c r="J52" s="3">
+        <v>32500</v>
+      </c>
+      <c r="K52" s="3">
         <v>50600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>11600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>46200</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2075,42 +2197,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>610200</v>
+        <v>665300</v>
       </c>
       <c r="E54" s="3">
-        <v>531000</v>
+        <v>628600</v>
       </c>
       <c r="F54" s="3">
-        <v>295300</v>
+        <v>547000</v>
       </c>
       <c r="G54" s="3">
-        <v>269500</v>
+        <v>304200</v>
       </c>
       <c r="H54" s="3">
-        <v>277300</v>
+        <v>277600</v>
       </c>
       <c r="I54" s="3">
-        <v>351500</v>
+        <v>285600</v>
       </c>
       <c r="J54" s="3">
+        <v>362100</v>
+      </c>
+      <c r="K54" s="3">
         <v>343100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>496800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>576200</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2124,8 +2252,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2139,206 +2268,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>67900</v>
+        <v>32800</v>
       </c>
       <c r="E57" s="3">
-        <v>48900</v>
+        <v>69900</v>
       </c>
       <c r="F57" s="3">
-        <v>27100</v>
+        <v>50300</v>
       </c>
       <c r="G57" s="3">
-        <v>22700</v>
+        <v>27900</v>
       </c>
       <c r="H57" s="3">
-        <v>19300</v>
+        <v>23400</v>
       </c>
       <c r="I57" s="3">
-        <v>44700</v>
+        <v>19900</v>
       </c>
       <c r="J57" s="3">
+        <v>46100</v>
+      </c>
+      <c r="K57" s="3">
         <v>37300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>55500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>131500</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>36700</v>
+        <v>34300</v>
       </c>
       <c r="E58" s="3">
-        <v>47900</v>
+        <v>37800</v>
       </c>
       <c r="F58" s="3">
-        <v>22400</v>
+        <v>49400</v>
       </c>
       <c r="G58" s="3">
-        <v>24800</v>
+        <v>23100</v>
       </c>
       <c r="H58" s="3">
-        <v>23100</v>
+        <v>25600</v>
       </c>
       <c r="I58" s="3">
-        <v>17100</v>
+        <v>23800</v>
       </c>
       <c r="J58" s="3">
+        <v>17600</v>
+      </c>
+      <c r="K58" s="3">
         <v>11500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>16100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>22100</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>16500</v>
+        <v>19500</v>
       </c>
       <c r="E59" s="3">
-        <v>32600</v>
+        <v>30900</v>
       </c>
       <c r="F59" s="3">
-        <v>11300</v>
+        <v>33600</v>
       </c>
       <c r="G59" s="3">
-        <v>9400</v>
+        <v>11700</v>
       </c>
       <c r="H59" s="3">
-        <v>10800</v>
+        <v>9700</v>
       </c>
       <c r="I59" s="3">
-        <v>27000</v>
+        <v>11100</v>
       </c>
       <c r="J59" s="3">
+        <v>27800</v>
+      </c>
+      <c r="K59" s="3">
         <v>23100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>72300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>53000</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>121100</v>
+        <v>86600</v>
       </c>
       <c r="E60" s="3">
-        <v>114600</v>
+        <v>124700</v>
       </c>
       <c r="F60" s="3">
-        <v>59700</v>
+        <v>118100</v>
       </c>
       <c r="G60" s="3">
-        <v>57000</v>
+        <v>61500</v>
       </c>
       <c r="H60" s="3">
-        <v>47900</v>
+        <v>58700</v>
       </c>
       <c r="I60" s="3">
-        <v>73400</v>
+        <v>49300</v>
       </c>
       <c r="J60" s="3">
+        <v>75600</v>
+      </c>
+      <c r="K60" s="3">
         <v>72000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>143900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>195600</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>277500</v>
+        <v>304600</v>
       </c>
       <c r="E61" s="3">
-        <v>246600</v>
+        <v>285900</v>
       </c>
       <c r="F61" s="3">
-        <v>83100</v>
+        <v>254000</v>
       </c>
       <c r="G61" s="3">
-        <v>52800</v>
+        <v>85600</v>
       </c>
       <c r="H61" s="3">
-        <v>61900</v>
+        <v>54400</v>
       </c>
       <c r="I61" s="3">
-        <v>81700</v>
+        <v>63800</v>
       </c>
       <c r="J61" s="3">
+        <v>84200</v>
+      </c>
+      <c r="K61" s="3">
         <v>79500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>218800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>230500</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>72900</v>
+        <v>77100</v>
       </c>
       <c r="E62" s="3">
-        <v>54200</v>
+        <v>75100</v>
       </c>
       <c r="F62" s="3">
-        <v>40200</v>
+        <v>55800</v>
       </c>
       <c r="G62" s="3">
-        <v>37300</v>
+        <v>41400</v>
       </c>
       <c r="H62" s="3">
-        <v>35300</v>
+        <v>38500</v>
       </c>
       <c r="I62" s="3">
-        <v>50500</v>
+        <v>36400</v>
       </c>
       <c r="J62" s="3">
+        <v>52000</v>
+      </c>
+      <c r="K62" s="3">
         <v>43900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>37700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>51900</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2369,9 +2517,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2402,9 +2553,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2435,42 +2589,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>471500</v>
+        <v>468300</v>
       </c>
       <c r="E66" s="3">
-        <v>415800</v>
+        <v>485800</v>
       </c>
       <c r="F66" s="3">
-        <v>183000</v>
+        <v>428300</v>
       </c>
       <c r="G66" s="3">
-        <v>147100</v>
+        <v>188500</v>
       </c>
       <c r="H66" s="3">
-        <v>145200</v>
+        <v>151600</v>
       </c>
       <c r="I66" s="3">
-        <v>205500</v>
+        <v>149500</v>
       </c>
       <c r="J66" s="3">
+        <v>211700</v>
+      </c>
+      <c r="K66" s="3">
         <v>195400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>400500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>478000</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2484,8 +2644,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2516,9 +2677,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2549,9 +2713,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2582,9 +2749,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2615,42 +2785,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-61500</v>
+        <v>-27900</v>
       </c>
       <c r="E72" s="3">
-        <v>-87700</v>
+        <v>-63300</v>
       </c>
       <c r="F72" s="3">
-        <v>-97900</v>
+        <v>-90300</v>
       </c>
       <c r="G72" s="3">
-        <v>-100300</v>
+        <v>-100800</v>
       </c>
       <c r="H72" s="3">
-        <v>-98100</v>
+        <v>-103300</v>
       </c>
       <c r="I72" s="3">
-        <v>-90400</v>
+        <v>-101100</v>
       </c>
       <c r="J72" s="3">
+        <v>-93100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-87300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-141000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-142800</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2681,9 +2857,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2714,9 +2893,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2747,42 +2929,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>138700</v>
+        <v>197000</v>
       </c>
       <c r="E76" s="3">
-        <v>115300</v>
+        <v>142800</v>
       </c>
       <c r="F76" s="3">
-        <v>112300</v>
+        <v>118700</v>
       </c>
       <c r="G76" s="3">
-        <v>122400</v>
+        <v>115700</v>
       </c>
       <c r="H76" s="3">
-        <v>132100</v>
+        <v>126100</v>
       </c>
       <c r="I76" s="3">
-        <v>145900</v>
+        <v>136100</v>
       </c>
       <c r="J76" s="3">
+        <v>150300</v>
+      </c>
+      <c r="K76" s="3">
         <v>147700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>96300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>98200</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2813,80 +3001,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41364</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40999</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>28400</v>
+        <v>39000</v>
       </c>
       <c r="E81" s="3">
-        <v>11800</v>
+        <v>29200</v>
       </c>
       <c r="F81" s="3">
-        <v>4100</v>
+        <v>12100</v>
       </c>
       <c r="G81" s="3">
-        <v>-300</v>
+        <v>4200</v>
       </c>
       <c r="H81" s="3">
-        <v>-5800</v>
+        <v>-400</v>
       </c>
       <c r="I81" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="J81" s="3">
         <v>-900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>53300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-16300</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2900,41 +3097,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>78700</v>
+        <v>71000</v>
       </c>
       <c r="E83" s="3">
-        <v>45200</v>
+        <v>81100</v>
       </c>
       <c r="F83" s="3">
-        <v>35100</v>
+        <v>46600</v>
       </c>
       <c r="G83" s="3">
-        <v>32700</v>
+        <v>36200</v>
       </c>
       <c r="H83" s="3">
-        <v>32400</v>
+        <v>33700</v>
       </c>
       <c r="I83" s="3">
-        <v>35900</v>
+        <v>33300</v>
       </c>
       <c r="J83" s="3">
+        <v>36900</v>
+      </c>
+      <c r="K83" s="3">
         <v>30600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>31200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>37600</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2965,9 +3166,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2998,9 +3202,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3031,9 +3238,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3064,9 +3274,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3097,42 +3310,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>121600</v>
+        <v>116800</v>
       </c>
       <c r="E89" s="3">
-        <v>84200</v>
+        <v>125300</v>
       </c>
       <c r="F89" s="3">
-        <v>38300</v>
+        <v>86700</v>
       </c>
       <c r="G89" s="3">
-        <v>30700</v>
+        <v>39400</v>
       </c>
       <c r="H89" s="3">
-        <v>59400</v>
+        <v>31600</v>
       </c>
       <c r="I89" s="3">
-        <v>31700</v>
+        <v>61100</v>
       </c>
       <c r="J89" s="3">
+        <v>32700</v>
+      </c>
+      <c r="K89" s="3">
         <v>79500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>68600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>48600</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3146,41 +3365,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-120900</v>
+        <v>-93000</v>
       </c>
       <c r="E91" s="3">
-        <v>-62400</v>
+        <v>-124500</v>
       </c>
       <c r="F91" s="3">
-        <v>-41400</v>
+        <v>-64300</v>
       </c>
       <c r="G91" s="3">
-        <v>-20800</v>
+        <v>-42700</v>
       </c>
       <c r="H91" s="3">
-        <v>-25000</v>
+        <v>-21500</v>
       </c>
       <c r="I91" s="3">
-        <v>-27100</v>
+        <v>-25800</v>
       </c>
       <c r="J91" s="3">
+        <v>-27900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-24100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-24600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-40700</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3211,9 +3434,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3244,42 +3470,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-123700</v>
+        <v>-90100</v>
       </c>
       <c r="E94" s="3">
-        <v>-176000</v>
+        <v>-127400</v>
       </c>
       <c r="F94" s="3">
-        <v>-25900</v>
+        <v>-181300</v>
       </c>
       <c r="G94" s="3">
-        <v>-8100</v>
+        <v>-26600</v>
       </c>
       <c r="H94" s="3">
-        <v>3700</v>
+        <v>-8300</v>
       </c>
       <c r="I94" s="3">
-        <v>-15000</v>
+        <v>3800</v>
       </c>
       <c r="J94" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="K94" s="3">
         <v>119900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-34900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-49300</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3293,31 +3525,32 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E96" s="3">
         <v>-2000</v>
       </c>
-      <c r="E96" s="3">
-        <v>-1500</v>
-      </c>
       <c r="F96" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G96" s="3">
         <v>-1700</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1400</v>
       </c>
-      <c r="H96" s="3">
-        <v>-2500</v>
-      </c>
       <c r="I96" s="3">
-        <v>-1600</v>
+        <v>-2600</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-1700</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -3325,9 +3558,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3358,9 +3594,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3391,9 +3630,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3424,56 +3666,62 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-8600</v>
+        <v>3700</v>
       </c>
       <c r="E100" s="3">
-        <v>100500</v>
+        <v>-8900</v>
       </c>
       <c r="F100" s="3">
-        <v>-16700</v>
+        <v>103500</v>
       </c>
       <c r="G100" s="3">
-        <v>-37000</v>
+        <v>-17200</v>
       </c>
       <c r="H100" s="3">
-        <v>-38900</v>
+        <v>-38100</v>
       </c>
       <c r="I100" s="3">
-        <v>-26600</v>
+        <v>-40000</v>
       </c>
       <c r="J100" s="3">
+        <v>-27400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-189700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-34400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1200</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>8</v>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
@@ -3490,40 +3738,46 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-10700</v>
+        <v>30400</v>
       </c>
       <c r="E102" s="3">
-        <v>8700</v>
+        <v>-11100</v>
       </c>
       <c r="F102" s="3">
-        <v>-4200</v>
+        <v>9000</v>
       </c>
       <c r="G102" s="3">
-        <v>-14400</v>
+        <v>-4300</v>
       </c>
       <c r="H102" s="3">
-        <v>24200</v>
+        <v>-14800</v>
       </c>
       <c r="I102" s="3">
-        <v>-9800</v>
+        <v>24900</v>
       </c>
       <c r="J102" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="K102" s="3">
         <v>9700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>500</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/NOA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NOA_YR_FIN.xlsx
@@ -721,25 +721,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>396800</v>
+        <v>414800</v>
       </c>
       <c r="E8" s="3">
-        <v>570200</v>
+        <v>596100</v>
       </c>
       <c r="F8" s="3">
-        <v>325200</v>
+        <v>340000</v>
       </c>
       <c r="G8" s="3">
-        <v>232000</v>
+        <v>242500</v>
       </c>
       <c r="H8" s="3">
-        <v>169100</v>
+        <v>176700</v>
       </c>
       <c r="I8" s="3">
-        <v>223100</v>
+        <v>233200</v>
       </c>
       <c r="J8" s="3">
-        <v>374100</v>
+        <v>391100</v>
       </c>
       <c r="K8" s="3">
         <v>362200</v>
@@ -757,25 +757,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>342100</v>
+        <v>357600</v>
       </c>
       <c r="E9" s="3">
-        <v>493800</v>
+        <v>516200</v>
       </c>
       <c r="F9" s="3">
-        <v>270400</v>
+        <v>282700</v>
       </c>
       <c r="G9" s="3">
-        <v>200600</v>
+        <v>209700</v>
       </c>
       <c r="H9" s="3">
-        <v>143400</v>
+        <v>149900</v>
       </c>
       <c r="I9" s="3">
-        <v>197800</v>
+        <v>206800</v>
       </c>
       <c r="J9" s="3">
-        <v>333400</v>
+        <v>348500</v>
       </c>
       <c r="K9" s="3">
         <v>327000</v>
@@ -793,25 +793,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>54700</v>
+        <v>57200</v>
       </c>
       <c r="E10" s="3">
-        <v>76500</v>
+        <v>79900</v>
       </c>
       <c r="F10" s="3">
-        <v>54800</v>
+        <v>57300</v>
       </c>
       <c r="G10" s="3">
-        <v>31400</v>
+        <v>32900</v>
       </c>
       <c r="H10" s="3">
-        <v>25600</v>
+        <v>26800</v>
       </c>
       <c r="I10" s="3">
-        <v>25300</v>
+        <v>26400</v>
       </c>
       <c r="J10" s="3">
-        <v>40800</v>
+        <v>42600</v>
       </c>
       <c r="K10" s="3">
         <v>35200</v>
@@ -917,7 +917,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-22400</v>
+        <v>-23400</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>300</v>
       </c>
       <c r="G15" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="H15" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="I15" s="3">
         <v>1600</v>
       </c>
       <c r="J15" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="K15" s="3">
         <v>2500</v>
@@ -1002,25 +1002,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>342100</v>
+        <v>357700</v>
       </c>
       <c r="E17" s="3">
-        <v>523600</v>
+        <v>547400</v>
       </c>
       <c r="F17" s="3">
-        <v>301400</v>
+        <v>315100</v>
       </c>
       <c r="G17" s="3">
-        <v>221400</v>
+        <v>231400</v>
       </c>
       <c r="H17" s="3">
-        <v>165900</v>
+        <v>173500</v>
       </c>
       <c r="I17" s="3">
-        <v>221300</v>
+        <v>231300</v>
       </c>
       <c r="J17" s="3">
-        <v>365000</v>
+        <v>381600</v>
       </c>
       <c r="K17" s="3">
         <v>369200</v>
@@ -1038,25 +1038,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>54700</v>
+        <v>57200</v>
       </c>
       <c r="E18" s="3">
-        <v>46600</v>
+        <v>48700</v>
       </c>
       <c r="F18" s="3">
-        <v>23800</v>
+        <v>24900</v>
       </c>
       <c r="G18" s="3">
-        <v>10600</v>
+        <v>11100</v>
       </c>
       <c r="H18" s="3">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="I18" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="J18" s="3">
-        <v>9200</v>
+        <v>9600</v>
       </c>
       <c r="K18" s="3">
         <v>-7100</v>
@@ -1090,10 +1090,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>7100</v>
+        <v>7400</v>
       </c>
       <c r="E20" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="F20" s="3">
         <v>200</v>
@@ -1102,7 +1102,7 @@
         <v>100</v>
       </c>
       <c r="H20" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="I20" s="3">
         <v>100</v>
@@ -1126,25 +1126,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>133000</v>
+        <v>139000</v>
       </c>
       <c r="E21" s="3">
-        <v>130100</v>
+        <v>135900</v>
       </c>
       <c r="F21" s="3">
-        <v>70700</v>
+        <v>73800</v>
       </c>
       <c r="G21" s="3">
-        <v>47100</v>
+        <v>49200</v>
       </c>
       <c r="H21" s="3">
-        <v>38100</v>
+        <v>39800</v>
       </c>
       <c r="I21" s="3">
-        <v>35400</v>
+        <v>36900</v>
       </c>
       <c r="J21" s="3">
-        <v>46100</v>
+        <v>48100</v>
       </c>
       <c r="K21" s="3">
         <v>28900</v>
@@ -1162,25 +1162,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>13800</v>
+        <v>14400</v>
       </c>
       <c r="E22" s="3">
-        <v>17000</v>
+        <v>17800</v>
       </c>
       <c r="F22" s="3">
-        <v>6900</v>
+        <v>7300</v>
       </c>
       <c r="G22" s="3">
-        <v>5600</v>
+        <v>5900</v>
       </c>
       <c r="H22" s="3">
-        <v>4700</v>
+        <v>5000</v>
       </c>
       <c r="I22" s="3">
-        <v>7900</v>
+        <v>8300</v>
       </c>
       <c r="J22" s="3">
-        <v>9600</v>
+        <v>10100</v>
       </c>
       <c r="K22" s="3">
         <v>16900</v>
@@ -1198,22 +1198,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>48000</v>
+        <v>50100</v>
       </c>
       <c r="E23" s="3">
-        <v>31700</v>
+        <v>33200</v>
       </c>
       <c r="F23" s="3">
-        <v>17000</v>
+        <v>17800</v>
       </c>
       <c r="G23" s="3">
-        <v>5100</v>
+        <v>5400</v>
       </c>
       <c r="H23" s="3">
         <v>-400</v>
       </c>
       <c r="I23" s="3">
-        <v>-6000</v>
+        <v>-6300</v>
       </c>
       <c r="J23" s="3">
         <v>-600</v>
@@ -1234,13 +1234,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>8900</v>
+        <v>9300</v>
       </c>
       <c r="E24" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="F24" s="3">
-        <v>4800</v>
+        <v>5100</v>
       </c>
       <c r="G24" s="3">
         <v>1000</v>
@@ -1306,22 +1306,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>39000</v>
+        <v>40800</v>
       </c>
       <c r="E26" s="3">
-        <v>29400</v>
+        <v>30800</v>
       </c>
       <c r="F26" s="3">
-        <v>12100</v>
+        <v>12700</v>
       </c>
       <c r="G26" s="3">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="H26" s="3">
         <v>-400</v>
       </c>
       <c r="I26" s="3">
-        <v>-5900</v>
+        <v>-6200</v>
       </c>
       <c r="J26" s="3">
         <v>-600</v>
@@ -1342,22 +1342,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>39000</v>
+        <v>40800</v>
       </c>
       <c r="E27" s="3">
-        <v>29200</v>
+        <v>30600</v>
       </c>
       <c r="F27" s="3">
-        <v>12100</v>
+        <v>12700</v>
       </c>
       <c r="G27" s="3">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="H27" s="3">
         <v>-400</v>
       </c>
       <c r="I27" s="3">
-        <v>-5900</v>
+        <v>-6200</v>
       </c>
       <c r="J27" s="3">
         <v>-600</v>
@@ -1522,10 +1522,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-7100</v>
+        <v>-7400</v>
       </c>
       <c r="E32" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="F32" s="3">
         <v>-200</v>
@@ -1534,7 +1534,7 @@
         <v>-100</v>
       </c>
       <c r="H32" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="I32" s="3">
         <v>-100</v>
@@ -1558,25 +1558,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>39000</v>
+        <v>40800</v>
       </c>
       <c r="E33" s="3">
-        <v>29200</v>
+        <v>30600</v>
       </c>
       <c r="F33" s="3">
-        <v>12100</v>
+        <v>12700</v>
       </c>
       <c r="G33" s="3">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="H33" s="3">
         <v>-400</v>
       </c>
       <c r="I33" s="3">
-        <v>-5900</v>
+        <v>-6200</v>
       </c>
       <c r="J33" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="K33" s="3">
         <v>53300</v>
@@ -1630,25 +1630,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>39000</v>
+        <v>40800</v>
       </c>
       <c r="E35" s="3">
-        <v>29200</v>
+        <v>30600</v>
       </c>
       <c r="F35" s="3">
-        <v>12100</v>
+        <v>12700</v>
       </c>
       <c r="G35" s="3">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="H35" s="3">
         <v>-400</v>
       </c>
       <c r="I35" s="3">
-        <v>-5900</v>
+        <v>-6200</v>
       </c>
       <c r="J35" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="K35" s="3">
         <v>53300</v>
@@ -1739,22 +1739,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>34800</v>
+        <v>36400</v>
       </c>
       <c r="E41" s="3">
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="F41" s="3">
-        <v>15500</v>
+        <v>16200</v>
       </c>
       <c r="G41" s="3">
-        <v>6500</v>
+        <v>6800</v>
       </c>
       <c r="H41" s="3">
-        <v>10800</v>
+        <v>11300</v>
       </c>
       <c r="I41" s="3">
-        <v>25700</v>
+        <v>26800</v>
       </c>
       <c r="J41" s="3">
         <v>800</v>
@@ -1811,25 +1811,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>34400</v>
+        <v>36000</v>
       </c>
       <c r="E43" s="3">
-        <v>68200</v>
+        <v>71200</v>
       </c>
       <c r="F43" s="3">
-        <v>73800</v>
+        <v>77200</v>
       </c>
       <c r="G43" s="3">
-        <v>54200</v>
+        <v>56700</v>
       </c>
       <c r="H43" s="3">
-        <v>44400</v>
+        <v>46500</v>
       </c>
       <c r="I43" s="3">
-        <v>33500</v>
+        <v>35100</v>
       </c>
       <c r="J43" s="3">
-        <v>140100</v>
+        <v>146400</v>
       </c>
       <c r="K43" s="3">
         <v>78800</v>
@@ -1847,25 +1847,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>15200</v>
+        <v>15900</v>
       </c>
       <c r="E44" s="3">
-        <v>17200</v>
+        <v>17900</v>
       </c>
       <c r="F44" s="3">
-        <v>10600</v>
+        <v>11100</v>
       </c>
       <c r="G44" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="H44" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="I44" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="J44" s="3">
-        <v>5900</v>
+        <v>6200</v>
       </c>
       <c r="K44" s="3">
         <v>4500</v>
@@ -1883,25 +1883,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>10700</v>
+        <v>11200</v>
       </c>
       <c r="E45" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F45" s="3">
         <v>3700</v>
       </c>
-      <c r="F45" s="3">
-        <v>3500</v>
-      </c>
       <c r="G45" s="3">
-        <v>6000</v>
+        <v>6300</v>
       </c>
       <c r="H45" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="I45" s="3">
         <v>1500</v>
       </c>
       <c r="J45" s="3">
-        <v>29700</v>
+        <v>31000</v>
       </c>
       <c r="K45" s="3">
         <v>4500</v>
@@ -1919,25 +1919,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>95100</v>
+        <v>99500</v>
       </c>
       <c r="E46" s="3">
-        <v>93400</v>
+        <v>97700</v>
       </c>
       <c r="F46" s="3">
-        <v>102900</v>
+        <v>107500</v>
       </c>
       <c r="G46" s="3">
-        <v>70500</v>
+        <v>73700</v>
       </c>
       <c r="H46" s="3">
-        <v>59400</v>
+        <v>62100</v>
       </c>
       <c r="I46" s="3">
-        <v>62700</v>
+        <v>65600</v>
       </c>
       <c r="J46" s="3">
-        <v>119200</v>
+        <v>124700</v>
       </c>
       <c r="K46" s="3">
         <v>98400</v>
@@ -1955,13 +1955,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>34900</v>
+        <v>36500</v>
       </c>
       <c r="E47" s="3">
-        <v>34000</v>
+        <v>35600</v>
       </c>
       <c r="F47" s="3">
-        <v>11700</v>
+        <v>12200</v>
       </c>
       <c r="G47" s="3">
         <v>300</v>
@@ -1991,25 +1991,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>517000</v>
+        <v>540500</v>
       </c>
       <c r="E48" s="3">
-        <v>966800</v>
+        <v>1010700</v>
       </c>
       <c r="F48" s="3">
-        <v>837700</v>
+        <v>875700</v>
       </c>
       <c r="G48" s="3">
-        <v>221000</v>
+        <v>231000</v>
       </c>
       <c r="H48" s="3">
-        <v>203400</v>
+        <v>212600</v>
       </c>
       <c r="I48" s="3">
-        <v>410400</v>
+        <v>429000</v>
       </c>
       <c r="J48" s="3">
-        <v>206900</v>
+        <v>216300</v>
       </c>
       <c r="K48" s="3">
         <v>194000</v>
@@ -2033,19 +2033,19 @@
         <v>8</v>
       </c>
       <c r="F49" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="G49" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H49" s="3">
         <v>1500</v>
       </c>
-      <c r="H49" s="3">
-        <v>1400</v>
-      </c>
       <c r="I49" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="J49" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -2135,25 +2135,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>18300</v>
+        <v>19100</v>
       </c>
       <c r="E52" s="3">
-        <v>17700</v>
+        <v>18500</v>
       </c>
       <c r="F52" s="3">
-        <v>19400</v>
+        <v>20300</v>
       </c>
       <c r="G52" s="3">
-        <v>11700</v>
+        <v>12300</v>
       </c>
       <c r="H52" s="3">
-        <v>13400</v>
+        <v>14000</v>
       </c>
       <c r="I52" s="3">
-        <v>20800</v>
+        <v>21700</v>
       </c>
       <c r="J52" s="3">
-        <v>32500</v>
+        <v>33900</v>
       </c>
       <c r="K52" s="3">
         <v>50600</v>
@@ -2207,25 +2207,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>665300</v>
+        <v>695500</v>
       </c>
       <c r="E54" s="3">
-        <v>628600</v>
+        <v>657100</v>
       </c>
       <c r="F54" s="3">
-        <v>547000</v>
+        <v>571900</v>
       </c>
       <c r="G54" s="3">
-        <v>304200</v>
+        <v>318100</v>
       </c>
       <c r="H54" s="3">
-        <v>277600</v>
+        <v>290200</v>
       </c>
       <c r="I54" s="3">
-        <v>285600</v>
+        <v>298600</v>
       </c>
       <c r="J54" s="3">
-        <v>362100</v>
+        <v>378500</v>
       </c>
       <c r="K54" s="3">
         <v>343100</v>
@@ -2275,25 +2275,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>32800</v>
+        <v>34300</v>
       </c>
       <c r="E57" s="3">
-        <v>69900</v>
+        <v>73100</v>
       </c>
       <c r="F57" s="3">
-        <v>50300</v>
+        <v>52600</v>
       </c>
       <c r="G57" s="3">
-        <v>27900</v>
+        <v>29200</v>
       </c>
       <c r="H57" s="3">
-        <v>23400</v>
+        <v>24500</v>
       </c>
       <c r="I57" s="3">
-        <v>19900</v>
+        <v>20800</v>
       </c>
       <c r="J57" s="3">
-        <v>46100</v>
+        <v>48200</v>
       </c>
       <c r="K57" s="3">
         <v>37300</v>
@@ -2311,25 +2311,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>34300</v>
+        <v>35800</v>
       </c>
       <c r="E58" s="3">
-        <v>37800</v>
+        <v>39600</v>
       </c>
       <c r="F58" s="3">
-        <v>49400</v>
+        <v>51600</v>
       </c>
       <c r="G58" s="3">
-        <v>23100</v>
+        <v>24200</v>
       </c>
       <c r="H58" s="3">
-        <v>25600</v>
+        <v>26700</v>
       </c>
       <c r="I58" s="3">
-        <v>23800</v>
+        <v>24800</v>
       </c>
       <c r="J58" s="3">
-        <v>17600</v>
+        <v>18400</v>
       </c>
       <c r="K58" s="3">
         <v>11500</v>
@@ -2347,25 +2347,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>19500</v>
+        <v>20400</v>
       </c>
       <c r="E59" s="3">
-        <v>30900</v>
+        <v>32300</v>
       </c>
       <c r="F59" s="3">
-        <v>33600</v>
+        <v>35100</v>
       </c>
       <c r="G59" s="3">
-        <v>11700</v>
+        <v>12200</v>
       </c>
       <c r="H59" s="3">
-        <v>9700</v>
+        <v>10200</v>
       </c>
       <c r="I59" s="3">
-        <v>11100</v>
+        <v>11600</v>
       </c>
       <c r="J59" s="3">
-        <v>27800</v>
+        <v>29100</v>
       </c>
       <c r="K59" s="3">
         <v>23100</v>
@@ -2383,25 +2383,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>86600</v>
+        <v>90500</v>
       </c>
       <c r="E60" s="3">
-        <v>124700</v>
+        <v>130400</v>
       </c>
       <c r="F60" s="3">
-        <v>118100</v>
+        <v>123400</v>
       </c>
       <c r="G60" s="3">
-        <v>61500</v>
+        <v>64300</v>
       </c>
       <c r="H60" s="3">
-        <v>58700</v>
+        <v>61400</v>
       </c>
       <c r="I60" s="3">
-        <v>49300</v>
+        <v>51600</v>
       </c>
       <c r="J60" s="3">
-        <v>75600</v>
+        <v>79000</v>
       </c>
       <c r="K60" s="3">
         <v>72000</v>
@@ -2419,25 +2419,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>304600</v>
+        <v>318500</v>
       </c>
       <c r="E61" s="3">
-        <v>285900</v>
+        <v>298900</v>
       </c>
       <c r="F61" s="3">
-        <v>254000</v>
+        <v>265500</v>
       </c>
       <c r="G61" s="3">
-        <v>85600</v>
+        <v>89500</v>
       </c>
       <c r="H61" s="3">
-        <v>54400</v>
+        <v>56900</v>
       </c>
       <c r="I61" s="3">
-        <v>63800</v>
+        <v>66700</v>
       </c>
       <c r="J61" s="3">
-        <v>84200</v>
+        <v>88000</v>
       </c>
       <c r="K61" s="3">
         <v>79500</v>
@@ -2455,25 +2455,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>77100</v>
+        <v>80600</v>
       </c>
       <c r="E62" s="3">
-        <v>75100</v>
+        <v>78500</v>
       </c>
       <c r="F62" s="3">
-        <v>55800</v>
+        <v>58400</v>
       </c>
       <c r="G62" s="3">
-        <v>41400</v>
+        <v>43300</v>
       </c>
       <c r="H62" s="3">
-        <v>38500</v>
+        <v>40200</v>
       </c>
       <c r="I62" s="3">
-        <v>36400</v>
+        <v>38000</v>
       </c>
       <c r="J62" s="3">
-        <v>52000</v>
+        <v>54400</v>
       </c>
       <c r="K62" s="3">
         <v>43900</v>
@@ -2599,25 +2599,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>468300</v>
+        <v>489500</v>
       </c>
       <c r="E66" s="3">
-        <v>485800</v>
+        <v>507800</v>
       </c>
       <c r="F66" s="3">
-        <v>428300</v>
+        <v>447800</v>
       </c>
       <c r="G66" s="3">
-        <v>188500</v>
+        <v>197100</v>
       </c>
       <c r="H66" s="3">
-        <v>151600</v>
+        <v>158500</v>
       </c>
       <c r="I66" s="3">
-        <v>149500</v>
+        <v>156300</v>
       </c>
       <c r="J66" s="3">
-        <v>211700</v>
+        <v>221400</v>
       </c>
       <c r="K66" s="3">
         <v>195400</v>
@@ -2795,25 +2795,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-27900</v>
+        <v>-29100</v>
       </c>
       <c r="E72" s="3">
-        <v>-63300</v>
+        <v>-66200</v>
       </c>
       <c r="F72" s="3">
-        <v>-90300</v>
+        <v>-94400</v>
       </c>
       <c r="G72" s="3">
-        <v>-100800</v>
+        <v>-105400</v>
       </c>
       <c r="H72" s="3">
-        <v>-103300</v>
+        <v>-108000</v>
       </c>
       <c r="I72" s="3">
-        <v>-101100</v>
+        <v>-105700</v>
       </c>
       <c r="J72" s="3">
-        <v>-93100</v>
+        <v>-97300</v>
       </c>
       <c r="K72" s="3">
         <v>-87300</v>
@@ -2939,25 +2939,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>197000</v>
+        <v>206000</v>
       </c>
       <c r="E76" s="3">
-        <v>142800</v>
+        <v>149300</v>
       </c>
       <c r="F76" s="3">
-        <v>118700</v>
+        <v>124100</v>
       </c>
       <c r="G76" s="3">
-        <v>115700</v>
+        <v>121000</v>
       </c>
       <c r="H76" s="3">
-        <v>126100</v>
+        <v>131800</v>
       </c>
       <c r="I76" s="3">
-        <v>136100</v>
+        <v>142300</v>
       </c>
       <c r="J76" s="3">
-        <v>150300</v>
+        <v>157200</v>
       </c>
       <c r="K76" s="3">
         <v>147700</v>
@@ -3052,25 +3052,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>39000</v>
+        <v>40800</v>
       </c>
       <c r="E81" s="3">
-        <v>29200</v>
+        <v>30600</v>
       </c>
       <c r="F81" s="3">
-        <v>12100</v>
+        <v>12700</v>
       </c>
       <c r="G81" s="3">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="H81" s="3">
         <v>-400</v>
       </c>
       <c r="I81" s="3">
-        <v>-5900</v>
+        <v>-6200</v>
       </c>
       <c r="J81" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="K81" s="3">
         <v>53300</v>
@@ -3104,25 +3104,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>71000</v>
+        <v>74300</v>
       </c>
       <c r="E83" s="3">
-        <v>81100</v>
+        <v>84800</v>
       </c>
       <c r="F83" s="3">
-        <v>46600</v>
+        <v>48700</v>
       </c>
       <c r="G83" s="3">
-        <v>36200</v>
+        <v>37800</v>
       </c>
       <c r="H83" s="3">
-        <v>33700</v>
+        <v>35200</v>
       </c>
       <c r="I83" s="3">
-        <v>33300</v>
+        <v>34800</v>
       </c>
       <c r="J83" s="3">
-        <v>36900</v>
+        <v>38600</v>
       </c>
       <c r="K83" s="3">
         <v>30600</v>
@@ -3320,25 +3320,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>116800</v>
+        <v>122100</v>
       </c>
       <c r="E89" s="3">
-        <v>125300</v>
+        <v>130900</v>
       </c>
       <c r="F89" s="3">
-        <v>86700</v>
+        <v>90700</v>
       </c>
       <c r="G89" s="3">
-        <v>39400</v>
+        <v>41200</v>
       </c>
       <c r="H89" s="3">
-        <v>31600</v>
+        <v>33000</v>
       </c>
       <c r="I89" s="3">
-        <v>61100</v>
+        <v>63900</v>
       </c>
       <c r="J89" s="3">
-        <v>32700</v>
+        <v>34200</v>
       </c>
       <c r="K89" s="3">
         <v>79500</v>
@@ -3372,25 +3372,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-93000</v>
+        <v>-97200</v>
       </c>
       <c r="E91" s="3">
-        <v>-124500</v>
+        <v>-130200</v>
       </c>
       <c r="F91" s="3">
-        <v>-64300</v>
+        <v>-67200</v>
       </c>
       <c r="G91" s="3">
-        <v>-42700</v>
+        <v>-44600</v>
       </c>
       <c r="H91" s="3">
-        <v>-21500</v>
+        <v>-22400</v>
       </c>
       <c r="I91" s="3">
-        <v>-25800</v>
+        <v>-26900</v>
       </c>
       <c r="J91" s="3">
-        <v>-27900</v>
+        <v>-29100</v>
       </c>
       <c r="K91" s="3">
         <v>-24100</v>
@@ -3480,25 +3480,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-90100</v>
+        <v>-94200</v>
       </c>
       <c r="E94" s="3">
-        <v>-127400</v>
+        <v>-133200</v>
       </c>
       <c r="F94" s="3">
-        <v>-181300</v>
+        <v>-189500</v>
       </c>
       <c r="G94" s="3">
-        <v>-26600</v>
+        <v>-27900</v>
       </c>
       <c r="H94" s="3">
-        <v>-8300</v>
+        <v>-8700</v>
       </c>
       <c r="I94" s="3">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="J94" s="3">
-        <v>-15500</v>
+        <v>-16200</v>
       </c>
       <c r="K94" s="3">
         <v>119900</v>
@@ -3532,22 +3532,22 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3500</v>
+        <v>-3600</v>
       </c>
       <c r="E96" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="F96" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="G96" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="H96" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="I96" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="J96" s="3">
         <v>-1700</v>
@@ -3676,25 +3676,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>3700</v>
+        <v>3900</v>
       </c>
       <c r="E100" s="3">
-        <v>-8900</v>
+        <v>-9300</v>
       </c>
       <c r="F100" s="3">
-        <v>103500</v>
+        <v>108200</v>
       </c>
       <c r="G100" s="3">
-        <v>-17200</v>
+        <v>-17900</v>
       </c>
       <c r="H100" s="3">
-        <v>-38100</v>
+        <v>-39800</v>
       </c>
       <c r="I100" s="3">
-        <v>-40000</v>
+        <v>-41800</v>
       </c>
       <c r="J100" s="3">
-        <v>-27400</v>
+        <v>-28600</v>
       </c>
       <c r="K100" s="3">
         <v>-189700</v>
@@ -3748,25 +3748,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>30400</v>
+        <v>31800</v>
       </c>
       <c r="E102" s="3">
-        <v>-11100</v>
+        <v>-11600</v>
       </c>
       <c r="F102" s="3">
-        <v>9000</v>
+        <v>9400</v>
       </c>
       <c r="G102" s="3">
-        <v>-4300</v>
+        <v>-4500</v>
       </c>
       <c r="H102" s="3">
-        <v>-14800</v>
+        <v>-15500</v>
       </c>
       <c r="I102" s="3">
-        <v>24900</v>
+        <v>26000</v>
       </c>
       <c r="J102" s="3">
-        <v>-10100</v>
+        <v>-10600</v>
       </c>
       <c r="K102" s="3">
         <v>9700</v>

--- a/AAII_Financials/Yearly/NOA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NOA_YR_FIN.xlsx
@@ -721,25 +721,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>414800</v>
+        <v>390100</v>
       </c>
       <c r="E8" s="3">
-        <v>596100</v>
+        <v>560600</v>
       </c>
       <c r="F8" s="3">
-        <v>340000</v>
+        <v>319700</v>
       </c>
       <c r="G8" s="3">
-        <v>242500</v>
+        <v>228100</v>
       </c>
       <c r="H8" s="3">
-        <v>176700</v>
+        <v>166200</v>
       </c>
       <c r="I8" s="3">
-        <v>233200</v>
+        <v>219300</v>
       </c>
       <c r="J8" s="3">
-        <v>391100</v>
+        <v>367800</v>
       </c>
       <c r="K8" s="3">
         <v>362200</v>
@@ -757,25 +757,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>357600</v>
+        <v>336300</v>
       </c>
       <c r="E9" s="3">
-        <v>516200</v>
+        <v>485500</v>
       </c>
       <c r="F9" s="3">
-        <v>282700</v>
+        <v>265900</v>
       </c>
       <c r="G9" s="3">
-        <v>209700</v>
+        <v>197200</v>
       </c>
       <c r="H9" s="3">
-        <v>149900</v>
+        <v>141000</v>
       </c>
       <c r="I9" s="3">
-        <v>206800</v>
+        <v>194400</v>
       </c>
       <c r="J9" s="3">
-        <v>348500</v>
+        <v>327800</v>
       </c>
       <c r="K9" s="3">
         <v>327000</v>
@@ -793,25 +793,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>57200</v>
+        <v>53800</v>
       </c>
       <c r="E10" s="3">
-        <v>79900</v>
+        <v>75200</v>
       </c>
       <c r="F10" s="3">
-        <v>57300</v>
+        <v>53900</v>
       </c>
       <c r="G10" s="3">
-        <v>32900</v>
+        <v>30900</v>
       </c>
       <c r="H10" s="3">
-        <v>26800</v>
+        <v>25200</v>
       </c>
       <c r="I10" s="3">
-        <v>26400</v>
+        <v>24900</v>
       </c>
       <c r="J10" s="3">
-        <v>42600</v>
+        <v>40100</v>
       </c>
       <c r="K10" s="3">
         <v>35200</v>
@@ -917,7 +917,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-23400</v>
+        <v>-22000</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -932,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>300</v>
       </c>
       <c r="G15" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="H15" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="I15" s="3">
         <v>1600</v>
       </c>
       <c r="J15" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="K15" s="3">
         <v>2500</v>
@@ -1002,25 +1002,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>357700</v>
+        <v>336400</v>
       </c>
       <c r="E17" s="3">
-        <v>547400</v>
+        <v>514800</v>
       </c>
       <c r="F17" s="3">
-        <v>315100</v>
+        <v>296300</v>
       </c>
       <c r="G17" s="3">
-        <v>231400</v>
+        <v>217600</v>
       </c>
       <c r="H17" s="3">
-        <v>173500</v>
+        <v>163200</v>
       </c>
       <c r="I17" s="3">
-        <v>231300</v>
+        <v>217500</v>
       </c>
       <c r="J17" s="3">
-        <v>381600</v>
+        <v>358800</v>
       </c>
       <c r="K17" s="3">
         <v>369200</v>
@@ -1038,25 +1038,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>57200</v>
+        <v>53800</v>
       </c>
       <c r="E18" s="3">
-        <v>48700</v>
+        <v>45800</v>
       </c>
       <c r="F18" s="3">
-        <v>24900</v>
+        <v>23400</v>
       </c>
       <c r="G18" s="3">
-        <v>11100</v>
+        <v>10500</v>
       </c>
       <c r="H18" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="I18" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="J18" s="3">
-        <v>9600</v>
+        <v>9000</v>
       </c>
       <c r="K18" s="3">
         <v>-7100</v>
@@ -1090,10 +1090,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>7400</v>
+        <v>7000</v>
       </c>
       <c r="E20" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="F20" s="3">
         <v>200</v>
@@ -1102,7 +1102,7 @@
         <v>100</v>
       </c>
       <c r="H20" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="I20" s="3">
         <v>100</v>
@@ -1126,25 +1126,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>139000</v>
+        <v>131500</v>
       </c>
       <c r="E21" s="3">
-        <v>135900</v>
+        <v>128700</v>
       </c>
       <c r="F21" s="3">
-        <v>73800</v>
+        <v>70000</v>
       </c>
       <c r="G21" s="3">
-        <v>49200</v>
+        <v>46600</v>
       </c>
       <c r="H21" s="3">
-        <v>39800</v>
+        <v>37800</v>
       </c>
       <c r="I21" s="3">
-        <v>36900</v>
+        <v>35100</v>
       </c>
       <c r="J21" s="3">
-        <v>48100</v>
+        <v>45700</v>
       </c>
       <c r="K21" s="3">
         <v>28900</v>
@@ -1162,25 +1162,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>14400</v>
+        <v>13600</v>
       </c>
       <c r="E22" s="3">
-        <v>17800</v>
+        <v>16700</v>
       </c>
       <c r="F22" s="3">
-        <v>7300</v>
+        <v>6800</v>
       </c>
       <c r="G22" s="3">
-        <v>5900</v>
+        <v>5500</v>
       </c>
       <c r="H22" s="3">
-        <v>5000</v>
+        <v>4700</v>
       </c>
       <c r="I22" s="3">
-        <v>8300</v>
+        <v>7800</v>
       </c>
       <c r="J22" s="3">
-        <v>10100</v>
+        <v>9500</v>
       </c>
       <c r="K22" s="3">
         <v>16900</v>
@@ -1198,22 +1198,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>50100</v>
+        <v>47100</v>
       </c>
       <c r="E23" s="3">
-        <v>33200</v>
+        <v>31200</v>
       </c>
       <c r="F23" s="3">
-        <v>17800</v>
+        <v>16700</v>
       </c>
       <c r="G23" s="3">
-        <v>5400</v>
+        <v>5000</v>
       </c>
       <c r="H23" s="3">
         <v>-400</v>
       </c>
       <c r="I23" s="3">
-        <v>-6300</v>
+        <v>-5900</v>
       </c>
       <c r="J23" s="3">
         <v>-600</v>
@@ -1234,16 +1234,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>9300</v>
+        <v>8800</v>
       </c>
       <c r="E24" s="3">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="F24" s="3">
-        <v>5100</v>
+        <v>4800</v>
       </c>
       <c r="G24" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1306,25 +1306,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>40800</v>
+        <v>38400</v>
       </c>
       <c r="E26" s="3">
-        <v>30800</v>
+        <v>29000</v>
       </c>
       <c r="F26" s="3">
-        <v>12700</v>
+        <v>11900</v>
       </c>
       <c r="G26" s="3">
-        <v>4400</v>
+        <v>4100</v>
       </c>
       <c r="H26" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="I26" s="3">
-        <v>-6200</v>
+        <v>-5800</v>
       </c>
       <c r="J26" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="K26" s="3">
         <v>-13900</v>
@@ -1342,25 +1342,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>40800</v>
+        <v>38400</v>
       </c>
       <c r="E27" s="3">
-        <v>30600</v>
+        <v>28800</v>
       </c>
       <c r="F27" s="3">
-        <v>12700</v>
+        <v>11900</v>
       </c>
       <c r="G27" s="3">
-        <v>4400</v>
+        <v>4100</v>
       </c>
       <c r="H27" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="I27" s="3">
-        <v>-6200</v>
+        <v>-5800</v>
       </c>
       <c r="J27" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="K27" s="3">
         <v>-13900</v>
@@ -1522,10 +1522,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-7400</v>
+        <v>-7000</v>
       </c>
       <c r="E32" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="F32" s="3">
         <v>-200</v>
@@ -1534,7 +1534,7 @@
         <v>-100</v>
       </c>
       <c r="H32" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="I32" s="3">
         <v>-100</v>
@@ -1558,25 +1558,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>40800</v>
+        <v>38400</v>
       </c>
       <c r="E33" s="3">
-        <v>30600</v>
+        <v>28800</v>
       </c>
       <c r="F33" s="3">
-        <v>12700</v>
+        <v>11900</v>
       </c>
       <c r="G33" s="3">
-        <v>4400</v>
+        <v>4100</v>
       </c>
       <c r="H33" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="I33" s="3">
-        <v>-6200</v>
+        <v>-5800</v>
       </c>
       <c r="J33" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="K33" s="3">
         <v>53300</v>
@@ -1630,25 +1630,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>40800</v>
+        <v>38400</v>
       </c>
       <c r="E35" s="3">
-        <v>30600</v>
+        <v>28800</v>
       </c>
       <c r="F35" s="3">
-        <v>12700</v>
+        <v>11900</v>
       </c>
       <c r="G35" s="3">
-        <v>4400</v>
+        <v>4100</v>
       </c>
       <c r="H35" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="I35" s="3">
-        <v>-6200</v>
+        <v>-5800</v>
       </c>
       <c r="J35" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="K35" s="3">
         <v>53300</v>
@@ -1739,25 +1739,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>36400</v>
+        <v>34200</v>
       </c>
       <c r="E41" s="3">
-        <v>4600</v>
+        <v>4300</v>
       </c>
       <c r="F41" s="3">
-        <v>16200</v>
+        <v>15200</v>
       </c>
       <c r="G41" s="3">
-        <v>6800</v>
+        <v>6400</v>
       </c>
       <c r="H41" s="3">
-        <v>11300</v>
+        <v>10700</v>
       </c>
       <c r="I41" s="3">
-        <v>26800</v>
+        <v>25200</v>
       </c>
       <c r="J41" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K41" s="3">
         <v>10600</v>
@@ -1811,25 +1811,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>36000</v>
+        <v>33800</v>
       </c>
       <c r="E43" s="3">
-        <v>71200</v>
+        <v>67000</v>
       </c>
       <c r="F43" s="3">
-        <v>77200</v>
+        <v>72600</v>
       </c>
       <c r="G43" s="3">
-        <v>56700</v>
+        <v>53300</v>
       </c>
       <c r="H43" s="3">
-        <v>46500</v>
+        <v>43700</v>
       </c>
       <c r="I43" s="3">
-        <v>35100</v>
+        <v>33000</v>
       </c>
       <c r="J43" s="3">
-        <v>146400</v>
+        <v>137700</v>
       </c>
       <c r="K43" s="3">
         <v>78800</v>
@@ -1847,25 +1847,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>15900</v>
+        <v>14900</v>
       </c>
       <c r="E44" s="3">
-        <v>17900</v>
+        <v>16900</v>
       </c>
       <c r="F44" s="3">
-        <v>11100</v>
+        <v>10400</v>
       </c>
       <c r="G44" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="H44" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="I44" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="J44" s="3">
-        <v>6200</v>
+        <v>5800</v>
       </c>
       <c r="K44" s="3">
         <v>4500</v>
@@ -1883,25 +1883,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>11200</v>
+        <v>10500</v>
       </c>
       <c r="E45" s="3">
-        <v>3900</v>
+        <v>3600</v>
       </c>
       <c r="F45" s="3">
-        <v>3700</v>
+        <v>3400</v>
       </c>
       <c r="G45" s="3">
-        <v>6300</v>
+        <v>5900</v>
       </c>
       <c r="H45" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="I45" s="3">
         <v>1500</v>
       </c>
       <c r="J45" s="3">
-        <v>31000</v>
+        <v>29200</v>
       </c>
       <c r="K45" s="3">
         <v>4500</v>
@@ -1919,25 +1919,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>99500</v>
+        <v>93500</v>
       </c>
       <c r="E46" s="3">
-        <v>97700</v>
+        <v>91800</v>
       </c>
       <c r="F46" s="3">
-        <v>107500</v>
+        <v>101100</v>
       </c>
       <c r="G46" s="3">
-        <v>73700</v>
+        <v>69300</v>
       </c>
       <c r="H46" s="3">
-        <v>62100</v>
+        <v>58400</v>
       </c>
       <c r="I46" s="3">
-        <v>65600</v>
+        <v>61700</v>
       </c>
       <c r="J46" s="3">
-        <v>124700</v>
+        <v>117200</v>
       </c>
       <c r="K46" s="3">
         <v>98400</v>
@@ -1955,13 +1955,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>36500</v>
+        <v>34300</v>
       </c>
       <c r="E47" s="3">
-        <v>35600</v>
+        <v>33500</v>
       </c>
       <c r="F47" s="3">
-        <v>12200</v>
+        <v>11500</v>
       </c>
       <c r="G47" s="3">
         <v>300</v>
@@ -1991,25 +1991,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>540500</v>
+        <v>508300</v>
       </c>
       <c r="E48" s="3">
-        <v>1010700</v>
+        <v>950500</v>
       </c>
       <c r="F48" s="3">
-        <v>875700</v>
+        <v>823600</v>
       </c>
       <c r="G48" s="3">
-        <v>231000</v>
+        <v>217300</v>
       </c>
       <c r="H48" s="3">
-        <v>212600</v>
+        <v>199900</v>
       </c>
       <c r="I48" s="3">
-        <v>429000</v>
+        <v>403500</v>
       </c>
       <c r="J48" s="3">
-        <v>216300</v>
+        <v>203400</v>
       </c>
       <c r="K48" s="3">
         <v>194000</v>
@@ -2033,19 +2033,19 @@
         <v>8</v>
       </c>
       <c r="F49" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="G49" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="H49" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="I49" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="J49" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -2135,25 +2135,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>17400</v>
+      </c>
+      <c r="F52" s="3">
         <v>19100</v>
       </c>
-      <c r="E52" s="3">
-        <v>18500</v>
-      </c>
-      <c r="F52" s="3">
-        <v>20300</v>
-      </c>
       <c r="G52" s="3">
-        <v>12300</v>
+        <v>11500</v>
       </c>
       <c r="H52" s="3">
-        <v>14000</v>
+        <v>13200</v>
       </c>
       <c r="I52" s="3">
-        <v>21700</v>
+        <v>20400</v>
       </c>
       <c r="J52" s="3">
-        <v>33900</v>
+        <v>31900</v>
       </c>
       <c r="K52" s="3">
         <v>50600</v>
@@ -2207,25 +2207,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>695500</v>
+        <v>654100</v>
       </c>
       <c r="E54" s="3">
-        <v>657100</v>
+        <v>618000</v>
       </c>
       <c r="F54" s="3">
-        <v>571900</v>
+        <v>537800</v>
       </c>
       <c r="G54" s="3">
-        <v>318100</v>
+        <v>299100</v>
       </c>
       <c r="H54" s="3">
-        <v>290200</v>
+        <v>272900</v>
       </c>
       <c r="I54" s="3">
-        <v>298600</v>
+        <v>280800</v>
       </c>
       <c r="J54" s="3">
-        <v>378500</v>
+        <v>356000</v>
       </c>
       <c r="K54" s="3">
         <v>343100</v>
@@ -2275,25 +2275,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>34300</v>
+        <v>32300</v>
       </c>
       <c r="E57" s="3">
-        <v>73100</v>
+        <v>68800</v>
       </c>
       <c r="F57" s="3">
-        <v>52600</v>
+        <v>49500</v>
       </c>
       <c r="G57" s="3">
-        <v>29200</v>
+        <v>27400</v>
       </c>
       <c r="H57" s="3">
-        <v>24500</v>
+        <v>23000</v>
       </c>
       <c r="I57" s="3">
-        <v>20800</v>
+        <v>19500</v>
       </c>
       <c r="J57" s="3">
-        <v>48200</v>
+        <v>45300</v>
       </c>
       <c r="K57" s="3">
         <v>37300</v>
@@ -2311,25 +2311,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>35800</v>
+        <v>33700</v>
       </c>
       <c r="E58" s="3">
-        <v>39600</v>
+        <v>37200</v>
       </c>
       <c r="F58" s="3">
-        <v>51600</v>
+        <v>48500</v>
       </c>
       <c r="G58" s="3">
-        <v>24200</v>
+        <v>22700</v>
       </c>
       <c r="H58" s="3">
-        <v>26700</v>
+        <v>25100</v>
       </c>
       <c r="I58" s="3">
-        <v>24800</v>
+        <v>23400</v>
       </c>
       <c r="J58" s="3">
-        <v>18400</v>
+        <v>17300</v>
       </c>
       <c r="K58" s="3">
         <v>11500</v>
@@ -2347,25 +2347,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>20400</v>
+        <v>19200</v>
       </c>
       <c r="E59" s="3">
-        <v>32300</v>
+        <v>30400</v>
       </c>
       <c r="F59" s="3">
-        <v>35100</v>
+        <v>33000</v>
       </c>
       <c r="G59" s="3">
-        <v>12200</v>
+        <v>11500</v>
       </c>
       <c r="H59" s="3">
-        <v>10200</v>
+        <v>9500</v>
       </c>
       <c r="I59" s="3">
-        <v>11600</v>
+        <v>10900</v>
       </c>
       <c r="J59" s="3">
-        <v>29100</v>
+        <v>27300</v>
       </c>
       <c r="K59" s="3">
         <v>23100</v>
@@ -2383,25 +2383,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>90500</v>
+        <v>85100</v>
       </c>
       <c r="E60" s="3">
-        <v>130400</v>
+        <v>122600</v>
       </c>
       <c r="F60" s="3">
-        <v>123400</v>
+        <v>116100</v>
       </c>
       <c r="G60" s="3">
-        <v>64300</v>
+        <v>60500</v>
       </c>
       <c r="H60" s="3">
-        <v>61400</v>
+        <v>57700</v>
       </c>
       <c r="I60" s="3">
-        <v>51600</v>
+        <v>48500</v>
       </c>
       <c r="J60" s="3">
-        <v>79000</v>
+        <v>74300</v>
       </c>
       <c r="K60" s="3">
         <v>72000</v>
@@ -2419,25 +2419,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>318500</v>
+        <v>299500</v>
       </c>
       <c r="E61" s="3">
-        <v>298900</v>
+        <v>281100</v>
       </c>
       <c r="F61" s="3">
-        <v>265500</v>
+        <v>249700</v>
       </c>
       <c r="G61" s="3">
-        <v>89500</v>
+        <v>84100</v>
       </c>
       <c r="H61" s="3">
-        <v>56900</v>
+        <v>53500</v>
       </c>
       <c r="I61" s="3">
-        <v>66700</v>
+        <v>62700</v>
       </c>
       <c r="J61" s="3">
-        <v>88000</v>
+        <v>82700</v>
       </c>
       <c r="K61" s="3">
         <v>79500</v>
@@ -2455,25 +2455,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>80600</v>
+        <v>75800</v>
       </c>
       <c r="E62" s="3">
-        <v>78500</v>
+        <v>73800</v>
       </c>
       <c r="F62" s="3">
-        <v>58400</v>
+        <v>54900</v>
       </c>
       <c r="G62" s="3">
-        <v>43300</v>
+        <v>40700</v>
       </c>
       <c r="H62" s="3">
-        <v>40200</v>
+        <v>37800</v>
       </c>
       <c r="I62" s="3">
-        <v>38000</v>
+        <v>35800</v>
       </c>
       <c r="J62" s="3">
-        <v>54400</v>
+        <v>51100</v>
       </c>
       <c r="K62" s="3">
         <v>43900</v>
@@ -2599,25 +2599,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>489500</v>
+        <v>460400</v>
       </c>
       <c r="E66" s="3">
-        <v>507800</v>
+        <v>477600</v>
       </c>
       <c r="F66" s="3">
-        <v>447800</v>
+        <v>421100</v>
       </c>
       <c r="G66" s="3">
-        <v>197100</v>
+        <v>185300</v>
       </c>
       <c r="H66" s="3">
-        <v>158500</v>
+        <v>149000</v>
       </c>
       <c r="I66" s="3">
-        <v>156300</v>
+        <v>147000</v>
       </c>
       <c r="J66" s="3">
-        <v>221400</v>
+        <v>208200</v>
       </c>
       <c r="K66" s="3">
         <v>195400</v>
@@ -2795,25 +2795,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-29100</v>
+        <v>-27400</v>
       </c>
       <c r="E72" s="3">
-        <v>-66200</v>
+        <v>-62300</v>
       </c>
       <c r="F72" s="3">
-        <v>-94400</v>
+        <v>-88800</v>
       </c>
       <c r="G72" s="3">
-        <v>-105400</v>
+        <v>-99100</v>
       </c>
       <c r="H72" s="3">
-        <v>-108000</v>
+        <v>-101600</v>
       </c>
       <c r="I72" s="3">
-        <v>-105700</v>
+        <v>-99400</v>
       </c>
       <c r="J72" s="3">
-        <v>-97300</v>
+        <v>-91500</v>
       </c>
       <c r="K72" s="3">
         <v>-87300</v>
@@ -2939,25 +2939,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>206000</v>
+        <v>193700</v>
       </c>
       <c r="E76" s="3">
-        <v>149300</v>
+        <v>140400</v>
       </c>
       <c r="F76" s="3">
-        <v>124100</v>
+        <v>116700</v>
       </c>
       <c r="G76" s="3">
-        <v>121000</v>
+        <v>113800</v>
       </c>
       <c r="H76" s="3">
-        <v>131800</v>
+        <v>123900</v>
       </c>
       <c r="I76" s="3">
-        <v>142300</v>
+        <v>133800</v>
       </c>
       <c r="J76" s="3">
-        <v>157200</v>
+        <v>147800</v>
       </c>
       <c r="K76" s="3">
         <v>147700</v>
@@ -3052,25 +3052,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>40800</v>
+        <v>38400</v>
       </c>
       <c r="E81" s="3">
-        <v>30600</v>
+        <v>28800</v>
       </c>
       <c r="F81" s="3">
-        <v>12700</v>
+        <v>11900</v>
       </c>
       <c r="G81" s="3">
-        <v>4400</v>
+        <v>4100</v>
       </c>
       <c r="H81" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="I81" s="3">
-        <v>-6200</v>
+        <v>-5800</v>
       </c>
       <c r="J81" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="K81" s="3">
         <v>53300</v>
@@ -3104,25 +3104,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>74300</v>
+        <v>69800</v>
       </c>
       <c r="E83" s="3">
-        <v>84800</v>
+        <v>79800</v>
       </c>
       <c r="F83" s="3">
-        <v>48700</v>
+        <v>45800</v>
       </c>
       <c r="G83" s="3">
-        <v>37800</v>
+        <v>35600</v>
       </c>
       <c r="H83" s="3">
-        <v>35200</v>
+        <v>33100</v>
       </c>
       <c r="I83" s="3">
-        <v>34800</v>
+        <v>32800</v>
       </c>
       <c r="J83" s="3">
-        <v>38600</v>
+        <v>36300</v>
       </c>
       <c r="K83" s="3">
         <v>30600</v>
@@ -3320,25 +3320,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>122100</v>
+        <v>114800</v>
       </c>
       <c r="E89" s="3">
-        <v>130900</v>
+        <v>123100</v>
       </c>
       <c r="F89" s="3">
-        <v>90700</v>
+        <v>85300</v>
       </c>
       <c r="G89" s="3">
-        <v>41200</v>
+        <v>38800</v>
       </c>
       <c r="H89" s="3">
-        <v>33000</v>
+        <v>31100</v>
       </c>
       <c r="I89" s="3">
-        <v>63900</v>
+        <v>60100</v>
       </c>
       <c r="J89" s="3">
-        <v>34200</v>
+        <v>32100</v>
       </c>
       <c r="K89" s="3">
         <v>79500</v>
@@ -3372,25 +3372,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-97200</v>
+        <v>-91500</v>
       </c>
       <c r="E91" s="3">
-        <v>-130200</v>
+        <v>-122400</v>
       </c>
       <c r="F91" s="3">
-        <v>-67200</v>
+        <v>-63200</v>
       </c>
       <c r="G91" s="3">
-        <v>-44600</v>
+        <v>-42000</v>
       </c>
       <c r="H91" s="3">
-        <v>-22400</v>
+        <v>-21100</v>
       </c>
       <c r="I91" s="3">
-        <v>-26900</v>
+        <v>-25300</v>
       </c>
       <c r="J91" s="3">
-        <v>-29100</v>
+        <v>-27400</v>
       </c>
       <c r="K91" s="3">
         <v>-24100</v>
@@ -3480,25 +3480,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-94200</v>
+        <v>-88500</v>
       </c>
       <c r="E94" s="3">
-        <v>-133200</v>
+        <v>-125300</v>
       </c>
       <c r="F94" s="3">
-        <v>-189500</v>
+        <v>-178200</v>
       </c>
       <c r="G94" s="3">
-        <v>-27900</v>
+        <v>-26200</v>
       </c>
       <c r="H94" s="3">
-        <v>-8700</v>
+        <v>-8200</v>
       </c>
       <c r="I94" s="3">
-        <v>4000</v>
+        <v>3700</v>
       </c>
       <c r="J94" s="3">
-        <v>-16200</v>
+        <v>-15200</v>
       </c>
       <c r="K94" s="3">
         <v>119900</v>
@@ -3532,25 +3532,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3600</v>
+        <v>-3400</v>
       </c>
       <c r="E96" s="3">
-        <v>-2100</v>
+        <v>-2000</v>
       </c>
       <c r="F96" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G96" s="3">
         <v>-1700</v>
       </c>
-      <c r="G96" s="3">
-        <v>-1800</v>
-      </c>
       <c r="H96" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="I96" s="3">
-        <v>-2700</v>
+        <v>-2600</v>
       </c>
       <c r="J96" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -3676,25 +3676,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>3900</v>
+        <v>3600</v>
       </c>
       <c r="E100" s="3">
-        <v>-9300</v>
+        <v>-8800</v>
       </c>
       <c r="F100" s="3">
-        <v>108200</v>
+        <v>101800</v>
       </c>
       <c r="G100" s="3">
-        <v>-17900</v>
+        <v>-16900</v>
       </c>
       <c r="H100" s="3">
-        <v>-39800</v>
+        <v>-37400</v>
       </c>
       <c r="I100" s="3">
-        <v>-41800</v>
+        <v>-39400</v>
       </c>
       <c r="J100" s="3">
-        <v>-28600</v>
+        <v>-26900</v>
       </c>
       <c r="K100" s="3">
         <v>-189700</v>
@@ -3748,25 +3748,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>31800</v>
+        <v>29900</v>
       </c>
       <c r="E102" s="3">
-        <v>-11600</v>
+        <v>-10900</v>
       </c>
       <c r="F102" s="3">
-        <v>9400</v>
+        <v>8800</v>
       </c>
       <c r="G102" s="3">
-        <v>-4500</v>
+        <v>-4300</v>
       </c>
       <c r="H102" s="3">
-        <v>-15500</v>
+        <v>-14600</v>
       </c>
       <c r="I102" s="3">
-        <v>26000</v>
+        <v>24500</v>
       </c>
       <c r="J102" s="3">
-        <v>-10600</v>
+        <v>-10000</v>
       </c>
       <c r="K102" s="3">
         <v>9700</v>

--- a/AAII_Financials/Yearly/NOA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NOA_YR_FIN.xlsx
@@ -721,25 +721,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>390100</v>
+        <v>392800</v>
       </c>
       <c r="E8" s="3">
-        <v>560600</v>
+        <v>564500</v>
       </c>
       <c r="F8" s="3">
-        <v>319700</v>
+        <v>321900</v>
       </c>
       <c r="G8" s="3">
-        <v>228100</v>
+        <v>229700</v>
       </c>
       <c r="H8" s="3">
-        <v>166200</v>
+        <v>167400</v>
       </c>
       <c r="I8" s="3">
-        <v>219300</v>
+        <v>220800</v>
       </c>
       <c r="J8" s="3">
-        <v>367800</v>
+        <v>370400</v>
       </c>
       <c r="K8" s="3">
         <v>362200</v>
@@ -757,25 +757,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>336300</v>
+        <v>338600</v>
       </c>
       <c r="E9" s="3">
-        <v>485500</v>
+        <v>488800</v>
       </c>
       <c r="F9" s="3">
-        <v>265900</v>
+        <v>267700</v>
       </c>
       <c r="G9" s="3">
-        <v>197200</v>
+        <v>198500</v>
       </c>
       <c r="H9" s="3">
-        <v>141000</v>
+        <v>142000</v>
       </c>
       <c r="I9" s="3">
-        <v>194400</v>
+        <v>195800</v>
       </c>
       <c r="J9" s="3">
-        <v>327800</v>
+        <v>330000</v>
       </c>
       <c r="K9" s="3">
         <v>327000</v>
@@ -793,25 +793,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>53800</v>
+        <v>54200</v>
       </c>
       <c r="E10" s="3">
-        <v>75200</v>
+        <v>75700</v>
       </c>
       <c r="F10" s="3">
-        <v>53900</v>
+        <v>54200</v>
       </c>
       <c r="G10" s="3">
-        <v>30900</v>
+        <v>31100</v>
       </c>
       <c r="H10" s="3">
-        <v>25200</v>
+        <v>25400</v>
       </c>
       <c r="I10" s="3">
-        <v>24900</v>
+        <v>25000</v>
       </c>
       <c r="J10" s="3">
-        <v>40100</v>
+        <v>40400</v>
       </c>
       <c r="K10" s="3">
         <v>35200</v>
@@ -917,7 +917,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-22000</v>
+        <v>-22200</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -932,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>1600</v>
       </c>
       <c r="J15" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="K15" s="3">
         <v>2500</v>
@@ -1002,25 +1002,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>336400</v>
+        <v>338700</v>
       </c>
       <c r="E17" s="3">
-        <v>514800</v>
+        <v>518300</v>
       </c>
       <c r="F17" s="3">
-        <v>296300</v>
+        <v>298400</v>
       </c>
       <c r="G17" s="3">
-        <v>217600</v>
+        <v>219100</v>
       </c>
       <c r="H17" s="3">
-        <v>163200</v>
+        <v>164300</v>
       </c>
       <c r="I17" s="3">
-        <v>217500</v>
+        <v>219000</v>
       </c>
       <c r="J17" s="3">
-        <v>358800</v>
+        <v>361300</v>
       </c>
       <c r="K17" s="3">
         <v>369200</v>
@@ -1038,13 +1038,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>53800</v>
+        <v>54100</v>
       </c>
       <c r="E18" s="3">
-        <v>45800</v>
+        <v>46200</v>
       </c>
       <c r="F18" s="3">
-        <v>23400</v>
+        <v>23500</v>
       </c>
       <c r="G18" s="3">
         <v>10500</v>
@@ -1056,7 +1056,7 @@
         <v>1800</v>
       </c>
       <c r="J18" s="3">
-        <v>9000</v>
+        <v>9100</v>
       </c>
       <c r="K18" s="3">
         <v>-7100</v>
@@ -1126,25 +1126,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>131500</v>
+        <v>131200</v>
       </c>
       <c r="E21" s="3">
-        <v>128700</v>
+        <v>128200</v>
       </c>
       <c r="F21" s="3">
-        <v>70000</v>
+        <v>69600</v>
       </c>
       <c r="G21" s="3">
-        <v>46600</v>
+        <v>46300</v>
       </c>
       <c r="H21" s="3">
-        <v>37800</v>
+        <v>37500</v>
       </c>
       <c r="I21" s="3">
-        <v>35100</v>
+        <v>34800</v>
       </c>
       <c r="J21" s="3">
-        <v>45700</v>
+        <v>45400</v>
       </c>
       <c r="K21" s="3">
         <v>28900</v>
@@ -1162,22 +1162,22 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>13600</v>
+        <v>13700</v>
       </c>
       <c r="E22" s="3">
-        <v>16700</v>
+        <v>16800</v>
       </c>
       <c r="F22" s="3">
-        <v>6800</v>
+        <v>6900</v>
       </c>
       <c r="G22" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="H22" s="3">
         <v>4700</v>
       </c>
       <c r="I22" s="3">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="J22" s="3">
         <v>9500</v>
@@ -1198,22 +1198,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>47100</v>
+        <v>47500</v>
       </c>
       <c r="E23" s="3">
-        <v>31200</v>
+        <v>31400</v>
       </c>
       <c r="F23" s="3">
-        <v>16700</v>
+        <v>16800</v>
       </c>
       <c r="G23" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="H23" s="3">
         <v>-400</v>
       </c>
       <c r="I23" s="3">
-        <v>-5900</v>
+        <v>-6000</v>
       </c>
       <c r="J23" s="3">
         <v>-600</v>
@@ -1306,13 +1306,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>38400</v>
+        <v>38600</v>
       </c>
       <c r="E26" s="3">
-        <v>29000</v>
+        <v>29200</v>
       </c>
       <c r="F26" s="3">
-        <v>11900</v>
+        <v>12000</v>
       </c>
       <c r="G26" s="3">
         <v>4100</v>
@@ -1321,7 +1321,7 @@
         <v>-300</v>
       </c>
       <c r="I26" s="3">
-        <v>-5800</v>
+        <v>-5900</v>
       </c>
       <c r="J26" s="3">
         <v>-500</v>
@@ -1342,13 +1342,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>38400</v>
+        <v>38600</v>
       </c>
       <c r="E27" s="3">
-        <v>28800</v>
+        <v>29000</v>
       </c>
       <c r="F27" s="3">
-        <v>11900</v>
+        <v>12000</v>
       </c>
       <c r="G27" s="3">
         <v>4100</v>
@@ -1357,7 +1357,7 @@
         <v>-300</v>
       </c>
       <c r="I27" s="3">
-        <v>-5800</v>
+        <v>-5900</v>
       </c>
       <c r="J27" s="3">
         <v>-500</v>
@@ -1558,13 +1558,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>38400</v>
+        <v>38600</v>
       </c>
       <c r="E33" s="3">
-        <v>28800</v>
+        <v>29000</v>
       </c>
       <c r="F33" s="3">
-        <v>11900</v>
+        <v>12000</v>
       </c>
       <c r="G33" s="3">
         <v>4100</v>
@@ -1573,7 +1573,7 @@
         <v>-300</v>
       </c>
       <c r="I33" s="3">
-        <v>-5800</v>
+        <v>-5900</v>
       </c>
       <c r="J33" s="3">
         <v>-900</v>
@@ -1630,13 +1630,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>38400</v>
+        <v>38600</v>
       </c>
       <c r="E35" s="3">
-        <v>28800</v>
+        <v>29000</v>
       </c>
       <c r="F35" s="3">
-        <v>11900</v>
+        <v>12000</v>
       </c>
       <c r="G35" s="3">
         <v>4100</v>
@@ -1645,7 +1645,7 @@
         <v>-300</v>
       </c>
       <c r="I35" s="3">
-        <v>-5800</v>
+        <v>-5900</v>
       </c>
       <c r="J35" s="3">
         <v>-900</v>
@@ -1739,13 +1739,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>34200</v>
+        <v>34500</v>
       </c>
       <c r="E41" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="F41" s="3">
-        <v>15200</v>
+        <v>15300</v>
       </c>
       <c r="G41" s="3">
         <v>6400</v>
@@ -1754,10 +1754,10 @@
         <v>10700</v>
       </c>
       <c r="I41" s="3">
-        <v>25200</v>
+        <v>25400</v>
       </c>
       <c r="J41" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K41" s="3">
         <v>10600</v>
@@ -1811,25 +1811,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>33800</v>
+        <v>34100</v>
       </c>
       <c r="E43" s="3">
-        <v>67000</v>
+        <v>67500</v>
       </c>
       <c r="F43" s="3">
-        <v>72600</v>
+        <v>73100</v>
       </c>
       <c r="G43" s="3">
-        <v>53300</v>
+        <v>53700</v>
       </c>
       <c r="H43" s="3">
-        <v>43700</v>
+        <v>44000</v>
       </c>
       <c r="I43" s="3">
-        <v>33000</v>
+        <v>33200</v>
       </c>
       <c r="J43" s="3">
-        <v>137700</v>
+        <v>138700</v>
       </c>
       <c r="K43" s="3">
         <v>78800</v>
@@ -1847,13 +1847,13 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>14900</v>
+        <v>15100</v>
       </c>
       <c r="E44" s="3">
-        <v>16900</v>
+        <v>17000</v>
       </c>
       <c r="F44" s="3">
-        <v>10400</v>
+        <v>10500</v>
       </c>
       <c r="G44" s="3">
         <v>3700</v>
@@ -1883,13 +1883,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>10500</v>
+        <v>10600</v>
       </c>
       <c r="E45" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="F45" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="G45" s="3">
         <v>5900</v>
@@ -1901,7 +1901,7 @@
         <v>1500</v>
       </c>
       <c r="J45" s="3">
-        <v>29200</v>
+        <v>29400</v>
       </c>
       <c r="K45" s="3">
         <v>4500</v>
@@ -1919,25 +1919,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>93500</v>
+        <v>94200</v>
       </c>
       <c r="E46" s="3">
-        <v>91800</v>
+        <v>92500</v>
       </c>
       <c r="F46" s="3">
-        <v>101100</v>
+        <v>101800</v>
       </c>
       <c r="G46" s="3">
-        <v>69300</v>
+        <v>69800</v>
       </c>
       <c r="H46" s="3">
-        <v>58400</v>
+        <v>58800</v>
       </c>
       <c r="I46" s="3">
-        <v>61700</v>
+        <v>62100</v>
       </c>
       <c r="J46" s="3">
-        <v>117200</v>
+        <v>118000</v>
       </c>
       <c r="K46" s="3">
         <v>98400</v>
@@ -1955,13 +1955,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>34300</v>
+        <v>34600</v>
       </c>
       <c r="E47" s="3">
-        <v>33500</v>
+        <v>33700</v>
       </c>
       <c r="F47" s="3">
-        <v>11500</v>
+        <v>11600</v>
       </c>
       <c r="G47" s="3">
         <v>300</v>
@@ -1991,25 +1991,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>508300</v>
+        <v>511800</v>
       </c>
       <c r="E48" s="3">
-        <v>950500</v>
+        <v>478500</v>
       </c>
       <c r="F48" s="3">
-        <v>823600</v>
+        <v>829300</v>
       </c>
       <c r="G48" s="3">
-        <v>217300</v>
+        <v>218800</v>
       </c>
       <c r="H48" s="3">
-        <v>199900</v>
+        <v>201300</v>
       </c>
       <c r="I48" s="3">
-        <v>403500</v>
+        <v>406300</v>
       </c>
       <c r="J48" s="3">
-        <v>203400</v>
+        <v>204800</v>
       </c>
       <c r="K48" s="3">
         <v>194000</v>
@@ -2135,25 +2135,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>18000</v>
+        <v>18100</v>
       </c>
       <c r="E52" s="3">
-        <v>17400</v>
+        <v>17600</v>
       </c>
       <c r="F52" s="3">
-        <v>19100</v>
+        <v>19200</v>
       </c>
       <c r="G52" s="3">
-        <v>11500</v>
+        <v>11600</v>
       </c>
       <c r="H52" s="3">
-        <v>13200</v>
+        <v>13300</v>
       </c>
       <c r="I52" s="3">
-        <v>20400</v>
+        <v>20500</v>
       </c>
       <c r="J52" s="3">
-        <v>31900</v>
+        <v>32100</v>
       </c>
       <c r="K52" s="3">
         <v>50600</v>
@@ -2207,25 +2207,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>654100</v>
+        <v>658600</v>
       </c>
       <c r="E54" s="3">
-        <v>618000</v>
+        <v>622300</v>
       </c>
       <c r="F54" s="3">
-        <v>537800</v>
+        <v>541500</v>
       </c>
       <c r="G54" s="3">
-        <v>299100</v>
+        <v>301200</v>
       </c>
       <c r="H54" s="3">
-        <v>272900</v>
+        <v>274800</v>
       </c>
       <c r="I54" s="3">
-        <v>280800</v>
+        <v>282800</v>
       </c>
       <c r="J54" s="3">
-        <v>356000</v>
+        <v>358400</v>
       </c>
       <c r="K54" s="3">
         <v>343100</v>
@@ -2275,25 +2275,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>32300</v>
+        <v>32500</v>
       </c>
       <c r="E57" s="3">
-        <v>68800</v>
+        <v>69200</v>
       </c>
       <c r="F57" s="3">
-        <v>49500</v>
+        <v>49800</v>
       </c>
       <c r="G57" s="3">
-        <v>27400</v>
+        <v>27600</v>
       </c>
       <c r="H57" s="3">
-        <v>23000</v>
+        <v>23200</v>
       </c>
       <c r="I57" s="3">
-        <v>19500</v>
+        <v>19700</v>
       </c>
       <c r="J57" s="3">
-        <v>45300</v>
+        <v>45600</v>
       </c>
       <c r="K57" s="3">
         <v>37300</v>
@@ -2311,25 +2311,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>33700</v>
+        <v>33900</v>
       </c>
       <c r="E58" s="3">
-        <v>37200</v>
+        <v>37500</v>
       </c>
       <c r="F58" s="3">
-        <v>48500</v>
+        <v>48900</v>
       </c>
       <c r="G58" s="3">
-        <v>22700</v>
+        <v>22900</v>
       </c>
       <c r="H58" s="3">
-        <v>25100</v>
+        <v>25300</v>
       </c>
       <c r="I58" s="3">
-        <v>23400</v>
+        <v>23500</v>
       </c>
       <c r="J58" s="3">
-        <v>17300</v>
+        <v>17400</v>
       </c>
       <c r="K58" s="3">
         <v>11500</v>
@@ -2347,25 +2347,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>19200</v>
+        <v>19300</v>
       </c>
       <c r="E59" s="3">
-        <v>30400</v>
+        <v>30600</v>
       </c>
       <c r="F59" s="3">
-        <v>33000</v>
+        <v>33200</v>
       </c>
       <c r="G59" s="3">
         <v>11500</v>
       </c>
       <c r="H59" s="3">
-        <v>9500</v>
+        <v>9600</v>
       </c>
       <c r="I59" s="3">
-        <v>10900</v>
+        <v>11000</v>
       </c>
       <c r="J59" s="3">
-        <v>27300</v>
+        <v>27500</v>
       </c>
       <c r="K59" s="3">
         <v>23100</v>
@@ -2383,25 +2383,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>85100</v>
+        <v>85700</v>
       </c>
       <c r="E60" s="3">
-        <v>122600</v>
+        <v>123500</v>
       </c>
       <c r="F60" s="3">
-        <v>116100</v>
+        <v>116900</v>
       </c>
       <c r="G60" s="3">
-        <v>60500</v>
+        <v>60900</v>
       </c>
       <c r="H60" s="3">
-        <v>57700</v>
+        <v>58100</v>
       </c>
       <c r="I60" s="3">
-        <v>48500</v>
+        <v>48800</v>
       </c>
       <c r="J60" s="3">
-        <v>74300</v>
+        <v>74800</v>
       </c>
       <c r="K60" s="3">
         <v>72000</v>
@@ -2419,25 +2419,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>299500</v>
+        <v>301600</v>
       </c>
       <c r="E61" s="3">
-        <v>281100</v>
+        <v>283000</v>
       </c>
       <c r="F61" s="3">
-        <v>249700</v>
+        <v>251400</v>
       </c>
       <c r="G61" s="3">
-        <v>84100</v>
+        <v>84700</v>
       </c>
       <c r="H61" s="3">
-        <v>53500</v>
+        <v>53900</v>
       </c>
       <c r="I61" s="3">
-        <v>62700</v>
+        <v>63200</v>
       </c>
       <c r="J61" s="3">
-        <v>82700</v>
+        <v>83300</v>
       </c>
       <c r="K61" s="3">
         <v>79500</v>
@@ -2455,25 +2455,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>75800</v>
+        <v>76300</v>
       </c>
       <c r="E62" s="3">
-        <v>73800</v>
+        <v>74400</v>
       </c>
       <c r="F62" s="3">
-        <v>54900</v>
+        <v>55300</v>
       </c>
       <c r="G62" s="3">
-        <v>40700</v>
+        <v>41000</v>
       </c>
       <c r="H62" s="3">
-        <v>37800</v>
+        <v>38100</v>
       </c>
       <c r="I62" s="3">
-        <v>35800</v>
+        <v>36000</v>
       </c>
       <c r="J62" s="3">
-        <v>51100</v>
+        <v>51500</v>
       </c>
       <c r="K62" s="3">
         <v>43900</v>
@@ -2599,25 +2599,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>460400</v>
+        <v>463600</v>
       </c>
       <c r="E66" s="3">
-        <v>477600</v>
+        <v>480900</v>
       </c>
       <c r="F66" s="3">
-        <v>421100</v>
+        <v>424000</v>
       </c>
       <c r="G66" s="3">
-        <v>185300</v>
+        <v>186600</v>
       </c>
       <c r="H66" s="3">
-        <v>149000</v>
+        <v>150000</v>
       </c>
       <c r="I66" s="3">
-        <v>147000</v>
+        <v>148000</v>
       </c>
       <c r="J66" s="3">
-        <v>208200</v>
+        <v>209600</v>
       </c>
       <c r="K66" s="3">
         <v>195400</v>
@@ -2795,25 +2795,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-27400</v>
+        <v>-27600</v>
       </c>
       <c r="E72" s="3">
-        <v>-62300</v>
+        <v>-62700</v>
       </c>
       <c r="F72" s="3">
-        <v>-88800</v>
+        <v>-89400</v>
       </c>
       <c r="G72" s="3">
-        <v>-99100</v>
+        <v>-99800</v>
       </c>
       <c r="H72" s="3">
-        <v>-101600</v>
+        <v>-102300</v>
       </c>
       <c r="I72" s="3">
-        <v>-99400</v>
+        <v>-100100</v>
       </c>
       <c r="J72" s="3">
-        <v>-91500</v>
+        <v>-92200</v>
       </c>
       <c r="K72" s="3">
         <v>-87300</v>
@@ -2939,25 +2939,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>193700</v>
+        <v>195000</v>
       </c>
       <c r="E76" s="3">
-        <v>140400</v>
+        <v>141400</v>
       </c>
       <c r="F76" s="3">
-        <v>116700</v>
+        <v>117500</v>
       </c>
       <c r="G76" s="3">
-        <v>113800</v>
+        <v>114600</v>
       </c>
       <c r="H76" s="3">
-        <v>123900</v>
+        <v>124800</v>
       </c>
       <c r="I76" s="3">
-        <v>133800</v>
+        <v>134700</v>
       </c>
       <c r="J76" s="3">
-        <v>147800</v>
+        <v>148800</v>
       </c>
       <c r="K76" s="3">
         <v>147700</v>
@@ -3052,13 +3052,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>38400</v>
+        <v>38600</v>
       </c>
       <c r="E81" s="3">
-        <v>28800</v>
+        <v>29000</v>
       </c>
       <c r="F81" s="3">
-        <v>11900</v>
+        <v>12000</v>
       </c>
       <c r="G81" s="3">
         <v>4100</v>
@@ -3067,7 +3067,7 @@
         <v>-300</v>
       </c>
       <c r="I81" s="3">
-        <v>-5800</v>
+        <v>-5900</v>
       </c>
       <c r="J81" s="3">
         <v>-900</v>
@@ -3104,25 +3104,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>69800</v>
+        <v>70300</v>
       </c>
       <c r="E83" s="3">
-        <v>79800</v>
+        <v>80300</v>
       </c>
       <c r="F83" s="3">
-        <v>45800</v>
+        <v>46100</v>
       </c>
       <c r="G83" s="3">
-        <v>35600</v>
+        <v>35800</v>
       </c>
       <c r="H83" s="3">
-        <v>33100</v>
+        <v>33400</v>
       </c>
       <c r="I83" s="3">
-        <v>32800</v>
+        <v>33000</v>
       </c>
       <c r="J83" s="3">
-        <v>36300</v>
+        <v>36600</v>
       </c>
       <c r="K83" s="3">
         <v>30600</v>
@@ -3320,25 +3320,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>114800</v>
+        <v>115600</v>
       </c>
       <c r="E89" s="3">
-        <v>123100</v>
+        <v>124000</v>
       </c>
       <c r="F89" s="3">
-        <v>85300</v>
+        <v>85900</v>
       </c>
       <c r="G89" s="3">
-        <v>38800</v>
+        <v>39100</v>
       </c>
       <c r="H89" s="3">
-        <v>31100</v>
+        <v>31300</v>
       </c>
       <c r="I89" s="3">
-        <v>60100</v>
+        <v>60500</v>
       </c>
       <c r="J89" s="3">
-        <v>32100</v>
+        <v>32400</v>
       </c>
       <c r="K89" s="3">
         <v>79500</v>
@@ -3372,25 +3372,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-91500</v>
+        <v>-92100</v>
       </c>
       <c r="E91" s="3">
-        <v>-122400</v>
+        <v>-123300</v>
       </c>
       <c r="F91" s="3">
-        <v>-63200</v>
+        <v>-63700</v>
       </c>
       <c r="G91" s="3">
-        <v>-42000</v>
+        <v>-42200</v>
       </c>
       <c r="H91" s="3">
-        <v>-21100</v>
+        <v>-21300</v>
       </c>
       <c r="I91" s="3">
-        <v>-25300</v>
+        <v>-25500</v>
       </c>
       <c r="J91" s="3">
-        <v>-27400</v>
+        <v>-27600</v>
       </c>
       <c r="K91" s="3">
         <v>-24100</v>
@@ -3480,25 +3480,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-88500</v>
+        <v>-89200</v>
       </c>
       <c r="E94" s="3">
-        <v>-125300</v>
+        <v>-126100</v>
       </c>
       <c r="F94" s="3">
-        <v>-178200</v>
+        <v>-179500</v>
       </c>
       <c r="G94" s="3">
-        <v>-26200</v>
+        <v>-26400</v>
       </c>
       <c r="H94" s="3">
-        <v>-8200</v>
+        <v>-8300</v>
       </c>
       <c r="I94" s="3">
         <v>3700</v>
       </c>
       <c r="J94" s="3">
-        <v>-15200</v>
+        <v>-15300</v>
       </c>
       <c r="K94" s="3">
         <v>119900</v>
@@ -3550,7 +3550,7 @@
         <v>-2600</v>
       </c>
       <c r="J96" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -3676,25 +3676,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="E100" s="3">
         <v>-8800</v>
       </c>
       <c r="F100" s="3">
-        <v>101800</v>
+        <v>102500</v>
       </c>
       <c r="G100" s="3">
-        <v>-16900</v>
+        <v>-17000</v>
       </c>
       <c r="H100" s="3">
-        <v>-37400</v>
+        <v>-37700</v>
       </c>
       <c r="I100" s="3">
-        <v>-39400</v>
+        <v>-39600</v>
       </c>
       <c r="J100" s="3">
-        <v>-26900</v>
+        <v>-27100</v>
       </c>
       <c r="K100" s="3">
         <v>-189700</v>
@@ -3748,22 +3748,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>29900</v>
+        <v>30100</v>
       </c>
       <c r="E102" s="3">
-        <v>-10900</v>
+        <v>-11000</v>
       </c>
       <c r="F102" s="3">
-        <v>8800</v>
+        <v>8900</v>
       </c>
       <c r="G102" s="3">
         <v>-4300</v>
       </c>
       <c r="H102" s="3">
-        <v>-14600</v>
+        <v>-14700</v>
       </c>
       <c r="I102" s="3">
-        <v>24500</v>
+        <v>24600</v>
       </c>
       <c r="J102" s="3">
         <v>-10000</v>

--- a/AAII_Financials/Yearly/NOA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NOA_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>NOA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,166 +665,178 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41364</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40999</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>392800</v>
+        <v>513300</v>
       </c>
       <c r="E8" s="3">
-        <v>564500</v>
+        <v>391200</v>
       </c>
       <c r="F8" s="3">
-        <v>321900</v>
+        <v>564300</v>
       </c>
       <c r="G8" s="3">
-        <v>229700</v>
+        <v>321800</v>
       </c>
       <c r="H8" s="3">
-        <v>167400</v>
+        <v>229600</v>
       </c>
       <c r="I8" s="3">
-        <v>220800</v>
+        <v>167300</v>
       </c>
       <c r="J8" s="3">
+        <v>220700</v>
+      </c>
+      <c r="K8" s="3">
         <v>370400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>362200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>410000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>515300</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>338600</v>
+        <v>452200</v>
       </c>
       <c r="E9" s="3">
-        <v>488800</v>
+        <v>338500</v>
       </c>
       <c r="F9" s="3">
-        <v>267700</v>
+        <v>488600</v>
       </c>
       <c r="G9" s="3">
+        <v>267600</v>
+      </c>
+      <c r="H9" s="3">
         <v>198500</v>
       </c>
-      <c r="H9" s="3">
-        <v>142000</v>
-      </c>
       <c r="I9" s="3">
-        <v>195800</v>
+        <v>141900</v>
       </c>
       <c r="J9" s="3">
+        <v>195700</v>
+      </c>
+      <c r="K9" s="3">
         <v>330000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>327000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>384500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>490700</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>61200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>52600</v>
+      </c>
+      <c r="F10" s="3">
+        <v>75700</v>
+      </c>
+      <c r="G10" s="3">
         <v>54200</v>
       </c>
-      <c r="E10" s="3">
-        <v>75700</v>
-      </c>
-      <c r="F10" s="3">
-        <v>54200</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>31100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>25400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>25000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>40400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>35200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>25500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>24600</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -839,8 +851,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -874,9 +887,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,81 +926,90 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-22200</v>
+        <v>-10400</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>-22000</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>1400</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>500</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>5000</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="3">
         <v>500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>2900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>3300</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -996,80 +1021,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>338700</v>
+        <v>470100</v>
       </c>
       <c r="E17" s="3">
-        <v>518300</v>
+        <v>338500</v>
       </c>
       <c r="F17" s="3">
-        <v>298400</v>
+        <v>518100</v>
       </c>
       <c r="G17" s="3">
+        <v>298300</v>
+      </c>
+      <c r="H17" s="3">
         <v>219100</v>
       </c>
-      <c r="H17" s="3">
-        <v>164300</v>
-      </c>
       <c r="I17" s="3">
+        <v>164200</v>
+      </c>
+      <c r="J17" s="3">
         <v>219000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>361300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>369200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>422000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>526600</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>54100</v>
+        <v>43300</v>
       </c>
       <c r="E18" s="3">
-        <v>46200</v>
+        <v>52700</v>
       </c>
       <c r="F18" s="3">
+        <v>46100</v>
+      </c>
+      <c r="G18" s="3">
         <v>23500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>10500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>9100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-7100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-12100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-11400</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1084,188 +1116,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>7000</v>
+        <v>18100</v>
       </c>
       <c r="E20" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F20" s="3">
         <v>2100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-15900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-14000</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>131200</v>
+        <v>145700</v>
       </c>
       <c r="E21" s="3">
-        <v>128200</v>
+        <v>131000</v>
       </c>
       <c r="F21" s="3">
+        <v>128100</v>
+      </c>
+      <c r="G21" s="3">
         <v>69600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>46300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>37500</v>
       </c>
-      <c r="I21" s="3">
-        <v>34800</v>
-      </c>
       <c r="J21" s="3">
+        <v>34700</v>
+      </c>
+      <c r="K21" s="3">
         <v>45400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>28900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>12400</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>13700</v>
+        <v>13800</v>
       </c>
       <c r="E22" s="3">
+        <v>13800</v>
+      </c>
+      <c r="F22" s="3">
         <v>16800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>6900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>5600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>4700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>7900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>9500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>16900</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1200</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>47600</v>
+      </c>
+      <c r="E23" s="3">
         <v>47500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>31400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>16800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>5100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-6000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-18600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-28000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-26600</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E24" s="3">
         <v>8800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>4800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>900</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-4700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-6700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-7100</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1299,81 +1347,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>40300</v>
+      </c>
+      <c r="E26" s="3">
         <v>38600</v>
       </c>
-      <c r="E26" s="3">
-        <v>29200</v>
-      </c>
       <c r="F26" s="3">
+        <v>29100</v>
+      </c>
+      <c r="G26" s="3">
         <v>12000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-13900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-21300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-19500</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>40300</v>
+      </c>
+      <c r="E27" s="3">
         <v>38600</v>
       </c>
-      <c r="E27" s="3">
-        <v>29000</v>
-      </c>
       <c r="F27" s="3">
+        <v>28900</v>
+      </c>
+      <c r="G27" s="3">
         <v>12000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-13900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-21300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-19500</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1407,9 +1464,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1428,24 +1488,27 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-400</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>67200</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>20200</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>3200</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1479,9 +1542,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1515,81 +1581,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-7000</v>
+        <v>-18100</v>
       </c>
       <c r="E32" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>15900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>14000</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>40300</v>
+      </c>
+      <c r="E33" s="3">
         <v>38600</v>
       </c>
-      <c r="E33" s="3">
-        <v>29000</v>
-      </c>
       <c r="F33" s="3">
+        <v>28900</v>
+      </c>
+      <c r="G33" s="3">
         <v>12000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>53300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-16300</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1623,86 +1698,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>40300</v>
+      </c>
+      <c r="E35" s="3">
         <v>38600</v>
       </c>
-      <c r="E35" s="3">
-        <v>29000</v>
-      </c>
       <c r="F35" s="3">
+        <v>28900</v>
+      </c>
+      <c r="G35" s="3">
         <v>12000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>53300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-16300</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41364</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40999</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1717,8 +1801,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1733,44 +1818,48 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>34500</v>
+        <v>13000</v>
       </c>
       <c r="E41" s="3">
+        <v>34100</v>
+      </c>
+      <c r="F41" s="3">
         <v>4400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>15300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>10700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>25400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1100</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1802,172 +1891,187 @@
         <v>0</v>
       </c>
       <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
         <v>1200</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>34100</v>
+        <v>61600</v>
       </c>
       <c r="E43" s="3">
-        <v>67500</v>
+        <v>62500</v>
       </c>
       <c r="F43" s="3">
-        <v>73100</v>
+        <v>67400</v>
       </c>
       <c r="G43" s="3">
+        <v>73000</v>
+      </c>
+      <c r="H43" s="3">
         <v>53700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>44000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>33200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>138700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>78800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>117900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>231200</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>15100</v>
+        <v>35000</v>
       </c>
       <c r="E44" s="3">
+        <v>15000</v>
+      </c>
+      <c r="F44" s="3">
         <v>17000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>10500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>5800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>8000</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>10600</v>
+        <v>5900</v>
       </c>
       <c r="E45" s="3">
+        <v>10500</v>
+      </c>
+      <c r="F45" s="3">
         <v>3700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>29400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>145800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>9600</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>94200</v>
+        <v>115500</v>
       </c>
       <c r="E46" s="3">
-        <v>92500</v>
+        <v>93600</v>
       </c>
       <c r="F46" s="3">
+        <v>92400</v>
+      </c>
+      <c r="G46" s="3">
         <v>101800</v>
       </c>
-      <c r="G46" s="3">
-        <v>69800</v>
-      </c>
       <c r="H46" s="3">
+        <v>69700</v>
+      </c>
+      <c r="I46" s="3">
         <v>58800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>62100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>118000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>98400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>268500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>251200</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>34600</v>
+        <v>43900</v>
       </c>
       <c r="E47" s="3">
+        <v>36300</v>
+      </c>
+      <c r="F47" s="3">
         <v>33700</v>
       </c>
-      <c r="F47" s="3">
-        <v>11600</v>
-      </c>
       <c r="G47" s="3">
+        <v>11500</v>
+      </c>
+      <c r="H47" s="3">
         <v>300</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>8</v>
@@ -1981,84 +2085,93 @@
       <c r="L47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>511800</v>
+        <v>514600</v>
       </c>
       <c r="E48" s="3">
-        <v>478500</v>
+        <v>510400</v>
       </c>
       <c r="F48" s="3">
-        <v>829300</v>
+        <v>478400</v>
       </c>
       <c r="G48" s="3">
-        <v>218800</v>
+        <v>828900</v>
       </c>
       <c r="H48" s="3">
-        <v>201300</v>
+        <v>218700</v>
       </c>
       <c r="I48" s="3">
-        <v>406300</v>
+        <v>201200</v>
       </c>
       <c r="J48" s="3">
+        <v>406100</v>
+      </c>
+      <c r="K48" s="3">
         <v>204800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>194000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>210200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>245000</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E49" s="3">
+        <v>300</v>
+      </c>
+      <c r="F49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3400</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
       <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
         <v>6500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>35200</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2092,9 +2205,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2128,45 +2244,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>18100</v>
+        <v>4700</v>
       </c>
       <c r="E52" s="3">
+        <v>17800</v>
+      </c>
+      <c r="F52" s="3">
         <v>17600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>19200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>11600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>13300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>20500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>32100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>50600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>11600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>46200</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2200,45 +2322,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>658600</v>
+        <v>682200</v>
       </c>
       <c r="E54" s="3">
-        <v>622300</v>
+        <v>658400</v>
       </c>
       <c r="F54" s="3">
-        <v>541500</v>
+        <v>622000</v>
       </c>
       <c r="G54" s="3">
-        <v>301200</v>
+        <v>541300</v>
       </c>
       <c r="H54" s="3">
-        <v>274800</v>
+        <v>301100</v>
       </c>
       <c r="I54" s="3">
-        <v>282800</v>
+        <v>274700</v>
       </c>
       <c r="J54" s="3">
+        <v>282600</v>
+      </c>
+      <c r="K54" s="3">
         <v>358400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>343100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>496800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>576200</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2253,8 +2381,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2269,224 +2398,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>59800</v>
+      </c>
+      <c r="E57" s="3">
         <v>32500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>69200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>49800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>27600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>23200</v>
       </c>
-      <c r="I57" s="3">
-        <v>19700</v>
-      </c>
       <c r="J57" s="3">
+        <v>19600</v>
+      </c>
+      <c r="K57" s="3">
         <v>45600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>37300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>55500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>131500</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>35100</v>
+      </c>
+      <c r="E58" s="3">
         <v>33900</v>
       </c>
-      <c r="E58" s="3">
-        <v>37500</v>
-      </c>
       <c r="F58" s="3">
-        <v>48900</v>
+        <v>37400</v>
       </c>
       <c r="G58" s="3">
+        <v>48800</v>
+      </c>
+      <c r="H58" s="3">
         <v>22900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>25300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>23500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>17400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>11500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>16100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>22100</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>19300</v>
+        <v>31400</v>
       </c>
       <c r="E59" s="3">
+        <v>22100</v>
+      </c>
+      <c r="F59" s="3">
         <v>30600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>33200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>11500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>9600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>11000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>27500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>23100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>72300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>53000</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>85700</v>
+        <v>126400</v>
       </c>
       <c r="E60" s="3">
-        <v>123500</v>
+        <v>85900</v>
       </c>
       <c r="F60" s="3">
-        <v>116900</v>
+        <v>123400</v>
       </c>
       <c r="G60" s="3">
+        <v>116800</v>
+      </c>
+      <c r="H60" s="3">
         <v>60900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>58100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>48800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>74800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>72000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>143900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>195600</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>301600</v>
+        <v>263500</v>
       </c>
       <c r="E61" s="3">
-        <v>283000</v>
+        <v>301300</v>
       </c>
       <c r="F61" s="3">
-        <v>251400</v>
+        <v>282900</v>
       </c>
       <c r="G61" s="3">
+        <v>251300</v>
+      </c>
+      <c r="H61" s="3">
         <v>84700</v>
       </c>
-      <c r="H61" s="3">
-        <v>53900</v>
-      </c>
       <c r="I61" s="3">
-        <v>63200</v>
+        <v>53800</v>
       </c>
       <c r="J61" s="3">
+        <v>63100</v>
+      </c>
+      <c r="K61" s="3">
         <v>83300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>79500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>218800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>230500</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>76300</v>
+        <v>73800</v>
       </c>
       <c r="E62" s="3">
-        <v>74400</v>
+        <v>76200</v>
       </c>
       <c r="F62" s="3">
+        <v>74300</v>
+      </c>
+      <c r="G62" s="3">
         <v>55300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>41000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>38100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>36000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>51500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>43900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>37700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>51900</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2520,9 +2668,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2556,9 +2707,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2592,9 +2746,12 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2602,35 +2759,38 @@
         <v>463600</v>
       </c>
       <c r="E66" s="3">
-        <v>480900</v>
+        <v>463500</v>
       </c>
       <c r="F66" s="3">
-        <v>424000</v>
+        <v>480700</v>
       </c>
       <c r="G66" s="3">
-        <v>186600</v>
+        <v>423800</v>
       </c>
       <c r="H66" s="3">
+        <v>186500</v>
+      </c>
+      <c r="I66" s="3">
         <v>150000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>148000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>209600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>195400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>400500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>478000</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2645,8 +2805,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2680,9 +2841,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2716,9 +2880,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2752,9 +2919,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2788,45 +2958,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-27600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-62700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-89400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-99800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-102300</v>
       </c>
-      <c r="I72" s="3">
-        <v>-100100</v>
-      </c>
       <c r="J72" s="3">
+        <v>-100000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-92200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-87300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-141000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-142800</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2860,9 +3036,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2896,9 +3075,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2932,45 +3114,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>218500</v>
+      </c>
+      <c r="E76" s="3">
         <v>195000</v>
       </c>
-      <c r="E76" s="3">
-        <v>141400</v>
-      </c>
       <c r="F76" s="3">
+        <v>141300</v>
+      </c>
+      <c r="G76" s="3">
         <v>117500</v>
       </c>
-      <c r="G76" s="3">
-        <v>114600</v>
-      </c>
       <c r="H76" s="3">
-        <v>124800</v>
+        <v>114500</v>
       </c>
       <c r="I76" s="3">
+        <v>124700</v>
+      </c>
+      <c r="J76" s="3">
         <v>134700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>148800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>147700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>96300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>98200</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3004,86 +3192,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41364</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40999</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>40300</v>
+      </c>
+      <c r="E81" s="3">
         <v>38600</v>
       </c>
-      <c r="E81" s="3">
-        <v>29000</v>
-      </c>
       <c r="F81" s="3">
+        <v>28900</v>
+      </c>
+      <c r="G81" s="3">
         <v>12000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>53300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-16300</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3098,44 +3295,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>70300</v>
+        <v>84800</v>
       </c>
       <c r="E83" s="3">
+        <v>70100</v>
+      </c>
+      <c r="F83" s="3">
         <v>80300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>46100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>35800</v>
       </c>
-      <c r="H83" s="3">
-        <v>33400</v>
-      </c>
       <c r="I83" s="3">
+        <v>33300</v>
+      </c>
+      <c r="J83" s="3">
         <v>33000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>36600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>30600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>31200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>37600</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3169,9 +3370,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3205,9 +3409,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3241,9 +3448,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3277,9 +3487,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3313,45 +3526,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>115600</v>
+        <v>129600</v>
       </c>
       <c r="E89" s="3">
-        <v>124000</v>
+        <v>115000</v>
       </c>
       <c r="F89" s="3">
-        <v>85900</v>
+        <v>123900</v>
       </c>
       <c r="G89" s="3">
-        <v>39100</v>
+        <v>85800</v>
       </c>
       <c r="H89" s="3">
+        <v>39000</v>
+      </c>
+      <c r="I89" s="3">
         <v>31300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>60500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>32400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>79500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>68600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>48600</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3366,44 +3585,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-92100</v>
+        <v>-88300</v>
       </c>
       <c r="E91" s="3">
-        <v>-123300</v>
+        <v>-91900</v>
       </c>
       <c r="F91" s="3">
-        <v>-63700</v>
+        <v>-123200</v>
       </c>
       <c r="G91" s="3">
+        <v>-63600</v>
+      </c>
+      <c r="H91" s="3">
         <v>-42200</v>
       </c>
-      <c r="H91" s="3">
-        <v>-21300</v>
-      </c>
       <c r="I91" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="J91" s="3">
         <v>-25500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-27600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-24100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-24600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-40700</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3437,9 +3660,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3473,45 +3699,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-89200</v>
+        <v>-77900</v>
       </c>
       <c r="E94" s="3">
+        <v>-88500</v>
+      </c>
+      <c r="F94" s="3">
         <v>-126100</v>
       </c>
-      <c r="F94" s="3">
-        <v>-179500</v>
-      </c>
       <c r="G94" s="3">
+        <v>-179400</v>
+      </c>
+      <c r="H94" s="3">
         <v>-26400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-8300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>3700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-15300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>119900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-34900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-49300</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3526,44 +3758,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E96" s="3">
         <v>-3400</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-2000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1600</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1700</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1400</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-2600</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1700</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3597,9 +3833,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3633,9 +3872,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3669,45 +3911,51 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>3700</v>
+        <v>-72800</v>
       </c>
       <c r="E100" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F100" s="3">
         <v>-8800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>102500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-17000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-37700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-39600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-27100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-189700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-34400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1200</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3717,17 +3965,17 @@
       <c r="E101" s="3">
         <v>0</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
+      <c r="F101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J101" s="3">
         <v>0</v>
@@ -3741,43 +3989,49 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>30100</v>
+        <v>-21100</v>
       </c>
       <c r="E102" s="3">
+        <v>30000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-11000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>8900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-4300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-14700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>24600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-10000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>9700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>500</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/NOA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NOA_YR_FIN.xlsx
@@ -724,25 +724,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>513300</v>
+        <v>501500</v>
       </c>
       <c r="E8" s="3">
-        <v>391200</v>
+        <v>382100</v>
       </c>
       <c r="F8" s="3">
-        <v>564300</v>
+        <v>551300</v>
       </c>
       <c r="G8" s="3">
-        <v>321800</v>
+        <v>314400</v>
       </c>
       <c r="H8" s="3">
-        <v>229600</v>
+        <v>224300</v>
       </c>
       <c r="I8" s="3">
-        <v>167300</v>
+        <v>163400</v>
       </c>
       <c r="J8" s="3">
-        <v>220700</v>
+        <v>215600</v>
       </c>
       <c r="K8" s="3">
         <v>370400</v>
@@ -763,25 +763,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>452200</v>
+        <v>441700</v>
       </c>
       <c r="E9" s="3">
-        <v>338500</v>
+        <v>330700</v>
       </c>
       <c r="F9" s="3">
-        <v>488600</v>
+        <v>477400</v>
       </c>
       <c r="G9" s="3">
-        <v>267600</v>
+        <v>261400</v>
       </c>
       <c r="H9" s="3">
-        <v>198500</v>
+        <v>193900</v>
       </c>
       <c r="I9" s="3">
-        <v>141900</v>
+        <v>138600</v>
       </c>
       <c r="J9" s="3">
-        <v>195700</v>
+        <v>191200</v>
       </c>
       <c r="K9" s="3">
         <v>330000</v>
@@ -802,25 +802,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>61200</v>
+        <v>59700</v>
       </c>
       <c r="E10" s="3">
-        <v>52600</v>
+        <v>51400</v>
       </c>
       <c r="F10" s="3">
-        <v>75700</v>
+        <v>73900</v>
       </c>
       <c r="G10" s="3">
-        <v>54200</v>
+        <v>53000</v>
       </c>
       <c r="H10" s="3">
-        <v>31100</v>
+        <v>30400</v>
       </c>
       <c r="I10" s="3">
-        <v>25400</v>
+        <v>24800</v>
       </c>
       <c r="J10" s="3">
-        <v>25000</v>
+        <v>24400</v>
       </c>
       <c r="K10" s="3">
         <v>40400</v>
@@ -936,16 +936,16 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-10400</v>
+        <v>-10000</v>
       </c>
       <c r="E14" s="3">
-        <v>-22000</v>
+        <v>-21500</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -954,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -978,10 +978,10 @@
         <v>8</v>
       </c>
       <c r="E15" s="3">
+        <v>400</v>
+      </c>
+      <c r="F15" s="3">
         <v>500</v>
-      </c>
-      <c r="F15" s="3">
-        <v>600</v>
       </c>
       <c r="G15" s="3">
         <v>300</v>
@@ -993,7 +993,7 @@
         <v>1300</v>
       </c>
       <c r="J15" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K15" s="3">
         <v>2900</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>470100</v>
+        <v>459200</v>
       </c>
       <c r="E17" s="3">
-        <v>338500</v>
+        <v>330700</v>
       </c>
       <c r="F17" s="3">
-        <v>518100</v>
+        <v>506200</v>
       </c>
       <c r="G17" s="3">
-        <v>298300</v>
+        <v>291400</v>
       </c>
       <c r="H17" s="3">
-        <v>219100</v>
+        <v>214000</v>
       </c>
       <c r="I17" s="3">
-        <v>164200</v>
+        <v>160400</v>
       </c>
       <c r="J17" s="3">
-        <v>219000</v>
+        <v>213900</v>
       </c>
       <c r="K17" s="3">
         <v>361300</v>
@@ -1067,25 +1067,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>43300</v>
+        <v>42300</v>
       </c>
       <c r="E18" s="3">
-        <v>52700</v>
+        <v>51500</v>
       </c>
       <c r="F18" s="3">
-        <v>46100</v>
+        <v>45100</v>
       </c>
       <c r="G18" s="3">
-        <v>23500</v>
+        <v>23000</v>
       </c>
       <c r="H18" s="3">
-        <v>10500</v>
+        <v>10300</v>
       </c>
       <c r="I18" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="J18" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="K18" s="3">
         <v>9100</v>
@@ -1123,13 +1123,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>18100</v>
+        <v>17700</v>
       </c>
       <c r="E20" s="3">
-        <v>8600</v>
+        <v>8400</v>
       </c>
       <c r="F20" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="G20" s="3">
         <v>200</v>
@@ -1162,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>145700</v>
+        <v>143100</v>
       </c>
       <c r="E21" s="3">
-        <v>131000</v>
+        <v>128600</v>
       </c>
       <c r="F21" s="3">
-        <v>128100</v>
+        <v>125800</v>
       </c>
       <c r="G21" s="3">
-        <v>69600</v>
+        <v>68400</v>
       </c>
       <c r="H21" s="3">
-        <v>46300</v>
+        <v>45500</v>
       </c>
       <c r="I21" s="3">
-        <v>37500</v>
+        <v>36900</v>
       </c>
       <c r="J21" s="3">
-        <v>34700</v>
+        <v>34200</v>
       </c>
       <c r="K21" s="3">
         <v>45400</v>
@@ -1201,25 +1201,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>13800</v>
+        <v>13400</v>
       </c>
       <c r="E22" s="3">
-        <v>13800</v>
+        <v>13500</v>
       </c>
       <c r="F22" s="3">
-        <v>16800</v>
+        <v>16500</v>
       </c>
       <c r="G22" s="3">
-        <v>6900</v>
+        <v>6700</v>
       </c>
       <c r="H22" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="I22" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="J22" s="3">
-        <v>7900</v>
+        <v>7700</v>
       </c>
       <c r="K22" s="3">
         <v>9500</v>
@@ -1240,25 +1240,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>47600</v>
+        <v>46500</v>
       </c>
       <c r="E23" s="3">
-        <v>47500</v>
+        <v>46400</v>
       </c>
       <c r="F23" s="3">
-        <v>31400</v>
+        <v>30700</v>
       </c>
       <c r="G23" s="3">
-        <v>16800</v>
+        <v>16400</v>
       </c>
       <c r="H23" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="I23" s="3">
         <v>-400</v>
       </c>
       <c r="J23" s="3">
-        <v>-6000</v>
+        <v>-5800</v>
       </c>
       <c r="K23" s="3">
         <v>-600</v>
@@ -1279,16 +1279,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>7300</v>
+        <v>7100</v>
       </c>
       <c r="E24" s="3">
-        <v>8800</v>
+        <v>8600</v>
       </c>
       <c r="F24" s="3">
         <v>2200</v>
       </c>
       <c r="G24" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="H24" s="3">
         <v>900</v>
@@ -1357,25 +1357,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>40300</v>
+        <v>39400</v>
       </c>
       <c r="E26" s="3">
-        <v>38600</v>
+        <v>37700</v>
       </c>
       <c r="F26" s="3">
-        <v>29100</v>
+        <v>28500</v>
       </c>
       <c r="G26" s="3">
-        <v>12000</v>
+        <v>11700</v>
       </c>
       <c r="H26" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="I26" s="3">
         <v>-300</v>
       </c>
       <c r="J26" s="3">
-        <v>-5900</v>
+        <v>-5700</v>
       </c>
       <c r="K26" s="3">
         <v>-500</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>40300</v>
+        <v>39400</v>
       </c>
       <c r="E27" s="3">
-        <v>38600</v>
+        <v>37700</v>
       </c>
       <c r="F27" s="3">
-        <v>28900</v>
+        <v>28300</v>
       </c>
       <c r="G27" s="3">
-        <v>12000</v>
+        <v>11700</v>
       </c>
       <c r="H27" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="I27" s="3">
         <v>-300</v>
       </c>
       <c r="J27" s="3">
-        <v>-5900</v>
+        <v>-5700</v>
       </c>
       <c r="K27" s="3">
         <v>-500</v>
@@ -1591,13 +1591,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-18100</v>
+        <v>-17700</v>
       </c>
       <c r="E32" s="3">
-        <v>-8600</v>
+        <v>-8400</v>
       </c>
       <c r="F32" s="3">
-        <v>-2100</v>
+        <v>-2000</v>
       </c>
       <c r="G32" s="3">
         <v>-200</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>40300</v>
+        <v>39400</v>
       </c>
       <c r="E33" s="3">
-        <v>38600</v>
+        <v>37700</v>
       </c>
       <c r="F33" s="3">
-        <v>28900</v>
+        <v>28300</v>
       </c>
       <c r="G33" s="3">
-        <v>12000</v>
+        <v>11700</v>
       </c>
       <c r="H33" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="I33" s="3">
         <v>-300</v>
       </c>
       <c r="J33" s="3">
-        <v>-5900</v>
+        <v>-5700</v>
       </c>
       <c r="K33" s="3">
         <v>-900</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>40300</v>
+        <v>39400</v>
       </c>
       <c r="E35" s="3">
-        <v>38600</v>
+        <v>37700</v>
       </c>
       <c r="F35" s="3">
-        <v>28900</v>
+        <v>28300</v>
       </c>
       <c r="G35" s="3">
-        <v>12000</v>
+        <v>11700</v>
       </c>
       <c r="H35" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="I35" s="3">
         <v>-300</v>
       </c>
       <c r="J35" s="3">
-        <v>-5900</v>
+        <v>-5700</v>
       </c>
       <c r="K35" s="3">
         <v>-900</v>
@@ -1825,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>13000</v>
+        <v>12700</v>
       </c>
       <c r="E41" s="3">
-        <v>34100</v>
+        <v>33300</v>
       </c>
       <c r="F41" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="G41" s="3">
-        <v>15300</v>
+        <v>15000</v>
       </c>
       <c r="H41" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="I41" s="3">
-        <v>10700</v>
+        <v>10500</v>
       </c>
       <c r="J41" s="3">
-        <v>25400</v>
+        <v>24800</v>
       </c>
       <c r="K41" s="3">
         <v>800</v>
@@ -1903,25 +1903,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>61600</v>
+        <v>60200</v>
       </c>
       <c r="E43" s="3">
-        <v>62500</v>
+        <v>61000</v>
       </c>
       <c r="F43" s="3">
-        <v>67400</v>
+        <v>65900</v>
       </c>
       <c r="G43" s="3">
-        <v>73000</v>
+        <v>71400</v>
       </c>
       <c r="H43" s="3">
-        <v>53700</v>
+        <v>52400</v>
       </c>
       <c r="I43" s="3">
-        <v>44000</v>
+        <v>43000</v>
       </c>
       <c r="J43" s="3">
-        <v>33200</v>
+        <v>32400</v>
       </c>
       <c r="K43" s="3">
         <v>138700</v>
@@ -1942,22 +1942,22 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>35000</v>
+        <v>34100</v>
       </c>
       <c r="E44" s="3">
-        <v>15000</v>
+        <v>14700</v>
       </c>
       <c r="F44" s="3">
-        <v>17000</v>
+        <v>16600</v>
       </c>
       <c r="G44" s="3">
-        <v>10500</v>
+        <v>10300</v>
       </c>
       <c r="H44" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="I44" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="J44" s="3">
         <v>2000</v>
@@ -1981,25 +1981,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>5900</v>
+        <v>5700</v>
       </c>
       <c r="E45" s="3">
-        <v>10500</v>
+        <v>10300</v>
       </c>
       <c r="F45" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="G45" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="H45" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="I45" s="3">
         <v>1400</v>
       </c>
       <c r="J45" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K45" s="3">
         <v>29400</v>
@@ -2020,25 +2020,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>115500</v>
+        <v>112800</v>
       </c>
       <c r="E46" s="3">
-        <v>93600</v>
+        <v>91400</v>
       </c>
       <c r="F46" s="3">
-        <v>92400</v>
+        <v>90300</v>
       </c>
       <c r="G46" s="3">
-        <v>101800</v>
+        <v>99400</v>
       </c>
       <c r="H46" s="3">
-        <v>69700</v>
+        <v>68100</v>
       </c>
       <c r="I46" s="3">
-        <v>58800</v>
+        <v>57500</v>
       </c>
       <c r="J46" s="3">
-        <v>62100</v>
+        <v>60600</v>
       </c>
       <c r="K46" s="3">
         <v>118000</v>
@@ -2059,16 +2059,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>43900</v>
+        <v>42900</v>
       </c>
       <c r="E47" s="3">
-        <v>36300</v>
+        <v>35500</v>
       </c>
       <c r="F47" s="3">
-        <v>33700</v>
+        <v>32900</v>
       </c>
       <c r="G47" s="3">
-        <v>11500</v>
+        <v>11300</v>
       </c>
       <c r="H47" s="3">
         <v>300</v>
@@ -2098,25 +2098,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>514600</v>
+        <v>502700</v>
       </c>
       <c r="E48" s="3">
-        <v>510400</v>
+        <v>498600</v>
       </c>
       <c r="F48" s="3">
-        <v>478400</v>
+        <v>467300</v>
       </c>
       <c r="G48" s="3">
-        <v>828900</v>
+        <v>809800</v>
       </c>
       <c r="H48" s="3">
-        <v>218700</v>
+        <v>213600</v>
       </c>
       <c r="I48" s="3">
-        <v>201200</v>
+        <v>196600</v>
       </c>
       <c r="J48" s="3">
-        <v>406100</v>
+        <v>396700</v>
       </c>
       <c r="K48" s="3">
         <v>204800</v>
@@ -2137,7 +2137,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="E49" s="3">
         <v>300</v>
@@ -2146,16 +2146,16 @@
         <v>8</v>
       </c>
       <c r="G49" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="H49" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="I49" s="3">
         <v>1400</v>
       </c>
       <c r="J49" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="K49" s="3">
         <v>3400</v>
@@ -2254,25 +2254,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="E52" s="3">
-        <v>17800</v>
+        <v>17400</v>
       </c>
       <c r="F52" s="3">
-        <v>17600</v>
+        <v>17200</v>
       </c>
       <c r="G52" s="3">
-        <v>19200</v>
+        <v>18800</v>
       </c>
       <c r="H52" s="3">
-        <v>11600</v>
+        <v>11300</v>
       </c>
       <c r="I52" s="3">
-        <v>13300</v>
+        <v>13000</v>
       </c>
       <c r="J52" s="3">
-        <v>20500</v>
+        <v>20100</v>
       </c>
       <c r="K52" s="3">
         <v>32100</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>682200</v>
+        <v>666400</v>
       </c>
       <c r="E54" s="3">
-        <v>658400</v>
+        <v>643300</v>
       </c>
       <c r="F54" s="3">
-        <v>622000</v>
+        <v>607700</v>
       </c>
       <c r="G54" s="3">
-        <v>541300</v>
+        <v>528800</v>
       </c>
       <c r="H54" s="3">
-        <v>301100</v>
+        <v>294100</v>
       </c>
       <c r="I54" s="3">
-        <v>274700</v>
+        <v>268400</v>
       </c>
       <c r="J54" s="3">
-        <v>282600</v>
+        <v>276100</v>
       </c>
       <c r="K54" s="3">
         <v>358400</v>
@@ -2405,25 +2405,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>59800</v>
+        <v>58500</v>
       </c>
       <c r="E57" s="3">
-        <v>32500</v>
+        <v>31800</v>
       </c>
       <c r="F57" s="3">
-        <v>69200</v>
+        <v>67600</v>
       </c>
       <c r="G57" s="3">
-        <v>49800</v>
+        <v>48700</v>
       </c>
       <c r="H57" s="3">
-        <v>27600</v>
+        <v>27000</v>
       </c>
       <c r="I57" s="3">
-        <v>23200</v>
+        <v>22700</v>
       </c>
       <c r="J57" s="3">
-        <v>19600</v>
+        <v>19200</v>
       </c>
       <c r="K57" s="3">
         <v>45600</v>
@@ -2444,25 +2444,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>35100</v>
+        <v>34300</v>
       </c>
       <c r="E58" s="3">
-        <v>33900</v>
+        <v>33100</v>
       </c>
       <c r="F58" s="3">
-        <v>37400</v>
+        <v>36600</v>
       </c>
       <c r="G58" s="3">
-        <v>48800</v>
+        <v>47700</v>
       </c>
       <c r="H58" s="3">
-        <v>22900</v>
+        <v>22300</v>
       </c>
       <c r="I58" s="3">
-        <v>25300</v>
+        <v>24700</v>
       </c>
       <c r="J58" s="3">
-        <v>23500</v>
+        <v>23000</v>
       </c>
       <c r="K58" s="3">
         <v>17400</v>
@@ -2483,25 +2483,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>31400</v>
+        <v>30700</v>
       </c>
       <c r="E59" s="3">
-        <v>22100</v>
+        <v>21600</v>
       </c>
       <c r="F59" s="3">
-        <v>30600</v>
+        <v>29900</v>
       </c>
       <c r="G59" s="3">
-        <v>33200</v>
+        <v>32500</v>
       </c>
       <c r="H59" s="3">
-        <v>11500</v>
+        <v>11300</v>
       </c>
       <c r="I59" s="3">
-        <v>9600</v>
+        <v>9400</v>
       </c>
       <c r="J59" s="3">
-        <v>11000</v>
+        <v>10700</v>
       </c>
       <c r="K59" s="3">
         <v>27500</v>
@@ -2522,25 +2522,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>126400</v>
+        <v>123500</v>
       </c>
       <c r="E60" s="3">
-        <v>85900</v>
+        <v>83900</v>
       </c>
       <c r="F60" s="3">
-        <v>123400</v>
+        <v>120600</v>
       </c>
       <c r="G60" s="3">
-        <v>116800</v>
+        <v>114100</v>
       </c>
       <c r="H60" s="3">
-        <v>60900</v>
+        <v>59500</v>
       </c>
       <c r="I60" s="3">
-        <v>58100</v>
+        <v>56800</v>
       </c>
       <c r="J60" s="3">
-        <v>48800</v>
+        <v>47700</v>
       </c>
       <c r="K60" s="3">
         <v>74800</v>
@@ -2561,25 +2561,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>263500</v>
+        <v>257400</v>
       </c>
       <c r="E61" s="3">
-        <v>301300</v>
+        <v>294400</v>
       </c>
       <c r="F61" s="3">
-        <v>282900</v>
+        <v>276400</v>
       </c>
       <c r="G61" s="3">
-        <v>251300</v>
+        <v>245500</v>
       </c>
       <c r="H61" s="3">
-        <v>84700</v>
+        <v>82700</v>
       </c>
       <c r="I61" s="3">
-        <v>53800</v>
+        <v>52600</v>
       </c>
       <c r="J61" s="3">
-        <v>63100</v>
+        <v>61700</v>
       </c>
       <c r="K61" s="3">
         <v>83300</v>
@@ -2600,25 +2600,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>73800</v>
+        <v>72100</v>
       </c>
       <c r="E62" s="3">
-        <v>76200</v>
+        <v>74500</v>
       </c>
       <c r="F62" s="3">
-        <v>74300</v>
+        <v>72600</v>
       </c>
       <c r="G62" s="3">
-        <v>55300</v>
+        <v>54000</v>
       </c>
       <c r="H62" s="3">
-        <v>41000</v>
+        <v>40000</v>
       </c>
       <c r="I62" s="3">
-        <v>38100</v>
+        <v>37200</v>
       </c>
       <c r="J62" s="3">
-        <v>36000</v>
+        <v>35200</v>
       </c>
       <c r="K62" s="3">
         <v>51500</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>463600</v>
+        <v>452900</v>
       </c>
       <c r="E66" s="3">
-        <v>463500</v>
+        <v>452800</v>
       </c>
       <c r="F66" s="3">
-        <v>480700</v>
+        <v>469600</v>
       </c>
       <c r="G66" s="3">
-        <v>423800</v>
+        <v>414000</v>
       </c>
       <c r="H66" s="3">
-        <v>186500</v>
+        <v>182200</v>
       </c>
       <c r="I66" s="3">
-        <v>150000</v>
+        <v>146500</v>
       </c>
       <c r="J66" s="3">
-        <v>148000</v>
+        <v>144600</v>
       </c>
       <c r="K66" s="3">
         <v>209600</v>
@@ -2968,25 +2968,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9300</v>
+        <v>9100</v>
       </c>
       <c r="E72" s="3">
-        <v>-27600</v>
+        <v>-27000</v>
       </c>
       <c r="F72" s="3">
-        <v>-62700</v>
+        <v>-61200</v>
       </c>
       <c r="G72" s="3">
-        <v>-89400</v>
+        <v>-87300</v>
       </c>
       <c r="H72" s="3">
-        <v>-99800</v>
+        <v>-97500</v>
       </c>
       <c r="I72" s="3">
-        <v>-102300</v>
+        <v>-99900</v>
       </c>
       <c r="J72" s="3">
-        <v>-100000</v>
+        <v>-97700</v>
       </c>
       <c r="K72" s="3">
         <v>-92200</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>218500</v>
+        <v>213500</v>
       </c>
       <c r="E76" s="3">
-        <v>195000</v>
+        <v>190500</v>
       </c>
       <c r="F76" s="3">
-        <v>141300</v>
+        <v>138100</v>
       </c>
       <c r="G76" s="3">
-        <v>117500</v>
+        <v>114800</v>
       </c>
       <c r="H76" s="3">
-        <v>114500</v>
+        <v>111900</v>
       </c>
       <c r="I76" s="3">
-        <v>124700</v>
+        <v>121900</v>
       </c>
       <c r="J76" s="3">
-        <v>134700</v>
+        <v>131600</v>
       </c>
       <c r="K76" s="3">
         <v>148800</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>40300</v>
+        <v>39400</v>
       </c>
       <c r="E81" s="3">
-        <v>38600</v>
+        <v>37700</v>
       </c>
       <c r="F81" s="3">
-        <v>28900</v>
+        <v>28300</v>
       </c>
       <c r="G81" s="3">
-        <v>12000</v>
+        <v>11700</v>
       </c>
       <c r="H81" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="I81" s="3">
         <v>-300</v>
       </c>
       <c r="J81" s="3">
-        <v>-5900</v>
+        <v>-5700</v>
       </c>
       <c r="K81" s="3">
         <v>-900</v>
@@ -3302,25 +3302,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>84800</v>
+        <v>82800</v>
       </c>
       <c r="E83" s="3">
-        <v>70100</v>
+        <v>68500</v>
       </c>
       <c r="F83" s="3">
-        <v>80300</v>
+        <v>78400</v>
       </c>
       <c r="G83" s="3">
-        <v>46100</v>
+        <v>45000</v>
       </c>
       <c r="H83" s="3">
-        <v>35800</v>
+        <v>35000</v>
       </c>
       <c r="I83" s="3">
-        <v>33300</v>
+        <v>32600</v>
       </c>
       <c r="J83" s="3">
-        <v>33000</v>
+        <v>32200</v>
       </c>
       <c r="K83" s="3">
         <v>36600</v>
@@ -3536,25 +3536,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>129600</v>
+        <v>126600</v>
       </c>
       <c r="E89" s="3">
-        <v>115000</v>
+        <v>112400</v>
       </c>
       <c r="F89" s="3">
-        <v>123900</v>
+        <v>121100</v>
       </c>
       <c r="G89" s="3">
-        <v>85800</v>
+        <v>83800</v>
       </c>
       <c r="H89" s="3">
-        <v>39000</v>
+        <v>38100</v>
       </c>
       <c r="I89" s="3">
-        <v>31300</v>
+        <v>30500</v>
       </c>
       <c r="J89" s="3">
-        <v>60500</v>
+        <v>59100</v>
       </c>
       <c r="K89" s="3">
         <v>32400</v>
@@ -3592,25 +3592,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-88300</v>
+        <v>-86300</v>
       </c>
       <c r="E91" s="3">
-        <v>-91900</v>
+        <v>-89700</v>
       </c>
       <c r="F91" s="3">
-        <v>-123200</v>
+        <v>-120400</v>
       </c>
       <c r="G91" s="3">
-        <v>-63600</v>
+        <v>-62200</v>
       </c>
       <c r="H91" s="3">
-        <v>-42200</v>
+        <v>-41300</v>
       </c>
       <c r="I91" s="3">
-        <v>-21200</v>
+        <v>-20800</v>
       </c>
       <c r="J91" s="3">
-        <v>-25500</v>
+        <v>-24900</v>
       </c>
       <c r="K91" s="3">
         <v>-27600</v>
@@ -3709,22 +3709,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-77900</v>
+        <v>-76100</v>
       </c>
       <c r="E94" s="3">
-        <v>-88500</v>
+        <v>-86500</v>
       </c>
       <c r="F94" s="3">
-        <v>-126100</v>
+        <v>-123200</v>
       </c>
       <c r="G94" s="3">
-        <v>-179400</v>
+        <v>-175300</v>
       </c>
       <c r="H94" s="3">
-        <v>-26400</v>
+        <v>-25800</v>
       </c>
       <c r="I94" s="3">
-        <v>-8300</v>
+        <v>-8100</v>
       </c>
       <c r="J94" s="3">
         <v>3700</v>
@@ -3765,16 +3765,16 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3500</v>
+        <v>-3400</v>
       </c>
       <c r="E96" s="3">
         <v>-3400</v>
       </c>
       <c r="F96" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="G96" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="H96" s="3">
         <v>-1700</v>
@@ -3783,7 +3783,7 @@
         <v>-1400</v>
       </c>
       <c r="J96" s="3">
-        <v>-2600</v>
+        <v>-2500</v>
       </c>
       <c r="K96" s="3">
         <v>-1700</v>
@@ -3921,25 +3921,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-72800</v>
+        <v>-71100</v>
       </c>
       <c r="E100" s="3">
         <v>3500</v>
       </c>
       <c r="F100" s="3">
-        <v>-8800</v>
+        <v>-8600</v>
       </c>
       <c r="G100" s="3">
-        <v>102500</v>
+        <v>100100</v>
       </c>
       <c r="H100" s="3">
-        <v>-17000</v>
+        <v>-16600</v>
       </c>
       <c r="I100" s="3">
-        <v>-37700</v>
+        <v>-36800</v>
       </c>
       <c r="J100" s="3">
-        <v>-39600</v>
+        <v>-38700</v>
       </c>
       <c r="K100" s="3">
         <v>-27100</v>
@@ -3999,25 +3999,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-21100</v>
+        <v>-20600</v>
       </c>
       <c r="E102" s="3">
-        <v>30000</v>
+        <v>29300</v>
       </c>
       <c r="F102" s="3">
-        <v>-11000</v>
+        <v>-10700</v>
       </c>
       <c r="G102" s="3">
-        <v>8900</v>
+        <v>8700</v>
       </c>
       <c r="H102" s="3">
-        <v>-4300</v>
+        <v>-4200</v>
       </c>
       <c r="I102" s="3">
-        <v>-14700</v>
+        <v>-14300</v>
       </c>
       <c r="J102" s="3">
-        <v>24600</v>
+        <v>24100</v>
       </c>
       <c r="K102" s="3">
         <v>-10000</v>

--- a/AAII_Financials/Yearly/NOA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NOA_YR_FIN.xlsx
@@ -724,25 +724,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>501500</v>
+        <v>506100</v>
       </c>
       <c r="E8" s="3">
-        <v>382100</v>
+        <v>385700</v>
       </c>
       <c r="F8" s="3">
-        <v>551300</v>
+        <v>556400</v>
       </c>
       <c r="G8" s="3">
-        <v>314400</v>
+        <v>317300</v>
       </c>
       <c r="H8" s="3">
-        <v>224300</v>
+        <v>226400</v>
       </c>
       <c r="I8" s="3">
-        <v>163400</v>
+        <v>164900</v>
       </c>
       <c r="J8" s="3">
-        <v>215600</v>
+        <v>217600</v>
       </c>
       <c r="K8" s="3">
         <v>370400</v>
@@ -763,25 +763,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>441700</v>
+        <v>445800</v>
       </c>
       <c r="E9" s="3">
-        <v>330700</v>
+        <v>333800</v>
       </c>
       <c r="F9" s="3">
-        <v>477400</v>
+        <v>481800</v>
       </c>
       <c r="G9" s="3">
-        <v>261400</v>
+        <v>263800</v>
       </c>
       <c r="H9" s="3">
-        <v>193900</v>
+        <v>195700</v>
       </c>
       <c r="I9" s="3">
-        <v>138600</v>
+        <v>139900</v>
       </c>
       <c r="J9" s="3">
-        <v>191200</v>
+        <v>193000</v>
       </c>
       <c r="K9" s="3">
         <v>330000</v>
@@ -802,25 +802,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>59700</v>
+        <v>60300</v>
       </c>
       <c r="E10" s="3">
-        <v>51400</v>
+        <v>51900</v>
       </c>
       <c r="F10" s="3">
-        <v>73900</v>
+        <v>74600</v>
       </c>
       <c r="G10" s="3">
-        <v>53000</v>
+        <v>53400</v>
       </c>
       <c r="H10" s="3">
-        <v>30400</v>
+        <v>30700</v>
       </c>
       <c r="I10" s="3">
-        <v>24800</v>
+        <v>25000</v>
       </c>
       <c r="J10" s="3">
-        <v>24400</v>
+        <v>24700</v>
       </c>
       <c r="K10" s="3">
         <v>40400</v>
@@ -936,10 +936,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-10000</v>
+        <v>-10100</v>
       </c>
       <c r="E14" s="3">
-        <v>-21500</v>
+        <v>-21700</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -981,7 +981,7 @@
         <v>400</v>
       </c>
       <c r="F15" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G15" s="3">
         <v>300</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>459200</v>
+        <v>463500</v>
       </c>
       <c r="E17" s="3">
-        <v>330700</v>
+        <v>333800</v>
       </c>
       <c r="F17" s="3">
-        <v>506200</v>
+        <v>510900</v>
       </c>
       <c r="G17" s="3">
-        <v>291400</v>
+        <v>294100</v>
       </c>
       <c r="H17" s="3">
-        <v>214000</v>
+        <v>216000</v>
       </c>
       <c r="I17" s="3">
-        <v>160400</v>
+        <v>161900</v>
       </c>
       <c r="J17" s="3">
-        <v>213900</v>
+        <v>215900</v>
       </c>
       <c r="K17" s="3">
         <v>361300</v>
@@ -1067,19 +1067,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>42300</v>
+        <v>42700</v>
       </c>
       <c r="E18" s="3">
-        <v>51500</v>
+        <v>51900</v>
       </c>
       <c r="F18" s="3">
-        <v>45100</v>
+        <v>45500</v>
       </c>
       <c r="G18" s="3">
-        <v>23000</v>
+        <v>23200</v>
       </c>
       <c r="H18" s="3">
-        <v>10300</v>
+        <v>10400</v>
       </c>
       <c r="I18" s="3">
         <v>3000</v>
@@ -1123,13 +1123,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>17700</v>
+        <v>17900</v>
       </c>
       <c r="E20" s="3">
-        <v>8400</v>
+        <v>8500</v>
       </c>
       <c r="F20" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="G20" s="3">
         <v>200</v>
@@ -1162,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>143100</v>
+        <v>143800</v>
       </c>
       <c r="E21" s="3">
-        <v>128600</v>
+        <v>129300</v>
       </c>
       <c r="F21" s="3">
-        <v>125800</v>
+        <v>126400</v>
       </c>
       <c r="G21" s="3">
-        <v>68400</v>
+        <v>68700</v>
       </c>
       <c r="H21" s="3">
-        <v>45500</v>
+        <v>45700</v>
       </c>
       <c r="I21" s="3">
-        <v>36900</v>
+        <v>37000</v>
       </c>
       <c r="J21" s="3">
-        <v>34200</v>
+        <v>34300</v>
       </c>
       <c r="K21" s="3">
         <v>45400</v>
@@ -1201,25 +1201,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>13400</v>
+        <v>13600</v>
       </c>
       <c r="E22" s="3">
-        <v>13500</v>
+        <v>13600</v>
       </c>
       <c r="F22" s="3">
-        <v>16500</v>
+        <v>16600</v>
       </c>
       <c r="G22" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="H22" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="I22" s="3">
         <v>4600</v>
       </c>
       <c r="J22" s="3">
-        <v>7700</v>
+        <v>7800</v>
       </c>
       <c r="K22" s="3">
         <v>9500</v>
@@ -1240,16 +1240,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>46500</v>
+        <v>47000</v>
       </c>
       <c r="E23" s="3">
-        <v>46400</v>
+        <v>46800</v>
       </c>
       <c r="F23" s="3">
-        <v>30700</v>
+        <v>30900</v>
       </c>
       <c r="G23" s="3">
-        <v>16400</v>
+        <v>16600</v>
       </c>
       <c r="H23" s="3">
         <v>5000</v>
@@ -1258,7 +1258,7 @@
         <v>-400</v>
       </c>
       <c r="J23" s="3">
-        <v>-5800</v>
+        <v>-5900</v>
       </c>
       <c r="K23" s="3">
         <v>-600</v>
@@ -1279,10 +1279,10 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>7100</v>
+        <v>7200</v>
       </c>
       <c r="E24" s="3">
-        <v>8600</v>
+        <v>8700</v>
       </c>
       <c r="F24" s="3">
         <v>2200</v>
@@ -1357,25 +1357,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>39400</v>
+        <v>39800</v>
       </c>
       <c r="E26" s="3">
-        <v>37700</v>
+        <v>38100</v>
       </c>
       <c r="F26" s="3">
-        <v>28500</v>
+        <v>28700</v>
       </c>
       <c r="G26" s="3">
-        <v>11700</v>
+        <v>11900</v>
       </c>
       <c r="H26" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="I26" s="3">
         <v>-300</v>
       </c>
       <c r="J26" s="3">
-        <v>-5700</v>
+        <v>-5800</v>
       </c>
       <c r="K26" s="3">
         <v>-500</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>39400</v>
+        <v>39800</v>
       </c>
       <c r="E27" s="3">
-        <v>37700</v>
+        <v>38100</v>
       </c>
       <c r="F27" s="3">
-        <v>28300</v>
+        <v>28500</v>
       </c>
       <c r="G27" s="3">
-        <v>11700</v>
+        <v>11800</v>
       </c>
       <c r="H27" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="I27" s="3">
         <v>-300</v>
       </c>
       <c r="J27" s="3">
-        <v>-5700</v>
+        <v>-5800</v>
       </c>
       <c r="K27" s="3">
         <v>-500</v>
@@ -1591,13 +1591,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-17700</v>
+        <v>-17900</v>
       </c>
       <c r="E32" s="3">
-        <v>-8400</v>
+        <v>-8500</v>
       </c>
       <c r="F32" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="G32" s="3">
         <v>-200</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>39400</v>
+        <v>39800</v>
       </c>
       <c r="E33" s="3">
-        <v>37700</v>
+        <v>38100</v>
       </c>
       <c r="F33" s="3">
-        <v>28300</v>
+        <v>28500</v>
       </c>
       <c r="G33" s="3">
-        <v>11700</v>
+        <v>11800</v>
       </c>
       <c r="H33" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="I33" s="3">
         <v>-300</v>
       </c>
       <c r="J33" s="3">
-        <v>-5700</v>
+        <v>-5800</v>
       </c>
       <c r="K33" s="3">
         <v>-900</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>39400</v>
+        <v>39800</v>
       </c>
       <c r="E35" s="3">
-        <v>37700</v>
+        <v>38100</v>
       </c>
       <c r="F35" s="3">
-        <v>28300</v>
+        <v>28500</v>
       </c>
       <c r="G35" s="3">
-        <v>11700</v>
+        <v>11800</v>
       </c>
       <c r="H35" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="I35" s="3">
         <v>-300</v>
       </c>
       <c r="J35" s="3">
-        <v>-5700</v>
+        <v>-5800</v>
       </c>
       <c r="K35" s="3">
         <v>-900</v>
@@ -1825,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>12700</v>
+        <v>12800</v>
       </c>
       <c r="E41" s="3">
-        <v>33300</v>
+        <v>33600</v>
       </c>
       <c r="F41" s="3">
         <v>4300</v>
       </c>
       <c r="G41" s="3">
-        <v>15000</v>
+        <v>15100</v>
       </c>
       <c r="H41" s="3">
         <v>6300</v>
       </c>
       <c r="I41" s="3">
-        <v>10500</v>
+        <v>10600</v>
       </c>
       <c r="J41" s="3">
-        <v>24800</v>
+        <v>25000</v>
       </c>
       <c r="K41" s="3">
         <v>800</v>
@@ -1903,25 +1903,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>60200</v>
+        <v>60800</v>
       </c>
       <c r="E43" s="3">
-        <v>61000</v>
+        <v>61600</v>
       </c>
       <c r="F43" s="3">
-        <v>65900</v>
+        <v>66500</v>
       </c>
       <c r="G43" s="3">
-        <v>71400</v>
+        <v>72000</v>
       </c>
       <c r="H43" s="3">
-        <v>52400</v>
+        <v>52900</v>
       </c>
       <c r="I43" s="3">
-        <v>43000</v>
+        <v>43400</v>
       </c>
       <c r="J43" s="3">
-        <v>32400</v>
+        <v>32700</v>
       </c>
       <c r="K43" s="3">
         <v>138700</v>
@@ -1942,22 +1942,22 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>34100</v>
+        <v>34500</v>
       </c>
       <c r="E44" s="3">
-        <v>14700</v>
+        <v>14800</v>
       </c>
       <c r="F44" s="3">
-        <v>16600</v>
+        <v>16800</v>
       </c>
       <c r="G44" s="3">
-        <v>10300</v>
+        <v>10400</v>
       </c>
       <c r="H44" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="I44" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="J44" s="3">
         <v>2000</v>
@@ -1981,10 +1981,10 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="E45" s="3">
-        <v>10300</v>
+        <v>10400</v>
       </c>
       <c r="F45" s="3">
         <v>3600</v>
@@ -2020,25 +2020,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>112800</v>
+        <v>113900</v>
       </c>
       <c r="E46" s="3">
-        <v>91400</v>
+        <v>92300</v>
       </c>
       <c r="F46" s="3">
-        <v>90300</v>
+        <v>91100</v>
       </c>
       <c r="G46" s="3">
-        <v>99400</v>
+        <v>100400</v>
       </c>
       <c r="H46" s="3">
-        <v>68100</v>
+        <v>68800</v>
       </c>
       <c r="I46" s="3">
-        <v>57500</v>
+        <v>58000</v>
       </c>
       <c r="J46" s="3">
-        <v>60600</v>
+        <v>61200</v>
       </c>
       <c r="K46" s="3">
         <v>118000</v>
@@ -2059,16 +2059,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>42900</v>
+        <v>43300</v>
       </c>
       <c r="E47" s="3">
-        <v>35500</v>
+        <v>35800</v>
       </c>
       <c r="F47" s="3">
-        <v>32900</v>
+        <v>33200</v>
       </c>
       <c r="G47" s="3">
-        <v>11300</v>
+        <v>11400</v>
       </c>
       <c r="H47" s="3">
         <v>300</v>
@@ -2098,25 +2098,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>502700</v>
+        <v>507400</v>
       </c>
       <c r="E48" s="3">
-        <v>498600</v>
+        <v>503200</v>
       </c>
       <c r="F48" s="3">
-        <v>467300</v>
+        <v>471700</v>
       </c>
       <c r="G48" s="3">
-        <v>809800</v>
+        <v>817300</v>
       </c>
       <c r="H48" s="3">
-        <v>213600</v>
+        <v>215600</v>
       </c>
       <c r="I48" s="3">
-        <v>196600</v>
+        <v>198400</v>
       </c>
       <c r="J48" s="3">
-        <v>396700</v>
+        <v>400400</v>
       </c>
       <c r="K48" s="3">
         <v>204800</v>
@@ -2146,16 +2146,16 @@
         <v>8</v>
       </c>
       <c r="G49" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="H49" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="I49" s="3">
         <v>1400</v>
       </c>
       <c r="J49" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="K49" s="3">
         <v>3400</v>
@@ -2257,22 +2257,22 @@
         <v>4600</v>
       </c>
       <c r="E52" s="3">
-        <v>17400</v>
+        <v>17600</v>
       </c>
       <c r="F52" s="3">
-        <v>17200</v>
+        <v>17300</v>
       </c>
       <c r="G52" s="3">
-        <v>18800</v>
+        <v>19000</v>
       </c>
       <c r="H52" s="3">
-        <v>11300</v>
+        <v>11400</v>
       </c>
       <c r="I52" s="3">
-        <v>13000</v>
+        <v>13100</v>
       </c>
       <c r="J52" s="3">
-        <v>20100</v>
+        <v>20200</v>
       </c>
       <c r="K52" s="3">
         <v>32100</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>666400</v>
+        <v>672600</v>
       </c>
       <c r="E54" s="3">
-        <v>643300</v>
+        <v>649200</v>
       </c>
       <c r="F54" s="3">
-        <v>607700</v>
+        <v>613300</v>
       </c>
       <c r="G54" s="3">
-        <v>528800</v>
+        <v>533700</v>
       </c>
       <c r="H54" s="3">
-        <v>294100</v>
+        <v>296800</v>
       </c>
       <c r="I54" s="3">
-        <v>268400</v>
+        <v>270900</v>
       </c>
       <c r="J54" s="3">
-        <v>276100</v>
+        <v>278700</v>
       </c>
       <c r="K54" s="3">
         <v>358400</v>
@@ -2405,25 +2405,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>58500</v>
+        <v>59000</v>
       </c>
       <c r="E57" s="3">
-        <v>31800</v>
+        <v>32100</v>
       </c>
       <c r="F57" s="3">
-        <v>67600</v>
+        <v>68200</v>
       </c>
       <c r="G57" s="3">
-        <v>48700</v>
+        <v>49100</v>
       </c>
       <c r="H57" s="3">
-        <v>27000</v>
+        <v>27200</v>
       </c>
       <c r="I57" s="3">
-        <v>22700</v>
+        <v>22900</v>
       </c>
       <c r="J57" s="3">
-        <v>19200</v>
+        <v>19400</v>
       </c>
       <c r="K57" s="3">
         <v>45600</v>
@@ -2444,25 +2444,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>34300</v>
+        <v>34600</v>
       </c>
       <c r="E58" s="3">
-        <v>33100</v>
+        <v>33400</v>
       </c>
       <c r="F58" s="3">
-        <v>36600</v>
+        <v>36900</v>
       </c>
       <c r="G58" s="3">
-        <v>47700</v>
+        <v>48200</v>
       </c>
       <c r="H58" s="3">
-        <v>22300</v>
+        <v>22500</v>
       </c>
       <c r="I58" s="3">
-        <v>24700</v>
+        <v>24900</v>
       </c>
       <c r="J58" s="3">
-        <v>23000</v>
+        <v>23200</v>
       </c>
       <c r="K58" s="3">
         <v>17400</v>
@@ -2483,25 +2483,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>30700</v>
+        <v>31000</v>
       </c>
       <c r="E59" s="3">
-        <v>21600</v>
+        <v>21800</v>
       </c>
       <c r="F59" s="3">
-        <v>29900</v>
+        <v>30100</v>
       </c>
       <c r="G59" s="3">
-        <v>32500</v>
+        <v>32800</v>
       </c>
       <c r="H59" s="3">
-        <v>11300</v>
+        <v>11400</v>
       </c>
       <c r="I59" s="3">
-        <v>9400</v>
+        <v>9500</v>
       </c>
       <c r="J59" s="3">
-        <v>10700</v>
+        <v>10800</v>
       </c>
       <c r="K59" s="3">
         <v>27500</v>
@@ -2522,25 +2522,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>123500</v>
+        <v>124600</v>
       </c>
       <c r="E60" s="3">
-        <v>83900</v>
+        <v>84700</v>
       </c>
       <c r="F60" s="3">
-        <v>120600</v>
+        <v>121700</v>
       </c>
       <c r="G60" s="3">
-        <v>114100</v>
+        <v>115200</v>
       </c>
       <c r="H60" s="3">
-        <v>59500</v>
+        <v>60000</v>
       </c>
       <c r="I60" s="3">
-        <v>56800</v>
+        <v>57300</v>
       </c>
       <c r="J60" s="3">
-        <v>47700</v>
+        <v>48100</v>
       </c>
       <c r="K60" s="3">
         <v>74800</v>
@@ -2561,25 +2561,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>257400</v>
+        <v>259800</v>
       </c>
       <c r="E61" s="3">
-        <v>294400</v>
+        <v>297100</v>
       </c>
       <c r="F61" s="3">
-        <v>276400</v>
+        <v>278900</v>
       </c>
       <c r="G61" s="3">
-        <v>245500</v>
+        <v>247800</v>
       </c>
       <c r="H61" s="3">
-        <v>82700</v>
+        <v>83500</v>
       </c>
       <c r="I61" s="3">
-        <v>52600</v>
+        <v>53100</v>
       </c>
       <c r="J61" s="3">
-        <v>61700</v>
+        <v>62300</v>
       </c>
       <c r="K61" s="3">
         <v>83300</v>
@@ -2600,25 +2600,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>72100</v>
+        <v>72800</v>
       </c>
       <c r="E62" s="3">
-        <v>74500</v>
+        <v>75200</v>
       </c>
       <c r="F62" s="3">
-        <v>72600</v>
+        <v>73300</v>
       </c>
       <c r="G62" s="3">
-        <v>54000</v>
+        <v>54500</v>
       </c>
       <c r="H62" s="3">
-        <v>40000</v>
+        <v>40400</v>
       </c>
       <c r="I62" s="3">
-        <v>37200</v>
+        <v>37500</v>
       </c>
       <c r="J62" s="3">
-        <v>35200</v>
+        <v>35500</v>
       </c>
       <c r="K62" s="3">
         <v>51500</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>452900</v>
+        <v>457100</v>
       </c>
       <c r="E66" s="3">
-        <v>452800</v>
+        <v>457000</v>
       </c>
       <c r="F66" s="3">
-        <v>469600</v>
+        <v>473900</v>
       </c>
       <c r="G66" s="3">
-        <v>414000</v>
+        <v>417900</v>
       </c>
       <c r="H66" s="3">
-        <v>182200</v>
+        <v>183900</v>
       </c>
       <c r="I66" s="3">
-        <v>146500</v>
+        <v>147900</v>
       </c>
       <c r="J66" s="3">
-        <v>144600</v>
+        <v>145900</v>
       </c>
       <c r="K66" s="3">
         <v>209600</v>
@@ -2968,25 +2968,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9100</v>
+        <v>9200</v>
       </c>
       <c r="E72" s="3">
-        <v>-27000</v>
+        <v>-27200</v>
       </c>
       <c r="F72" s="3">
-        <v>-61200</v>
+        <v>-61800</v>
       </c>
       <c r="G72" s="3">
-        <v>-87300</v>
+        <v>-88100</v>
       </c>
       <c r="H72" s="3">
-        <v>-97500</v>
+        <v>-98400</v>
       </c>
       <c r="I72" s="3">
-        <v>-99900</v>
+        <v>-100800</v>
       </c>
       <c r="J72" s="3">
-        <v>-97700</v>
+        <v>-98600</v>
       </c>
       <c r="K72" s="3">
         <v>-92200</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>213500</v>
+        <v>215500</v>
       </c>
       <c r="E76" s="3">
-        <v>190500</v>
+        <v>192200</v>
       </c>
       <c r="F76" s="3">
-        <v>138100</v>
+        <v>139400</v>
       </c>
       <c r="G76" s="3">
-        <v>114800</v>
+        <v>115800</v>
       </c>
       <c r="H76" s="3">
-        <v>111900</v>
+        <v>112900</v>
       </c>
       <c r="I76" s="3">
-        <v>121900</v>
+        <v>123000</v>
       </c>
       <c r="J76" s="3">
-        <v>131600</v>
+        <v>132800</v>
       </c>
       <c r="K76" s="3">
         <v>148800</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>39400</v>
+        <v>39800</v>
       </c>
       <c r="E81" s="3">
-        <v>37700</v>
+        <v>38100</v>
       </c>
       <c r="F81" s="3">
-        <v>28300</v>
+        <v>28500</v>
       </c>
       <c r="G81" s="3">
-        <v>11700</v>
+        <v>11800</v>
       </c>
       <c r="H81" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="I81" s="3">
         <v>-300</v>
       </c>
       <c r="J81" s="3">
-        <v>-5700</v>
+        <v>-5800</v>
       </c>
       <c r="K81" s="3">
         <v>-900</v>
@@ -3302,25 +3302,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>82800</v>
+        <v>83600</v>
       </c>
       <c r="E83" s="3">
-        <v>68500</v>
+        <v>69100</v>
       </c>
       <c r="F83" s="3">
-        <v>78400</v>
+        <v>79100</v>
       </c>
       <c r="G83" s="3">
-        <v>45000</v>
+        <v>45500</v>
       </c>
       <c r="H83" s="3">
-        <v>35000</v>
+        <v>35300</v>
       </c>
       <c r="I83" s="3">
-        <v>32600</v>
+        <v>32900</v>
       </c>
       <c r="J83" s="3">
-        <v>32200</v>
+        <v>32500</v>
       </c>
       <c r="K83" s="3">
         <v>36600</v>
@@ -3536,25 +3536,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>126600</v>
+        <v>127800</v>
       </c>
       <c r="E89" s="3">
-        <v>112400</v>
+        <v>113400</v>
       </c>
       <c r="F89" s="3">
-        <v>121100</v>
+        <v>122200</v>
       </c>
       <c r="G89" s="3">
-        <v>83800</v>
+        <v>84600</v>
       </c>
       <c r="H89" s="3">
-        <v>38100</v>
+        <v>38500</v>
       </c>
       <c r="I89" s="3">
-        <v>30500</v>
+        <v>30800</v>
       </c>
       <c r="J89" s="3">
-        <v>59100</v>
+        <v>59700</v>
       </c>
       <c r="K89" s="3">
         <v>32400</v>
@@ -3592,25 +3592,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-86300</v>
+        <v>-87100</v>
       </c>
       <c r="E91" s="3">
-        <v>-89700</v>
+        <v>-90600</v>
       </c>
       <c r="F91" s="3">
-        <v>-120400</v>
+        <v>-121500</v>
       </c>
       <c r="G91" s="3">
-        <v>-62200</v>
+        <v>-62700</v>
       </c>
       <c r="H91" s="3">
-        <v>-41300</v>
+        <v>-41600</v>
       </c>
       <c r="I91" s="3">
-        <v>-20800</v>
+        <v>-20900</v>
       </c>
       <c r="J91" s="3">
-        <v>-24900</v>
+        <v>-25100</v>
       </c>
       <c r="K91" s="3">
         <v>-27600</v>
@@ -3709,19 +3709,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-76100</v>
+        <v>-76800</v>
       </c>
       <c r="E94" s="3">
-        <v>-86500</v>
+        <v>-87300</v>
       </c>
       <c r="F94" s="3">
-        <v>-123200</v>
+        <v>-124300</v>
       </c>
       <c r="G94" s="3">
-        <v>-175300</v>
+        <v>-176900</v>
       </c>
       <c r="H94" s="3">
-        <v>-25800</v>
+        <v>-26000</v>
       </c>
       <c r="I94" s="3">
         <v>-8100</v>
@@ -3771,10 +3771,10 @@
         <v>-3400</v>
       </c>
       <c r="F96" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="G96" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="H96" s="3">
         <v>-1700</v>
@@ -3921,25 +3921,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-71100</v>
+        <v>-71800</v>
       </c>
       <c r="E100" s="3">
         <v>3500</v>
       </c>
       <c r="F100" s="3">
-        <v>-8600</v>
+        <v>-8700</v>
       </c>
       <c r="G100" s="3">
-        <v>100100</v>
+        <v>101000</v>
       </c>
       <c r="H100" s="3">
-        <v>-16600</v>
+        <v>-16700</v>
       </c>
       <c r="I100" s="3">
-        <v>-36800</v>
+        <v>-37100</v>
       </c>
       <c r="J100" s="3">
-        <v>-38700</v>
+        <v>-39100</v>
       </c>
       <c r="K100" s="3">
         <v>-27100</v>
@@ -3999,25 +3999,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-20600</v>
+        <v>-20800</v>
       </c>
       <c r="E102" s="3">
-        <v>29300</v>
+        <v>29600</v>
       </c>
       <c r="F102" s="3">
-        <v>-10700</v>
+        <v>-10800</v>
       </c>
       <c r="G102" s="3">
-        <v>8700</v>
+        <v>8800</v>
       </c>
       <c r="H102" s="3">
         <v>-4200</v>
       </c>
       <c r="I102" s="3">
-        <v>-14300</v>
+        <v>-14500</v>
       </c>
       <c r="J102" s="3">
-        <v>24100</v>
+        <v>24300</v>
       </c>
       <c r="K102" s="3">
         <v>-10000</v>

--- a/AAII_Financials/Yearly/NOA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NOA_YR_FIN.xlsx
@@ -724,25 +724,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>506100</v>
+        <v>491200</v>
       </c>
       <c r="E8" s="3">
-        <v>385700</v>
+        <v>374300</v>
       </c>
       <c r="F8" s="3">
-        <v>556400</v>
+        <v>539900</v>
       </c>
       <c r="G8" s="3">
-        <v>317300</v>
+        <v>307900</v>
       </c>
       <c r="H8" s="3">
-        <v>226400</v>
+        <v>219700</v>
       </c>
       <c r="I8" s="3">
-        <v>164900</v>
+        <v>160100</v>
       </c>
       <c r="J8" s="3">
-        <v>217600</v>
+        <v>211200</v>
       </c>
       <c r="K8" s="3">
         <v>370400</v>
@@ -763,25 +763,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>445800</v>
+        <v>432700</v>
       </c>
       <c r="E9" s="3">
-        <v>333800</v>
+        <v>323900</v>
       </c>
       <c r="F9" s="3">
-        <v>481800</v>
+        <v>467500</v>
       </c>
       <c r="G9" s="3">
-        <v>263800</v>
+        <v>256000</v>
       </c>
       <c r="H9" s="3">
-        <v>195700</v>
+        <v>189900</v>
       </c>
       <c r="I9" s="3">
-        <v>139900</v>
+        <v>135800</v>
       </c>
       <c r="J9" s="3">
-        <v>193000</v>
+        <v>187300</v>
       </c>
       <c r="K9" s="3">
         <v>330000</v>
@@ -802,25 +802,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>60300</v>
+        <v>58500</v>
       </c>
       <c r="E10" s="3">
+        <v>50400</v>
+      </c>
+      <c r="F10" s="3">
+        <v>72400</v>
+      </c>
+      <c r="G10" s="3">
         <v>51900</v>
       </c>
-      <c r="F10" s="3">
-        <v>74600</v>
-      </c>
-      <c r="G10" s="3">
-        <v>53400</v>
-      </c>
       <c r="H10" s="3">
-        <v>30700</v>
+        <v>29800</v>
       </c>
       <c r="I10" s="3">
-        <v>25000</v>
+        <v>24300</v>
       </c>
       <c r="J10" s="3">
-        <v>24700</v>
+        <v>23900</v>
       </c>
       <c r="K10" s="3">
         <v>40400</v>
@@ -936,10 +936,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-10100</v>
+        <v>-9800</v>
       </c>
       <c r="E14" s="3">
-        <v>-21700</v>
+        <v>-21100</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -981,7 +981,7 @@
         <v>400</v>
       </c>
       <c r="F15" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G15" s="3">
         <v>300</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>463500</v>
+        <v>449800</v>
       </c>
       <c r="E17" s="3">
-        <v>333800</v>
+        <v>323900</v>
       </c>
       <c r="F17" s="3">
-        <v>510900</v>
+        <v>495800</v>
       </c>
       <c r="G17" s="3">
-        <v>294100</v>
+        <v>285400</v>
       </c>
       <c r="H17" s="3">
-        <v>216000</v>
+        <v>209600</v>
       </c>
       <c r="I17" s="3">
-        <v>161900</v>
+        <v>157100</v>
       </c>
       <c r="J17" s="3">
-        <v>215900</v>
+        <v>209500</v>
       </c>
       <c r="K17" s="3">
         <v>361300</v>
@@ -1067,22 +1067,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>42700</v>
+        <v>41400</v>
       </c>
       <c r="E18" s="3">
-        <v>51900</v>
+        <v>50400</v>
       </c>
       <c r="F18" s="3">
-        <v>45500</v>
+        <v>44100</v>
       </c>
       <c r="G18" s="3">
-        <v>23200</v>
+        <v>22500</v>
       </c>
       <c r="H18" s="3">
-        <v>10400</v>
+        <v>10100</v>
       </c>
       <c r="I18" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="J18" s="3">
         <v>1700</v>
@@ -1123,16 +1123,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>17900</v>
+        <v>17300</v>
       </c>
       <c r="E20" s="3">
-        <v>8500</v>
+        <v>8200</v>
       </c>
       <c r="F20" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="G20" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3">
         <v>100</v>
@@ -1162,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>143800</v>
+        <v>138600</v>
       </c>
       <c r="E21" s="3">
-        <v>129300</v>
+        <v>124700</v>
       </c>
       <c r="F21" s="3">
-        <v>126400</v>
+        <v>121800</v>
       </c>
       <c r="G21" s="3">
-        <v>68700</v>
+        <v>66100</v>
       </c>
       <c r="H21" s="3">
-        <v>45700</v>
+        <v>43900</v>
       </c>
       <c r="I21" s="3">
-        <v>37000</v>
+        <v>35500</v>
       </c>
       <c r="J21" s="3">
-        <v>34300</v>
+        <v>32900</v>
       </c>
       <c r="K21" s="3">
         <v>45400</v>
@@ -1201,25 +1201,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>13600</v>
+        <v>13200</v>
       </c>
       <c r="E22" s="3">
-        <v>13600</v>
+        <v>13200</v>
       </c>
       <c r="F22" s="3">
-        <v>16600</v>
+        <v>16100</v>
       </c>
       <c r="G22" s="3">
-        <v>6800</v>
+        <v>6600</v>
       </c>
       <c r="H22" s="3">
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="I22" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="J22" s="3">
-        <v>7800</v>
+        <v>7500</v>
       </c>
       <c r="K22" s="3">
         <v>9500</v>
@@ -1240,25 +1240,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>47000</v>
+        <v>45600</v>
       </c>
       <c r="E23" s="3">
-        <v>46800</v>
+        <v>45400</v>
       </c>
       <c r="F23" s="3">
-        <v>30900</v>
+        <v>30000</v>
       </c>
       <c r="G23" s="3">
-        <v>16600</v>
+        <v>16100</v>
       </c>
       <c r="H23" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="I23" s="3">
         <v>-400</v>
       </c>
       <c r="J23" s="3">
-        <v>-5900</v>
+        <v>-5700</v>
       </c>
       <c r="K23" s="3">
         <v>-600</v>
@@ -1279,16 +1279,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>7200</v>
+        <v>7000</v>
       </c>
       <c r="E24" s="3">
-        <v>8700</v>
+        <v>8500</v>
       </c>
       <c r="F24" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="G24" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="H24" s="3">
         <v>900</v>
@@ -1357,25 +1357,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>39800</v>
+        <v>38600</v>
       </c>
       <c r="E26" s="3">
-        <v>38100</v>
+        <v>36900</v>
       </c>
       <c r="F26" s="3">
-        <v>28700</v>
+        <v>27900</v>
       </c>
       <c r="G26" s="3">
-        <v>11900</v>
+        <v>11500</v>
       </c>
       <c r="H26" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="I26" s="3">
         <v>-300</v>
       </c>
       <c r="J26" s="3">
-        <v>-5800</v>
+        <v>-5600</v>
       </c>
       <c r="K26" s="3">
         <v>-500</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>39800</v>
+        <v>38600</v>
       </c>
       <c r="E27" s="3">
-        <v>38100</v>
+        <v>36900</v>
       </c>
       <c r="F27" s="3">
-        <v>28500</v>
+        <v>27700</v>
       </c>
       <c r="G27" s="3">
-        <v>11800</v>
+        <v>11500</v>
       </c>
       <c r="H27" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="I27" s="3">
         <v>-300</v>
       </c>
       <c r="J27" s="3">
-        <v>-5800</v>
+        <v>-5600</v>
       </c>
       <c r="K27" s="3">
         <v>-500</v>
@@ -1591,16 +1591,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-17900</v>
+        <v>-17300</v>
       </c>
       <c r="E32" s="3">
-        <v>-8500</v>
+        <v>-8200</v>
       </c>
       <c r="F32" s="3">
-        <v>-2100</v>
+        <v>-2000</v>
       </c>
       <c r="G32" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H32" s="3">
         <v>-100</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>39800</v>
+        <v>38600</v>
       </c>
       <c r="E33" s="3">
-        <v>38100</v>
+        <v>36900</v>
       </c>
       <c r="F33" s="3">
-        <v>28500</v>
+        <v>27700</v>
       </c>
       <c r="G33" s="3">
-        <v>11800</v>
+        <v>11500</v>
       </c>
       <c r="H33" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="I33" s="3">
         <v>-300</v>
       </c>
       <c r="J33" s="3">
-        <v>-5800</v>
+        <v>-5600</v>
       </c>
       <c r="K33" s="3">
         <v>-900</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>39800</v>
+        <v>38600</v>
       </c>
       <c r="E35" s="3">
-        <v>38100</v>
+        <v>36900</v>
       </c>
       <c r="F35" s="3">
-        <v>28500</v>
+        <v>27700</v>
       </c>
       <c r="G35" s="3">
-        <v>11800</v>
+        <v>11500</v>
       </c>
       <c r="H35" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="I35" s="3">
         <v>-300</v>
       </c>
       <c r="J35" s="3">
-        <v>-5800</v>
+        <v>-5600</v>
       </c>
       <c r="K35" s="3">
         <v>-900</v>
@@ -1825,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>12800</v>
+        <v>12500</v>
       </c>
       <c r="E41" s="3">
-        <v>33600</v>
+        <v>32600</v>
       </c>
       <c r="F41" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="G41" s="3">
-        <v>15100</v>
+        <v>14600</v>
       </c>
       <c r="H41" s="3">
-        <v>6300</v>
+        <v>6100</v>
       </c>
       <c r="I41" s="3">
-        <v>10600</v>
+        <v>10300</v>
       </c>
       <c r="J41" s="3">
-        <v>25000</v>
+        <v>24300</v>
       </c>
       <c r="K41" s="3">
         <v>800</v>
@@ -1903,25 +1903,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>60800</v>
+        <v>59000</v>
       </c>
       <c r="E43" s="3">
-        <v>61600</v>
+        <v>59800</v>
       </c>
       <c r="F43" s="3">
-        <v>66500</v>
+        <v>64500</v>
       </c>
       <c r="G43" s="3">
-        <v>72000</v>
+        <v>69900</v>
       </c>
       <c r="H43" s="3">
-        <v>52900</v>
+        <v>51300</v>
       </c>
       <c r="I43" s="3">
-        <v>43400</v>
+        <v>42100</v>
       </c>
       <c r="J43" s="3">
-        <v>32700</v>
+        <v>31800</v>
       </c>
       <c r="K43" s="3">
         <v>138700</v>
@@ -1942,25 +1942,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>34500</v>
+        <v>33400</v>
       </c>
       <c r="E44" s="3">
-        <v>14800</v>
+        <v>14400</v>
       </c>
       <c r="F44" s="3">
-        <v>16800</v>
+        <v>16300</v>
       </c>
       <c r="G44" s="3">
-        <v>10400</v>
+        <v>10100</v>
       </c>
       <c r="H44" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="I44" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="J44" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="K44" s="3">
         <v>5800</v>
@@ -1981,19 +1981,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>5800</v>
+        <v>5600</v>
       </c>
       <c r="E45" s="3">
-        <v>10400</v>
+        <v>10100</v>
       </c>
       <c r="F45" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="G45" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="H45" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="I45" s="3">
         <v>1400</v>
@@ -2020,25 +2020,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>113900</v>
+        <v>110500</v>
       </c>
       <c r="E46" s="3">
-        <v>92300</v>
+        <v>89600</v>
       </c>
       <c r="F46" s="3">
-        <v>91100</v>
+        <v>88500</v>
       </c>
       <c r="G46" s="3">
-        <v>100400</v>
+        <v>97400</v>
       </c>
       <c r="H46" s="3">
-        <v>68800</v>
+        <v>66700</v>
       </c>
       <c r="I46" s="3">
-        <v>58000</v>
+        <v>56300</v>
       </c>
       <c r="J46" s="3">
-        <v>61200</v>
+        <v>59400</v>
       </c>
       <c r="K46" s="3">
         <v>118000</v>
@@ -2059,16 +2059,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>43300</v>
+        <v>42000</v>
       </c>
       <c r="E47" s="3">
-        <v>35800</v>
+        <v>34700</v>
       </c>
       <c r="F47" s="3">
-        <v>33200</v>
+        <v>32200</v>
       </c>
       <c r="G47" s="3">
-        <v>11400</v>
+        <v>11000</v>
       </c>
       <c r="H47" s="3">
         <v>300</v>
@@ -2098,25 +2098,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>507400</v>
+        <v>492400</v>
       </c>
       <c r="E48" s="3">
-        <v>503200</v>
+        <v>488400</v>
       </c>
       <c r="F48" s="3">
-        <v>471700</v>
+        <v>457700</v>
       </c>
       <c r="G48" s="3">
-        <v>817300</v>
+        <v>793100</v>
       </c>
       <c r="H48" s="3">
-        <v>215600</v>
+        <v>209200</v>
       </c>
       <c r="I48" s="3">
-        <v>198400</v>
+        <v>192600</v>
       </c>
       <c r="J48" s="3">
-        <v>400400</v>
+        <v>388600</v>
       </c>
       <c r="K48" s="3">
         <v>204800</v>
@@ -2137,7 +2137,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="E49" s="3">
         <v>300</v>
@@ -2146,16 +2146,16 @@
         <v>8</v>
       </c>
       <c r="G49" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="H49" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="I49" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="J49" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="K49" s="3">
         <v>3400</v>
@@ -2254,25 +2254,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="E52" s="3">
-        <v>17600</v>
+        <v>17100</v>
       </c>
       <c r="F52" s="3">
-        <v>17300</v>
+        <v>16800</v>
       </c>
       <c r="G52" s="3">
-        <v>19000</v>
+        <v>18400</v>
       </c>
       <c r="H52" s="3">
-        <v>11400</v>
+        <v>11100</v>
       </c>
       <c r="I52" s="3">
-        <v>13100</v>
+        <v>12700</v>
       </c>
       <c r="J52" s="3">
-        <v>20200</v>
+        <v>19700</v>
       </c>
       <c r="K52" s="3">
         <v>32100</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>672600</v>
+        <v>652700</v>
       </c>
       <c r="E54" s="3">
-        <v>649200</v>
+        <v>630000</v>
       </c>
       <c r="F54" s="3">
-        <v>613300</v>
+        <v>595200</v>
       </c>
       <c r="G54" s="3">
-        <v>533700</v>
+        <v>517900</v>
       </c>
       <c r="H54" s="3">
-        <v>296800</v>
+        <v>288100</v>
       </c>
       <c r="I54" s="3">
-        <v>270900</v>
+        <v>262900</v>
       </c>
       <c r="J54" s="3">
-        <v>278700</v>
+        <v>270400</v>
       </c>
       <c r="K54" s="3">
         <v>358400</v>
@@ -2405,25 +2405,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>59000</v>
+        <v>57300</v>
       </c>
       <c r="E57" s="3">
-        <v>32100</v>
+        <v>31100</v>
       </c>
       <c r="F57" s="3">
-        <v>68200</v>
+        <v>66200</v>
       </c>
       <c r="G57" s="3">
-        <v>49100</v>
+        <v>47600</v>
       </c>
       <c r="H57" s="3">
-        <v>27200</v>
+        <v>26400</v>
       </c>
       <c r="I57" s="3">
-        <v>22900</v>
+        <v>22200</v>
       </c>
       <c r="J57" s="3">
-        <v>19400</v>
+        <v>18800</v>
       </c>
       <c r="K57" s="3">
         <v>45600</v>
@@ -2444,25 +2444,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>34600</v>
+        <v>33600</v>
       </c>
       <c r="E58" s="3">
-        <v>33400</v>
+        <v>32400</v>
       </c>
       <c r="F58" s="3">
-        <v>36900</v>
+        <v>35800</v>
       </c>
       <c r="G58" s="3">
-        <v>48200</v>
+        <v>46700</v>
       </c>
       <c r="H58" s="3">
+        <v>21900</v>
+      </c>
+      <c r="I58" s="3">
+        <v>24200</v>
+      </c>
+      <c r="J58" s="3">
         <v>22500</v>
-      </c>
-      <c r="I58" s="3">
-        <v>24900</v>
-      </c>
-      <c r="J58" s="3">
-        <v>23200</v>
       </c>
       <c r="K58" s="3">
         <v>17400</v>
@@ -2483,25 +2483,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>31000</v>
+        <v>30100</v>
       </c>
       <c r="E59" s="3">
-        <v>21800</v>
+        <v>21100</v>
       </c>
       <c r="F59" s="3">
-        <v>30100</v>
+        <v>29200</v>
       </c>
       <c r="G59" s="3">
-        <v>32800</v>
+        <v>31800</v>
       </c>
       <c r="H59" s="3">
-        <v>11400</v>
+        <v>11000</v>
       </c>
       <c r="I59" s="3">
-        <v>9500</v>
+        <v>9200</v>
       </c>
       <c r="J59" s="3">
-        <v>10800</v>
+        <v>10500</v>
       </c>
       <c r="K59" s="3">
         <v>27500</v>
@@ -2522,25 +2522,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>124600</v>
+        <v>120900</v>
       </c>
       <c r="E60" s="3">
-        <v>84700</v>
+        <v>82200</v>
       </c>
       <c r="F60" s="3">
-        <v>121700</v>
+        <v>118100</v>
       </c>
       <c r="G60" s="3">
-        <v>115200</v>
+        <v>111800</v>
       </c>
       <c r="H60" s="3">
-        <v>60000</v>
+        <v>58300</v>
       </c>
       <c r="I60" s="3">
-        <v>57300</v>
+        <v>55600</v>
       </c>
       <c r="J60" s="3">
-        <v>48100</v>
+        <v>46700</v>
       </c>
       <c r="K60" s="3">
         <v>74800</v>
@@ -2561,25 +2561,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>259800</v>
+        <v>252100</v>
       </c>
       <c r="E61" s="3">
-        <v>297100</v>
+        <v>288300</v>
       </c>
       <c r="F61" s="3">
-        <v>278900</v>
+        <v>270700</v>
       </c>
       <c r="G61" s="3">
-        <v>247800</v>
+        <v>240500</v>
       </c>
       <c r="H61" s="3">
-        <v>83500</v>
+        <v>81000</v>
       </c>
       <c r="I61" s="3">
-        <v>53100</v>
+        <v>51500</v>
       </c>
       <c r="J61" s="3">
-        <v>62300</v>
+        <v>60400</v>
       </c>
       <c r="K61" s="3">
         <v>83300</v>
@@ -2600,25 +2600,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>72800</v>
+        <v>70600</v>
       </c>
       <c r="E62" s="3">
-        <v>75200</v>
+        <v>73000</v>
       </c>
       <c r="F62" s="3">
-        <v>73300</v>
+        <v>71100</v>
       </c>
       <c r="G62" s="3">
-        <v>54500</v>
+        <v>52900</v>
       </c>
       <c r="H62" s="3">
-        <v>40400</v>
+        <v>39200</v>
       </c>
       <c r="I62" s="3">
-        <v>37500</v>
+        <v>36400</v>
       </c>
       <c r="J62" s="3">
-        <v>35500</v>
+        <v>34400</v>
       </c>
       <c r="K62" s="3">
         <v>51500</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>457100</v>
+        <v>443600</v>
       </c>
       <c r="E66" s="3">
-        <v>457000</v>
+        <v>443500</v>
       </c>
       <c r="F66" s="3">
-        <v>473900</v>
+        <v>459900</v>
       </c>
       <c r="G66" s="3">
-        <v>417900</v>
+        <v>405500</v>
       </c>
       <c r="H66" s="3">
-        <v>183900</v>
+        <v>178500</v>
       </c>
       <c r="I66" s="3">
-        <v>147900</v>
+        <v>143500</v>
       </c>
       <c r="J66" s="3">
-        <v>145900</v>
+        <v>141600</v>
       </c>
       <c r="K66" s="3">
         <v>209600</v>
@@ -2968,25 +2968,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9200</v>
+        <v>8900</v>
       </c>
       <c r="E72" s="3">
-        <v>-27200</v>
+        <v>-26400</v>
       </c>
       <c r="F72" s="3">
-        <v>-61800</v>
+        <v>-60000</v>
       </c>
       <c r="G72" s="3">
-        <v>-88100</v>
+        <v>-85500</v>
       </c>
       <c r="H72" s="3">
-        <v>-98400</v>
+        <v>-95500</v>
       </c>
       <c r="I72" s="3">
-        <v>-100800</v>
+        <v>-97800</v>
       </c>
       <c r="J72" s="3">
-        <v>-98600</v>
+        <v>-95700</v>
       </c>
       <c r="K72" s="3">
         <v>-92200</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>215500</v>
+        <v>209100</v>
       </c>
       <c r="E76" s="3">
-        <v>192200</v>
+        <v>186500</v>
       </c>
       <c r="F76" s="3">
-        <v>139400</v>
+        <v>135200</v>
       </c>
       <c r="G76" s="3">
-        <v>115800</v>
+        <v>112400</v>
       </c>
       <c r="H76" s="3">
-        <v>112900</v>
+        <v>109600</v>
       </c>
       <c r="I76" s="3">
-        <v>123000</v>
+        <v>119400</v>
       </c>
       <c r="J76" s="3">
-        <v>132800</v>
+        <v>128900</v>
       </c>
       <c r="K76" s="3">
         <v>148800</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>39800</v>
+        <v>38600</v>
       </c>
       <c r="E81" s="3">
-        <v>38100</v>
+        <v>36900</v>
       </c>
       <c r="F81" s="3">
-        <v>28500</v>
+        <v>27700</v>
       </c>
       <c r="G81" s="3">
-        <v>11800</v>
+        <v>11500</v>
       </c>
       <c r="H81" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="I81" s="3">
         <v>-300</v>
       </c>
       <c r="J81" s="3">
-        <v>-5800</v>
+        <v>-5600</v>
       </c>
       <c r="K81" s="3">
         <v>-900</v>
@@ -3302,25 +3302,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>83600</v>
+        <v>81100</v>
       </c>
       <c r="E83" s="3">
-        <v>69100</v>
+        <v>67100</v>
       </c>
       <c r="F83" s="3">
-        <v>79100</v>
+        <v>76800</v>
       </c>
       <c r="G83" s="3">
-        <v>45500</v>
+        <v>44100</v>
       </c>
       <c r="H83" s="3">
-        <v>35300</v>
+        <v>34300</v>
       </c>
       <c r="I83" s="3">
-        <v>32900</v>
+        <v>31900</v>
       </c>
       <c r="J83" s="3">
-        <v>32500</v>
+        <v>31600</v>
       </c>
       <c r="K83" s="3">
         <v>36600</v>
@@ -3536,25 +3536,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>127800</v>
+        <v>124000</v>
       </c>
       <c r="E89" s="3">
-        <v>113400</v>
+        <v>110000</v>
       </c>
       <c r="F89" s="3">
-        <v>122200</v>
+        <v>118600</v>
       </c>
       <c r="G89" s="3">
-        <v>84600</v>
+        <v>82100</v>
       </c>
       <c r="H89" s="3">
-        <v>38500</v>
+        <v>37400</v>
       </c>
       <c r="I89" s="3">
-        <v>30800</v>
+        <v>29900</v>
       </c>
       <c r="J89" s="3">
-        <v>59700</v>
+        <v>57900</v>
       </c>
       <c r="K89" s="3">
         <v>32400</v>
@@ -3592,25 +3592,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-87100</v>
+        <v>-84500</v>
       </c>
       <c r="E91" s="3">
-        <v>-90600</v>
+        <v>-87900</v>
       </c>
       <c r="F91" s="3">
-        <v>-121500</v>
+        <v>-117900</v>
       </c>
       <c r="G91" s="3">
-        <v>-62700</v>
+        <v>-60900</v>
       </c>
       <c r="H91" s="3">
-        <v>-41600</v>
+        <v>-40400</v>
       </c>
       <c r="I91" s="3">
-        <v>-20900</v>
+        <v>-20300</v>
       </c>
       <c r="J91" s="3">
-        <v>-25100</v>
+        <v>-24400</v>
       </c>
       <c r="K91" s="3">
         <v>-27600</v>
@@ -3709,25 +3709,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-76800</v>
+        <v>-74500</v>
       </c>
       <c r="E94" s="3">
-        <v>-87300</v>
+        <v>-84700</v>
       </c>
       <c r="F94" s="3">
-        <v>-124300</v>
+        <v>-120600</v>
       </c>
       <c r="G94" s="3">
-        <v>-176900</v>
+        <v>-171700</v>
       </c>
       <c r="H94" s="3">
-        <v>-26000</v>
+        <v>-25200</v>
       </c>
       <c r="I94" s="3">
-        <v>-8100</v>
+        <v>-7900</v>
       </c>
       <c r="J94" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="K94" s="3">
         <v>-15300</v>
@@ -3765,19 +3765,19 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3400</v>
+        <v>-3300</v>
       </c>
       <c r="E96" s="3">
-        <v>-3400</v>
+        <v>-3300</v>
       </c>
       <c r="F96" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="G96" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="H96" s="3">
         <v>-1600</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-1700</v>
       </c>
       <c r="I96" s="3">
         <v>-1400</v>
@@ -3921,25 +3921,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-71800</v>
+        <v>-69600</v>
       </c>
       <c r="E100" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="F100" s="3">
-        <v>-8700</v>
+        <v>-8400</v>
       </c>
       <c r="G100" s="3">
-        <v>101000</v>
+        <v>98000</v>
       </c>
       <c r="H100" s="3">
-        <v>-16700</v>
+        <v>-16200</v>
       </c>
       <c r="I100" s="3">
-        <v>-37100</v>
+        <v>-36000</v>
       </c>
       <c r="J100" s="3">
-        <v>-39100</v>
+        <v>-37900</v>
       </c>
       <c r="K100" s="3">
         <v>-27100</v>
@@ -3999,25 +3999,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-20800</v>
+        <v>-20200</v>
       </c>
       <c r="E102" s="3">
-        <v>29600</v>
+        <v>28700</v>
       </c>
       <c r="F102" s="3">
-        <v>-10800</v>
+        <v>-10500</v>
       </c>
       <c r="G102" s="3">
-        <v>8800</v>
+        <v>8500</v>
       </c>
       <c r="H102" s="3">
-        <v>-4200</v>
+        <v>-4100</v>
       </c>
       <c r="I102" s="3">
-        <v>-14500</v>
+        <v>-14000</v>
       </c>
       <c r="J102" s="3">
-        <v>24300</v>
+        <v>23600</v>
       </c>
       <c r="K102" s="3">
         <v>-10000</v>

--- a/AAII_Financials/Yearly/NOA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NOA_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>NOA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,178 +665,190 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41364</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40999</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>491200</v>
+        <v>556500</v>
       </c>
       <c r="E8" s="3">
-        <v>374300</v>
+        <v>473100</v>
       </c>
       <c r="F8" s="3">
-        <v>539900</v>
+        <v>360500</v>
       </c>
       <c r="G8" s="3">
-        <v>307900</v>
+        <v>520000</v>
       </c>
       <c r="H8" s="3">
-        <v>219700</v>
+        <v>296600</v>
       </c>
       <c r="I8" s="3">
-        <v>160100</v>
+        <v>211600</v>
       </c>
       <c r="J8" s="3">
+        <v>154200</v>
+      </c>
+      <c r="K8" s="3">
         <v>211200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>370400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>362200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>410000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>515300</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>432700</v>
+        <v>483100</v>
       </c>
       <c r="E9" s="3">
-        <v>323900</v>
+        <v>416700</v>
       </c>
       <c r="F9" s="3">
-        <v>467500</v>
+        <v>312000</v>
       </c>
       <c r="G9" s="3">
-        <v>256000</v>
+        <v>450300</v>
       </c>
       <c r="H9" s="3">
-        <v>189900</v>
+        <v>246600</v>
       </c>
       <c r="I9" s="3">
-        <v>135800</v>
+        <v>182900</v>
       </c>
       <c r="J9" s="3">
+        <v>130800</v>
+      </c>
+      <c r="K9" s="3">
         <v>187300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>330000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>327000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>384500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>490700</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>58500</v>
+        <v>73400</v>
       </c>
       <c r="E10" s="3">
-        <v>50400</v>
+        <v>56400</v>
       </c>
       <c r="F10" s="3">
-        <v>72400</v>
+        <v>48500</v>
       </c>
       <c r="G10" s="3">
-        <v>51900</v>
+        <v>69700</v>
       </c>
       <c r="H10" s="3">
-        <v>29800</v>
+        <v>50000</v>
       </c>
       <c r="I10" s="3">
-        <v>24300</v>
+        <v>28700</v>
       </c>
       <c r="J10" s="3">
+        <v>23400</v>
+      </c>
+      <c r="K10" s="3">
         <v>23900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>40400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>35200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>25500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>24600</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -852,8 +864,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -890,9 +903,12 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,87 +945,96 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>-9800</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>-21100</v>
+        <v>-9400</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>-20300</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>1300</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>400</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>5000</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="3">
         <v>400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>700</v>
       </c>
-      <c r="I15" s="3">
-        <v>1300</v>
-      </c>
       <c r="J15" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K15" s="3">
         <v>1500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>2800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>3300</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1022,86 +1047,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>449800</v>
+        <v>505100</v>
       </c>
       <c r="E17" s="3">
-        <v>323900</v>
+        <v>433200</v>
       </c>
       <c r="F17" s="3">
-        <v>495800</v>
+        <v>312000</v>
       </c>
       <c r="G17" s="3">
-        <v>285400</v>
+        <v>477500</v>
       </c>
       <c r="H17" s="3">
-        <v>209600</v>
+        <v>274900</v>
       </c>
       <c r="I17" s="3">
-        <v>157100</v>
+        <v>201900</v>
       </c>
       <c r="J17" s="3">
+        <v>151300</v>
+      </c>
+      <c r="K17" s="3">
         <v>209500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>361300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>369200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>422000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>526600</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>41400</v>
+        <v>51500</v>
       </c>
       <c r="E18" s="3">
-        <v>50400</v>
+        <v>39900</v>
       </c>
       <c r="F18" s="3">
-        <v>44100</v>
+        <v>48500</v>
       </c>
       <c r="G18" s="3">
-        <v>22500</v>
+        <v>42500</v>
       </c>
       <c r="H18" s="3">
-        <v>10100</v>
+        <v>21700</v>
       </c>
       <c r="I18" s="3">
-        <v>2900</v>
+        <v>9700</v>
       </c>
       <c r="J18" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K18" s="3">
         <v>1700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>9100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-7100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-12100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-11400</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1117,203 +1149,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>17300</v>
+        <v>26500</v>
       </c>
       <c r="E20" s="3">
-        <v>8200</v>
+        <v>16700</v>
       </c>
       <c r="F20" s="3">
-        <v>2000</v>
+        <v>7900</v>
       </c>
       <c r="G20" s="3">
-        <v>100</v>
+        <v>1900</v>
       </c>
       <c r="H20" s="3">
         <v>100</v>
       </c>
       <c r="I20" s="3">
-        <v>1200</v>
+        <v>100</v>
       </c>
       <c r="J20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>5400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-15900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-14000</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>138600</v>
+        <v>164400</v>
       </c>
       <c r="E21" s="3">
-        <v>124700</v>
+        <v>134800</v>
       </c>
       <c r="F21" s="3">
-        <v>121800</v>
+        <v>121200</v>
       </c>
       <c r="G21" s="3">
-        <v>66100</v>
+        <v>118500</v>
       </c>
       <c r="H21" s="3">
-        <v>43900</v>
+        <v>64400</v>
       </c>
       <c r="I21" s="3">
-        <v>35500</v>
+        <v>42900</v>
       </c>
       <c r="J21" s="3">
+        <v>34700</v>
+      </c>
+      <c r="K21" s="3">
         <v>32900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>45400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>28900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>12400</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>13200</v>
+        <v>16900</v>
       </c>
       <c r="E22" s="3">
-        <v>13200</v>
+        <v>12700</v>
       </c>
       <c r="F22" s="3">
-        <v>16100</v>
+        <v>12700</v>
       </c>
       <c r="G22" s="3">
-        <v>6600</v>
+        <v>15500</v>
       </c>
       <c r="H22" s="3">
-        <v>5300</v>
+        <v>6300</v>
       </c>
       <c r="I22" s="3">
-        <v>4500</v>
+        <v>5100</v>
       </c>
       <c r="J22" s="3">
+        <v>4300</v>
+      </c>
+      <c r="K22" s="3">
         <v>7500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>9500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>16900</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1200</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>45600</v>
+        <v>61100</v>
       </c>
       <c r="E23" s="3">
-        <v>45400</v>
+        <v>43900</v>
       </c>
       <c r="F23" s="3">
-        <v>30000</v>
+        <v>43700</v>
       </c>
       <c r="G23" s="3">
-        <v>16100</v>
+        <v>28900</v>
       </c>
       <c r="H23" s="3">
-        <v>4900</v>
+        <v>15500</v>
       </c>
       <c r="I23" s="3">
+        <v>4700</v>
+      </c>
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-18600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-28000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-26600</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>7000</v>
+        <v>12300</v>
       </c>
       <c r="E24" s="3">
-        <v>8500</v>
+        <v>6700</v>
       </c>
       <c r="F24" s="3">
+        <v>8100</v>
+      </c>
+      <c r="G24" s="3">
         <v>2100</v>
       </c>
-      <c r="G24" s="3">
-        <v>4600</v>
-      </c>
       <c r="H24" s="3">
+        <v>4400</v>
+      </c>
+      <c r="I24" s="3">
         <v>900</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-4700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-6700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-7100</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1350,87 +1398,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>38600</v>
+        <v>48700</v>
       </c>
       <c r="E26" s="3">
-        <v>36900</v>
+        <v>37200</v>
       </c>
       <c r="F26" s="3">
-        <v>27900</v>
+        <v>35600</v>
       </c>
       <c r="G26" s="3">
-        <v>11500</v>
+        <v>26900</v>
       </c>
       <c r="H26" s="3">
-        <v>4000</v>
+        <v>11100</v>
       </c>
       <c r="I26" s="3">
+        <v>3800</v>
+      </c>
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-13900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-21300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-19500</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>38600</v>
+        <v>48700</v>
       </c>
       <c r="E27" s="3">
-        <v>36900</v>
+        <v>37200</v>
       </c>
       <c r="F27" s="3">
-        <v>27700</v>
+        <v>35600</v>
       </c>
       <c r="G27" s="3">
-        <v>11500</v>
+        <v>26700</v>
       </c>
       <c r="H27" s="3">
-        <v>4000</v>
+        <v>11100</v>
       </c>
       <c r="I27" s="3">
+        <v>3800</v>
+      </c>
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-13900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-21300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-19500</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1467,48 +1524,54 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-400</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>67200</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>20200</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>3200</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1545,9 +1608,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1584,87 +1650,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-17300</v>
+        <v>-26500</v>
       </c>
       <c r="E32" s="3">
-        <v>-8200</v>
+        <v>-16700</v>
       </c>
       <c r="F32" s="3">
-        <v>-2000</v>
+        <v>-7900</v>
       </c>
       <c r="G32" s="3">
-        <v>-100</v>
+        <v>-1900</v>
       </c>
       <c r="H32" s="3">
         <v>-100</v>
       </c>
       <c r="I32" s="3">
-        <v>-1200</v>
+        <v>-100</v>
       </c>
       <c r="J32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-5400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>15900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>14000</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>38600</v>
+        <v>48700</v>
       </c>
       <c r="E33" s="3">
-        <v>36900</v>
+        <v>37200</v>
       </c>
       <c r="F33" s="3">
-        <v>27700</v>
+        <v>35600</v>
       </c>
       <c r="G33" s="3">
-        <v>11500</v>
+        <v>26700</v>
       </c>
       <c r="H33" s="3">
-        <v>4000</v>
+        <v>11100</v>
       </c>
       <c r="I33" s="3">
+        <v>3800</v>
+      </c>
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>53300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-16300</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1701,92 +1776,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>38600</v>
+        <v>48700</v>
       </c>
       <c r="E35" s="3">
-        <v>36900</v>
+        <v>37200</v>
       </c>
       <c r="F35" s="3">
-        <v>27700</v>
+        <v>35600</v>
       </c>
       <c r="G35" s="3">
-        <v>11500</v>
+        <v>26700</v>
       </c>
       <c r="H35" s="3">
-        <v>4000</v>
+        <v>11100</v>
       </c>
       <c r="I35" s="3">
+        <v>3800</v>
+      </c>
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>53300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-16300</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41364</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40999</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1802,8 +1886,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1819,47 +1904,51 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>12500</v>
+        <v>50000</v>
       </c>
       <c r="E41" s="3">
-        <v>32600</v>
+        <v>12000</v>
       </c>
       <c r="F41" s="3">
-        <v>4200</v>
+        <v>31400</v>
       </c>
       <c r="G41" s="3">
-        <v>14600</v>
+        <v>4000</v>
       </c>
       <c r="H41" s="3">
-        <v>6100</v>
+        <v>14100</v>
       </c>
       <c r="I41" s="3">
-        <v>10300</v>
+        <v>5900</v>
       </c>
       <c r="J41" s="3">
+        <v>9900</v>
+      </c>
+      <c r="K41" s="3">
         <v>24300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1100</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1894,187 +1983,202 @@
         <v>0</v>
       </c>
       <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
         <v>1200</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>59000</v>
+        <v>72000</v>
       </c>
       <c r="E43" s="3">
-        <v>59800</v>
+        <v>56800</v>
       </c>
       <c r="F43" s="3">
-        <v>64500</v>
+        <v>57600</v>
       </c>
       <c r="G43" s="3">
-        <v>69900</v>
+        <v>62200</v>
       </c>
       <c r="H43" s="3">
-        <v>51300</v>
+        <v>67300</v>
       </c>
       <c r="I43" s="3">
-        <v>42100</v>
+        <v>49500</v>
       </c>
       <c r="J43" s="3">
+        <v>40500</v>
+      </c>
+      <c r="K43" s="3">
         <v>31800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>138700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>78800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>117900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>231200</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>33400</v>
+        <v>36100</v>
       </c>
       <c r="E44" s="3">
-        <v>14400</v>
+        <v>32200</v>
       </c>
       <c r="F44" s="3">
-        <v>16300</v>
+        <v>13900</v>
       </c>
       <c r="G44" s="3">
-        <v>10100</v>
+        <v>15700</v>
       </c>
       <c r="H44" s="3">
-        <v>3600</v>
+        <v>9700</v>
       </c>
       <c r="I44" s="3">
-        <v>2600</v>
+        <v>3400</v>
       </c>
       <c r="J44" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K44" s="3">
         <v>1900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>8000</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>5600</v>
+        <v>8500</v>
       </c>
       <c r="E45" s="3">
-        <v>10100</v>
+        <v>5400</v>
       </c>
       <c r="F45" s="3">
-        <v>3500</v>
+        <v>9700</v>
       </c>
       <c r="G45" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="H45" s="3">
-        <v>5700</v>
+        <v>3200</v>
       </c>
       <c r="I45" s="3">
+        <v>5500</v>
+      </c>
+      <c r="J45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K45" s="3">
         <v>1400</v>
       </c>
-      <c r="J45" s="3">
-        <v>1400</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>29400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>145800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>9600</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>110500</v>
+        <v>166600</v>
       </c>
       <c r="E46" s="3">
-        <v>89600</v>
+        <v>106400</v>
       </c>
       <c r="F46" s="3">
-        <v>88500</v>
+        <v>86300</v>
       </c>
       <c r="G46" s="3">
-        <v>97400</v>
+        <v>85200</v>
       </c>
       <c r="H46" s="3">
-        <v>66700</v>
+        <v>93800</v>
       </c>
       <c r="I46" s="3">
-        <v>56300</v>
+        <v>64300</v>
       </c>
       <c r="J46" s="3">
+        <v>54200</v>
+      </c>
+      <c r="K46" s="3">
         <v>59400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>118000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>98400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>268500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>251200</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>42000</v>
+        <v>56500</v>
       </c>
       <c r="E47" s="3">
-        <v>34700</v>
+        <v>40500</v>
       </c>
       <c r="F47" s="3">
-        <v>32200</v>
+        <v>33500</v>
       </c>
       <c r="G47" s="3">
-        <v>11000</v>
+        <v>31000</v>
       </c>
       <c r="H47" s="3">
+        <v>10600</v>
+      </c>
+      <c r="I47" s="3">
         <v>300</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>8</v>
@@ -2088,90 +2192,99 @@
       <c r="M47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
-      </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>492400</v>
+        <v>477700</v>
       </c>
       <c r="E48" s="3">
-        <v>488400</v>
+        <v>469200</v>
       </c>
       <c r="F48" s="3">
-        <v>457700</v>
+        <v>465800</v>
       </c>
       <c r="G48" s="3">
-        <v>793100</v>
+        <v>437100</v>
       </c>
       <c r="H48" s="3">
-        <v>209200</v>
+        <v>757500</v>
       </c>
       <c r="I48" s="3">
-        <v>192600</v>
+        <v>194200</v>
       </c>
       <c r="J48" s="3">
+        <v>178400</v>
+      </c>
+      <c r="K48" s="3">
         <v>388600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>204800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>194000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>210200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>245000</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3300</v>
+        <v>5300</v>
       </c>
       <c r="E49" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F49" s="3">
         <v>300</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="G49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G49" s="3">
-        <v>2200</v>
-      </c>
       <c r="H49" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I49" s="3">
         <v>1400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3400</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
       <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
         <v>6500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>35200</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2208,9 +2321,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2247,48 +2363,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4500</v>
+        <v>2300</v>
       </c>
       <c r="E52" s="3">
-        <v>17100</v>
+        <v>9400</v>
       </c>
       <c r="F52" s="3">
-        <v>16800</v>
+        <v>21000</v>
       </c>
       <c r="G52" s="3">
-        <v>18400</v>
+        <v>19900</v>
       </c>
       <c r="H52" s="3">
-        <v>11100</v>
+        <v>24200</v>
       </c>
       <c r="I52" s="3">
-        <v>12700</v>
+        <v>18000</v>
       </c>
       <c r="J52" s="3">
+        <v>19300</v>
+      </c>
+      <c r="K52" s="3">
         <v>19700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>32100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>50600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>11600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>46200</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2325,48 +2447,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>652700</v>
+        <v>708400</v>
       </c>
       <c r="E54" s="3">
-        <v>630000</v>
+        <v>628700</v>
       </c>
       <c r="F54" s="3">
-        <v>595200</v>
+        <v>606800</v>
       </c>
       <c r="G54" s="3">
-        <v>517900</v>
+        <v>573300</v>
       </c>
       <c r="H54" s="3">
-        <v>288100</v>
+        <v>498900</v>
       </c>
       <c r="I54" s="3">
-        <v>262900</v>
+        <v>277500</v>
       </c>
       <c r="J54" s="3">
+        <v>253200</v>
+      </c>
+      <c r="K54" s="3">
         <v>270400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>358400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>343100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>496800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>576200</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2382,8 +2510,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2399,242 +2528,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>57300</v>
+        <v>74200</v>
       </c>
       <c r="E57" s="3">
-        <v>31100</v>
+        <v>55100</v>
       </c>
       <c r="F57" s="3">
-        <v>66200</v>
+        <v>30000</v>
       </c>
       <c r="G57" s="3">
-        <v>47600</v>
+        <v>63800</v>
       </c>
       <c r="H57" s="3">
-        <v>26400</v>
+        <v>45900</v>
       </c>
       <c r="I57" s="3">
-        <v>22200</v>
+        <v>25500</v>
       </c>
       <c r="J57" s="3">
+        <v>21400</v>
+      </c>
+      <c r="K57" s="3">
         <v>18800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>45600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>37300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>55500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>131500</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>33600</v>
+        <v>30400</v>
       </c>
       <c r="E58" s="3">
-        <v>32400</v>
+        <v>32300</v>
       </c>
       <c r="F58" s="3">
-        <v>35800</v>
+        <v>31200</v>
       </c>
       <c r="G58" s="3">
-        <v>46700</v>
+        <v>34500</v>
       </c>
       <c r="H58" s="3">
-        <v>21900</v>
+        <v>45000</v>
       </c>
       <c r="I58" s="3">
-        <v>24200</v>
+        <v>21100</v>
       </c>
       <c r="J58" s="3">
+        <v>23300</v>
+      </c>
+      <c r="K58" s="3">
         <v>22500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>17400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>11500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>16100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>22100</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>30100</v>
+        <v>34500</v>
       </c>
       <c r="E59" s="3">
-        <v>21100</v>
+        <v>29000</v>
       </c>
       <c r="F59" s="3">
-        <v>29200</v>
+        <v>20300</v>
       </c>
       <c r="G59" s="3">
-        <v>31800</v>
+        <v>28200</v>
       </c>
       <c r="H59" s="3">
-        <v>11000</v>
+        <v>30600</v>
       </c>
       <c r="I59" s="3">
-        <v>9200</v>
+        <v>10600</v>
       </c>
       <c r="J59" s="3">
+        <v>8900</v>
+      </c>
+      <c r="K59" s="3">
         <v>10500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>27500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>23100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>72300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>53000</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>120900</v>
+        <v>139100</v>
       </c>
       <c r="E60" s="3">
-        <v>82200</v>
+        <v>116500</v>
       </c>
       <c r="F60" s="3">
-        <v>118100</v>
+        <v>79200</v>
       </c>
       <c r="G60" s="3">
-        <v>111800</v>
+        <v>113800</v>
       </c>
       <c r="H60" s="3">
-        <v>58300</v>
+        <v>107700</v>
       </c>
       <c r="I60" s="3">
-        <v>55600</v>
+        <v>56100</v>
       </c>
       <c r="J60" s="3">
+        <v>53500</v>
+      </c>
+      <c r="K60" s="3">
         <v>46700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>74800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>72000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>143900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>195600</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>252100</v>
+        <v>273700</v>
       </c>
       <c r="E61" s="3">
-        <v>288300</v>
+        <v>242800</v>
       </c>
       <c r="F61" s="3">
-        <v>270700</v>
+        <v>277700</v>
       </c>
       <c r="G61" s="3">
-        <v>240500</v>
+        <v>260700</v>
       </c>
       <c r="H61" s="3">
-        <v>81000</v>
+        <v>231600</v>
       </c>
       <c r="I61" s="3">
-        <v>51500</v>
+        <v>78000</v>
       </c>
       <c r="J61" s="3">
+        <v>49600</v>
+      </c>
+      <c r="K61" s="3">
         <v>60400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>83300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>79500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>218800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>230500</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>70600</v>
+        <v>74400</v>
       </c>
       <c r="E62" s="3">
-        <v>73000</v>
+        <v>68000</v>
       </c>
       <c r="F62" s="3">
-        <v>71100</v>
+        <v>70300</v>
       </c>
       <c r="G62" s="3">
-        <v>52900</v>
+        <v>68500</v>
       </c>
       <c r="H62" s="3">
-        <v>39200</v>
+        <v>50900</v>
       </c>
       <c r="I62" s="3">
-        <v>36400</v>
+        <v>37800</v>
       </c>
       <c r="J62" s="3">
+        <v>35100</v>
+      </c>
+      <c r="K62" s="3">
         <v>34400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>51500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>43900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>37700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>51900</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2671,9 +2819,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2710,9 +2861,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2749,48 +2903,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>443600</v>
+        <v>487200</v>
       </c>
       <c r="E66" s="3">
-        <v>443500</v>
+        <v>427300</v>
       </c>
       <c r="F66" s="3">
-        <v>459900</v>
+        <v>427100</v>
       </c>
       <c r="G66" s="3">
-        <v>405500</v>
+        <v>443000</v>
       </c>
       <c r="H66" s="3">
-        <v>178500</v>
+        <v>390600</v>
       </c>
       <c r="I66" s="3">
-        <v>143500</v>
+        <v>171900</v>
       </c>
       <c r="J66" s="3">
+        <v>138200</v>
+      </c>
+      <c r="K66" s="3">
         <v>141600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>209600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>195400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>400500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>478000</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2806,8 +2966,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2844,9 +3005,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2883,9 +3047,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2922,9 +3089,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2961,48 +3131,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8900</v>
+        <v>51000</v>
       </c>
       <c r="E72" s="3">
-        <v>-26400</v>
+        <v>8600</v>
       </c>
       <c r="F72" s="3">
-        <v>-60000</v>
+        <v>-25400</v>
       </c>
       <c r="G72" s="3">
-        <v>-85500</v>
+        <v>-57800</v>
       </c>
       <c r="H72" s="3">
-        <v>-95500</v>
+        <v>-82400</v>
       </c>
       <c r="I72" s="3">
-        <v>-97800</v>
+        <v>-92000</v>
       </c>
       <c r="J72" s="3">
+        <v>-94200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-95700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-92200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-87300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-141000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-142800</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3039,9 +3215,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3078,9 +3257,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3117,48 +3299,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>209100</v>
+        <v>221200</v>
       </c>
       <c r="E76" s="3">
-        <v>186500</v>
+        <v>201400</v>
       </c>
       <c r="F76" s="3">
-        <v>135200</v>
+        <v>179700</v>
       </c>
       <c r="G76" s="3">
-        <v>112400</v>
+        <v>130300</v>
       </c>
       <c r="H76" s="3">
-        <v>109600</v>
+        <v>108300</v>
       </c>
       <c r="I76" s="3">
-        <v>119400</v>
+        <v>105500</v>
       </c>
       <c r="J76" s="3">
+        <v>115000</v>
+      </c>
+      <c r="K76" s="3">
         <v>128900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>148800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>147700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>96300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>98200</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3195,92 +3383,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41364</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40999</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>38600</v>
+        <v>48700</v>
       </c>
       <c r="E81" s="3">
-        <v>36900</v>
+        <v>37200</v>
       </c>
       <c r="F81" s="3">
-        <v>27700</v>
+        <v>35600</v>
       </c>
       <c r="G81" s="3">
-        <v>11500</v>
+        <v>26700</v>
       </c>
       <c r="H81" s="3">
-        <v>4000</v>
+        <v>11100</v>
       </c>
       <c r="I81" s="3">
+        <v>3800</v>
+      </c>
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>53300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-16300</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3296,47 +3493,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>81100</v>
+        <v>86300</v>
       </c>
       <c r="E83" s="3">
-        <v>67100</v>
+        <v>78100</v>
       </c>
       <c r="F83" s="3">
-        <v>76800</v>
+        <v>64600</v>
       </c>
       <c r="G83" s="3">
-        <v>44100</v>
+        <v>74000</v>
       </c>
       <c r="H83" s="3">
-        <v>34300</v>
+        <v>42500</v>
       </c>
       <c r="I83" s="3">
-        <v>31900</v>
+        <v>33000</v>
       </c>
       <c r="J83" s="3">
+        <v>30700</v>
+      </c>
+      <c r="K83" s="3">
         <v>31600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>36600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>30600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>31200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>37600</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3373,9 +3574,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3412,9 +3616,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3451,9 +3658,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3490,9 +3700,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3529,48 +3742,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>124000</v>
+        <v>122400</v>
       </c>
       <c r="E89" s="3">
-        <v>110000</v>
+        <v>119500</v>
       </c>
       <c r="F89" s="3">
-        <v>118600</v>
+        <v>106000</v>
       </c>
       <c r="G89" s="3">
-        <v>82100</v>
+        <v>114200</v>
       </c>
       <c r="H89" s="3">
-        <v>37400</v>
+        <v>79100</v>
       </c>
       <c r="I89" s="3">
-        <v>29900</v>
+        <v>36000</v>
       </c>
       <c r="J89" s="3">
+        <v>28800</v>
+      </c>
+      <c r="K89" s="3">
         <v>57900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>32400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>79500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>68600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>48600</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3586,47 +3805,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-84500</v>
+        <v>-80600</v>
       </c>
       <c r="E91" s="3">
-        <v>-87900</v>
+        <v>-81400</v>
       </c>
       <c r="F91" s="3">
-        <v>-117900</v>
+        <v>-84700</v>
       </c>
       <c r="G91" s="3">
-        <v>-60900</v>
+        <v>-113600</v>
       </c>
       <c r="H91" s="3">
-        <v>-40400</v>
+        <v>-58600</v>
       </c>
       <c r="I91" s="3">
-        <v>-20300</v>
+        <v>-38900</v>
       </c>
       <c r="J91" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-24400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-27600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-24100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-24600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-40700</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3663,9 +3886,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3702,48 +3928,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-74500</v>
+        <v>-70500</v>
       </c>
       <c r="E94" s="3">
-        <v>-84700</v>
+        <v>-71800</v>
       </c>
       <c r="F94" s="3">
-        <v>-120600</v>
+        <v>-81600</v>
       </c>
       <c r="G94" s="3">
-        <v>-171700</v>
+        <v>-116200</v>
       </c>
       <c r="H94" s="3">
-        <v>-25200</v>
+        <v>-165300</v>
       </c>
       <c r="I94" s="3">
-        <v>-7900</v>
+        <v>-24300</v>
       </c>
       <c r="J94" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="K94" s="3">
         <v>3600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-15300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>119900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-34900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-49300</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3759,47 +3991,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3300</v>
+        <v>-5600</v>
       </c>
       <c r="E96" s="3">
-        <v>-3300</v>
+        <v>-3200</v>
       </c>
       <c r="F96" s="3">
-        <v>-1900</v>
+        <v>-3200</v>
       </c>
       <c r="G96" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="H96" s="3">
         <v>-1500</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1600</v>
       </c>
-      <c r="I96" s="3">
-        <v>-1400</v>
-      </c>
       <c r="J96" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-2500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1700</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3836,9 +4072,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3875,9 +4114,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3914,59 +4156,65 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-69600</v>
+        <v>-14100</v>
       </c>
       <c r="E100" s="3">
-        <v>3400</v>
+        <v>-67100</v>
       </c>
       <c r="F100" s="3">
-        <v>-8400</v>
+        <v>3300</v>
       </c>
       <c r="G100" s="3">
-        <v>98000</v>
+        <v>-8100</v>
       </c>
       <c r="H100" s="3">
-        <v>-16200</v>
+        <v>94400</v>
       </c>
       <c r="I100" s="3">
-        <v>-36000</v>
+        <v>-15600</v>
       </c>
       <c r="J100" s="3">
+        <v>-34700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-37900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-27100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-189700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-34400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1200</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>8</v>
+      <c r="F101" s="3">
+        <v>0</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>8</v>
@@ -3977,8 +4225,8 @@
       <c r="I101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -3992,46 +4240,52 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-20200</v>
+        <v>38000</v>
       </c>
       <c r="E102" s="3">
-        <v>28700</v>
+        <v>-19400</v>
       </c>
       <c r="F102" s="3">
-        <v>-10500</v>
+        <v>27700</v>
       </c>
       <c r="G102" s="3">
-        <v>8500</v>
+        <v>-10100</v>
       </c>
       <c r="H102" s="3">
-        <v>-4100</v>
+        <v>8200</v>
       </c>
       <c r="I102" s="3">
-        <v>-14000</v>
+        <v>-4000</v>
       </c>
       <c r="J102" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="K102" s="3">
         <v>23600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-10000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>9700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>500</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/NOA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NOA_YR_FIN.xlsx
@@ -727,25 +727,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>556500</v>
+        <v>570000</v>
       </c>
       <c r="E8" s="3">
-        <v>473100</v>
+        <v>484500</v>
       </c>
       <c r="F8" s="3">
-        <v>360500</v>
+        <v>369200</v>
       </c>
       <c r="G8" s="3">
-        <v>520000</v>
+        <v>532600</v>
       </c>
       <c r="H8" s="3">
-        <v>296600</v>
+        <v>303700</v>
       </c>
       <c r="I8" s="3">
-        <v>211600</v>
+        <v>216700</v>
       </c>
       <c r="J8" s="3">
-        <v>154200</v>
+        <v>157900</v>
       </c>
       <c r="K8" s="3">
         <v>211200</v>
@@ -769,25 +769,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>483100</v>
+        <v>494800</v>
       </c>
       <c r="E9" s="3">
-        <v>416700</v>
+        <v>426800</v>
       </c>
       <c r="F9" s="3">
-        <v>312000</v>
+        <v>319600</v>
       </c>
       <c r="G9" s="3">
-        <v>450300</v>
+        <v>461200</v>
       </c>
       <c r="H9" s="3">
-        <v>246600</v>
+        <v>252600</v>
       </c>
       <c r="I9" s="3">
-        <v>182900</v>
+        <v>187300</v>
       </c>
       <c r="J9" s="3">
-        <v>130800</v>
+        <v>134000</v>
       </c>
       <c r="K9" s="3">
         <v>187300</v>
@@ -811,25 +811,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>73400</v>
+        <v>75200</v>
       </c>
       <c r="E10" s="3">
-        <v>56400</v>
+        <v>57700</v>
       </c>
       <c r="F10" s="3">
-        <v>48500</v>
+        <v>49700</v>
       </c>
       <c r="G10" s="3">
-        <v>69700</v>
+        <v>71400</v>
       </c>
       <c r="H10" s="3">
-        <v>50000</v>
+        <v>51200</v>
       </c>
       <c r="I10" s="3">
-        <v>28700</v>
+        <v>29400</v>
       </c>
       <c r="J10" s="3">
-        <v>23400</v>
+        <v>24000</v>
       </c>
       <c r="K10" s="3">
         <v>23900</v>
@@ -958,10 +958,10 @@
         <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>-9400</v>
+        <v>-9700</v>
       </c>
       <c r="F14" s="3">
-        <v>-20300</v>
+        <v>-20800</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>700</v>
       </c>
       <c r="J15" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="K15" s="3">
         <v>1500</v>
@@ -1054,25 +1054,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>505100</v>
+        <v>517300</v>
       </c>
       <c r="E17" s="3">
-        <v>433200</v>
+        <v>443700</v>
       </c>
       <c r="F17" s="3">
-        <v>312000</v>
+        <v>319500</v>
       </c>
       <c r="G17" s="3">
-        <v>477500</v>
+        <v>489100</v>
       </c>
       <c r="H17" s="3">
-        <v>274900</v>
+        <v>281500</v>
       </c>
       <c r="I17" s="3">
-        <v>201900</v>
+        <v>206800</v>
       </c>
       <c r="J17" s="3">
-        <v>151300</v>
+        <v>155000</v>
       </c>
       <c r="K17" s="3">
         <v>209500</v>
@@ -1096,25 +1096,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>51500</v>
+        <v>52700</v>
       </c>
       <c r="E18" s="3">
-        <v>39900</v>
+        <v>40800</v>
       </c>
       <c r="F18" s="3">
-        <v>48500</v>
+        <v>49700</v>
       </c>
       <c r="G18" s="3">
-        <v>42500</v>
+        <v>43600</v>
       </c>
       <c r="H18" s="3">
-        <v>21700</v>
+        <v>22200</v>
       </c>
       <c r="I18" s="3">
-        <v>9700</v>
+        <v>9900</v>
       </c>
       <c r="J18" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="K18" s="3">
         <v>1700</v>
@@ -1156,16 +1156,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>26500</v>
+        <v>27100</v>
       </c>
       <c r="E20" s="3">
-        <v>16700</v>
+        <v>17100</v>
       </c>
       <c r="F20" s="3">
-        <v>7900</v>
+        <v>8100</v>
       </c>
       <c r="G20" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="H20" s="3">
         <v>100</v>
@@ -1174,7 +1174,7 @@
         <v>100</v>
       </c>
       <c r="J20" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="K20" s="3">
         <v>100</v>
@@ -1198,25 +1198,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>164400</v>
+        <v>168500</v>
       </c>
       <c r="E21" s="3">
-        <v>134800</v>
+        <v>138200</v>
       </c>
       <c r="F21" s="3">
-        <v>121200</v>
+        <v>124200</v>
       </c>
       <c r="G21" s="3">
-        <v>118500</v>
+        <v>121600</v>
       </c>
       <c r="H21" s="3">
-        <v>64400</v>
+        <v>66000</v>
       </c>
       <c r="I21" s="3">
-        <v>42900</v>
+        <v>44000</v>
       </c>
       <c r="J21" s="3">
-        <v>34700</v>
+        <v>35600</v>
       </c>
       <c r="K21" s="3">
         <v>32900</v>
@@ -1240,25 +1240,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>16900</v>
+        <v>17300</v>
       </c>
       <c r="E22" s="3">
-        <v>12700</v>
+        <v>13000</v>
       </c>
       <c r="F22" s="3">
-        <v>12700</v>
+        <v>13000</v>
       </c>
       <c r="G22" s="3">
-        <v>15500</v>
+        <v>15900</v>
       </c>
       <c r="H22" s="3">
-        <v>6300</v>
+        <v>6500</v>
       </c>
       <c r="I22" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="J22" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="K22" s="3">
         <v>7500</v>
@@ -1282,22 +1282,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>61100</v>
+        <v>62600</v>
       </c>
       <c r="E23" s="3">
-        <v>43900</v>
+        <v>45000</v>
       </c>
       <c r="F23" s="3">
-        <v>43700</v>
+        <v>44800</v>
       </c>
       <c r="G23" s="3">
-        <v>28900</v>
+        <v>29600</v>
       </c>
       <c r="H23" s="3">
-        <v>15500</v>
+        <v>15900</v>
       </c>
       <c r="I23" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="J23" s="3">
         <v>-400</v>
@@ -1324,19 +1324,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>12300</v>
+        <v>12600</v>
       </c>
       <c r="E24" s="3">
-        <v>6700</v>
+        <v>6900</v>
       </c>
       <c r="F24" s="3">
-        <v>8100</v>
+        <v>8300</v>
       </c>
       <c r="G24" s="3">
         <v>2100</v>
       </c>
       <c r="H24" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="I24" s="3">
         <v>900</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>48700</v>
+        <v>49900</v>
       </c>
       <c r="E26" s="3">
-        <v>37200</v>
+        <v>38100</v>
       </c>
       <c r="F26" s="3">
-        <v>35600</v>
+        <v>36500</v>
       </c>
       <c r="G26" s="3">
-        <v>26900</v>
+        <v>27500</v>
       </c>
       <c r="H26" s="3">
-        <v>11100</v>
+        <v>11300</v>
       </c>
       <c r="I26" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="J26" s="3">
         <v>-300</v>
@@ -1450,22 +1450,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>48700</v>
+        <v>49900</v>
       </c>
       <c r="E27" s="3">
-        <v>37200</v>
+        <v>38100</v>
       </c>
       <c r="F27" s="3">
-        <v>35600</v>
+        <v>36500</v>
       </c>
       <c r="G27" s="3">
-        <v>26700</v>
+        <v>27300</v>
       </c>
       <c r="H27" s="3">
-        <v>11100</v>
+        <v>11300</v>
       </c>
       <c r="I27" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="J27" s="3">
         <v>-300</v>
@@ -1660,16 +1660,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-26500</v>
+        <v>-27100</v>
       </c>
       <c r="E32" s="3">
-        <v>-16700</v>
+        <v>-17100</v>
       </c>
       <c r="F32" s="3">
-        <v>-7900</v>
+        <v>-8100</v>
       </c>
       <c r="G32" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="H32" s="3">
         <v>-100</v>
@@ -1678,7 +1678,7 @@
         <v>-100</v>
       </c>
       <c r="J32" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="K32" s="3">
         <v>-100</v>
@@ -1702,22 +1702,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>48700</v>
+        <v>49900</v>
       </c>
       <c r="E33" s="3">
-        <v>37200</v>
+        <v>38100</v>
       </c>
       <c r="F33" s="3">
-        <v>35600</v>
+        <v>36500</v>
       </c>
       <c r="G33" s="3">
-        <v>26700</v>
+        <v>27300</v>
       </c>
       <c r="H33" s="3">
-        <v>11100</v>
+        <v>11300</v>
       </c>
       <c r="I33" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="J33" s="3">
         <v>-300</v>
@@ -1786,22 +1786,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>48700</v>
+        <v>49900</v>
       </c>
       <c r="E35" s="3">
-        <v>37200</v>
+        <v>38100</v>
       </c>
       <c r="F35" s="3">
-        <v>35600</v>
+        <v>36500</v>
       </c>
       <c r="G35" s="3">
-        <v>26700</v>
+        <v>27300</v>
       </c>
       <c r="H35" s="3">
-        <v>11100</v>
+        <v>11300</v>
       </c>
       <c r="I35" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="J35" s="3">
         <v>-300</v>
@@ -1911,25 +1911,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>50000</v>
+        <v>51200</v>
       </c>
       <c r="E41" s="3">
-        <v>12000</v>
+        <v>12300</v>
       </c>
       <c r="F41" s="3">
-        <v>31400</v>
+        <v>32200</v>
       </c>
       <c r="G41" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="H41" s="3">
-        <v>14100</v>
+        <v>14500</v>
       </c>
       <c r="I41" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="J41" s="3">
-        <v>9900</v>
+        <v>10100</v>
       </c>
       <c r="K41" s="3">
         <v>24300</v>
@@ -1995,25 +1995,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>72000</v>
+        <v>73800</v>
       </c>
       <c r="E43" s="3">
-        <v>56800</v>
+        <v>58200</v>
       </c>
       <c r="F43" s="3">
-        <v>57600</v>
+        <v>59000</v>
       </c>
       <c r="G43" s="3">
-        <v>62200</v>
+        <v>63700</v>
       </c>
       <c r="H43" s="3">
-        <v>67300</v>
+        <v>68900</v>
       </c>
       <c r="I43" s="3">
-        <v>49500</v>
+        <v>50700</v>
       </c>
       <c r="J43" s="3">
-        <v>40500</v>
+        <v>41500</v>
       </c>
       <c r="K43" s="3">
         <v>31800</v>
@@ -2037,22 +2037,22 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>36100</v>
+        <v>37000</v>
       </c>
       <c r="E44" s="3">
-        <v>32200</v>
+        <v>33000</v>
       </c>
       <c r="F44" s="3">
-        <v>13900</v>
+        <v>14200</v>
       </c>
       <c r="G44" s="3">
-        <v>15700</v>
+        <v>16000</v>
       </c>
       <c r="H44" s="3">
-        <v>9700</v>
+        <v>9900</v>
       </c>
       <c r="I44" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="J44" s="3">
         <v>2500</v>
@@ -2079,22 +2079,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>8500</v>
+        <v>8700</v>
       </c>
       <c r="E45" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="F45" s="3">
-        <v>9700</v>
+        <v>10000</v>
       </c>
       <c r="G45" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="H45" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="I45" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="J45" s="3">
         <v>1300</v>
@@ -2121,25 +2121,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>166600</v>
+        <v>170600</v>
       </c>
       <c r="E46" s="3">
-        <v>106400</v>
+        <v>109000</v>
       </c>
       <c r="F46" s="3">
-        <v>86300</v>
+        <v>88400</v>
       </c>
       <c r="G46" s="3">
-        <v>85200</v>
+        <v>87300</v>
       </c>
       <c r="H46" s="3">
-        <v>93800</v>
+        <v>96100</v>
       </c>
       <c r="I46" s="3">
-        <v>64300</v>
+        <v>65800</v>
       </c>
       <c r="J46" s="3">
-        <v>54200</v>
+        <v>55500</v>
       </c>
       <c r="K46" s="3">
         <v>59400</v>
@@ -2163,19 +2163,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>56500</v>
+        <v>57800</v>
       </c>
       <c r="E47" s="3">
-        <v>40500</v>
+        <v>41500</v>
       </c>
       <c r="F47" s="3">
-        <v>33500</v>
+        <v>34300</v>
       </c>
       <c r="G47" s="3">
-        <v>31000</v>
+        <v>31800</v>
       </c>
       <c r="H47" s="3">
-        <v>10600</v>
+        <v>10900</v>
       </c>
       <c r="I47" s="3">
         <v>300</v>
@@ -2205,25 +2205,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>477700</v>
+        <v>489300</v>
       </c>
       <c r="E48" s="3">
-        <v>469200</v>
+        <v>480500</v>
       </c>
       <c r="F48" s="3">
-        <v>465800</v>
+        <v>477100</v>
       </c>
       <c r="G48" s="3">
-        <v>437100</v>
+        <v>447700</v>
       </c>
       <c r="H48" s="3">
-        <v>757500</v>
+        <v>775800</v>
       </c>
       <c r="I48" s="3">
-        <v>194200</v>
+        <v>198900</v>
       </c>
       <c r="J48" s="3">
-        <v>178400</v>
+        <v>182700</v>
       </c>
       <c r="K48" s="3">
         <v>388600</v>
@@ -2247,10 +2247,10 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="E49" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="F49" s="3">
         <v>300</v>
@@ -2259,7 +2259,7 @@
         <v>8</v>
       </c>
       <c r="H49" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="I49" s="3">
         <v>1400</v>
@@ -2373,25 +2373,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="E52" s="3">
-        <v>9400</v>
+        <v>9600</v>
       </c>
       <c r="F52" s="3">
-        <v>21000</v>
+        <v>21500</v>
       </c>
       <c r="G52" s="3">
-        <v>19900</v>
+        <v>20400</v>
       </c>
       <c r="H52" s="3">
-        <v>24200</v>
+        <v>24800</v>
       </c>
       <c r="I52" s="3">
-        <v>18000</v>
+        <v>18500</v>
       </c>
       <c r="J52" s="3">
-        <v>19300</v>
+        <v>19700</v>
       </c>
       <c r="K52" s="3">
         <v>19700</v>
@@ -2457,25 +2457,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>708400</v>
+        <v>725600</v>
       </c>
       <c r="E54" s="3">
-        <v>628700</v>
+        <v>643900</v>
       </c>
       <c r="F54" s="3">
-        <v>606800</v>
+        <v>621500</v>
       </c>
       <c r="G54" s="3">
-        <v>573300</v>
+        <v>587100</v>
       </c>
       <c r="H54" s="3">
-        <v>498900</v>
+        <v>511000</v>
       </c>
       <c r="I54" s="3">
-        <v>277500</v>
+        <v>284200</v>
       </c>
       <c r="J54" s="3">
-        <v>253200</v>
+        <v>259300</v>
       </c>
       <c r="K54" s="3">
         <v>270400</v>
@@ -2535,25 +2535,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>74200</v>
+        <v>76000</v>
       </c>
       <c r="E57" s="3">
-        <v>55100</v>
+        <v>56500</v>
       </c>
       <c r="F57" s="3">
-        <v>30000</v>
+        <v>30700</v>
       </c>
       <c r="G57" s="3">
-        <v>63800</v>
+        <v>65300</v>
       </c>
       <c r="H57" s="3">
-        <v>45900</v>
+        <v>47000</v>
       </c>
       <c r="I57" s="3">
-        <v>25500</v>
+        <v>26100</v>
       </c>
       <c r="J57" s="3">
-        <v>21400</v>
+        <v>21900</v>
       </c>
       <c r="K57" s="3">
         <v>18800</v>
@@ -2577,25 +2577,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>30400</v>
+        <v>31200</v>
       </c>
       <c r="E58" s="3">
-        <v>32300</v>
+        <v>33100</v>
       </c>
       <c r="F58" s="3">
-        <v>31200</v>
+        <v>32000</v>
       </c>
       <c r="G58" s="3">
-        <v>34500</v>
+        <v>35300</v>
       </c>
       <c r="H58" s="3">
-        <v>45000</v>
+        <v>46100</v>
       </c>
       <c r="I58" s="3">
-        <v>21100</v>
+        <v>21600</v>
       </c>
       <c r="J58" s="3">
-        <v>23300</v>
+        <v>23900</v>
       </c>
       <c r="K58" s="3">
         <v>22500</v>
@@ -2619,25 +2619,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>34500</v>
+        <v>35300</v>
       </c>
       <c r="E59" s="3">
-        <v>29000</v>
+        <v>29700</v>
       </c>
       <c r="F59" s="3">
-        <v>20300</v>
+        <v>20800</v>
       </c>
       <c r="G59" s="3">
-        <v>28200</v>
+        <v>28800</v>
       </c>
       <c r="H59" s="3">
-        <v>30600</v>
+        <v>31400</v>
       </c>
       <c r="I59" s="3">
-        <v>10600</v>
+        <v>10900</v>
       </c>
       <c r="J59" s="3">
-        <v>8900</v>
+        <v>9100</v>
       </c>
       <c r="K59" s="3">
         <v>10500</v>
@@ -2661,25 +2661,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>139100</v>
+        <v>142400</v>
       </c>
       <c r="E60" s="3">
+        <v>119300</v>
+      </c>
+      <c r="F60" s="3">
+        <v>81100</v>
+      </c>
+      <c r="G60" s="3">
         <v>116500</v>
       </c>
-      <c r="F60" s="3">
-        <v>79200</v>
-      </c>
-      <c r="G60" s="3">
-        <v>113800</v>
-      </c>
       <c r="H60" s="3">
-        <v>107700</v>
+        <v>110300</v>
       </c>
       <c r="I60" s="3">
-        <v>56100</v>
+        <v>57500</v>
       </c>
       <c r="J60" s="3">
-        <v>53500</v>
+        <v>54800</v>
       </c>
       <c r="K60" s="3">
         <v>46700</v>
@@ -2703,25 +2703,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>273700</v>
+        <v>280300</v>
       </c>
       <c r="E61" s="3">
-        <v>242800</v>
+        <v>248700</v>
       </c>
       <c r="F61" s="3">
-        <v>277700</v>
+        <v>284400</v>
       </c>
       <c r="G61" s="3">
-        <v>260700</v>
+        <v>267000</v>
       </c>
       <c r="H61" s="3">
-        <v>231600</v>
+        <v>237200</v>
       </c>
       <c r="I61" s="3">
-        <v>78000</v>
+        <v>79900</v>
       </c>
       <c r="J61" s="3">
-        <v>49600</v>
+        <v>50800</v>
       </c>
       <c r="K61" s="3">
         <v>60400</v>
@@ -2745,25 +2745,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>74400</v>
+        <v>76200</v>
       </c>
       <c r="E62" s="3">
-        <v>68000</v>
+        <v>69700</v>
       </c>
       <c r="F62" s="3">
-        <v>70300</v>
+        <v>72000</v>
       </c>
       <c r="G62" s="3">
-        <v>68500</v>
+        <v>70200</v>
       </c>
       <c r="H62" s="3">
-        <v>50900</v>
+        <v>52200</v>
       </c>
       <c r="I62" s="3">
-        <v>37800</v>
+        <v>38700</v>
       </c>
       <c r="J62" s="3">
-        <v>35100</v>
+        <v>35900</v>
       </c>
       <c r="K62" s="3">
         <v>34400</v>
@@ -2913,25 +2913,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>487200</v>
+        <v>499000</v>
       </c>
       <c r="E66" s="3">
-        <v>427300</v>
+        <v>437600</v>
       </c>
       <c r="F66" s="3">
-        <v>427100</v>
+        <v>437500</v>
       </c>
       <c r="G66" s="3">
-        <v>443000</v>
+        <v>453700</v>
       </c>
       <c r="H66" s="3">
-        <v>390600</v>
+        <v>400100</v>
       </c>
       <c r="I66" s="3">
-        <v>171900</v>
+        <v>176100</v>
       </c>
       <c r="J66" s="3">
-        <v>138200</v>
+        <v>141600</v>
       </c>
       <c r="K66" s="3">
         <v>141600</v>
@@ -3141,25 +3141,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>51000</v>
+        <v>52200</v>
       </c>
       <c r="E72" s="3">
-        <v>8600</v>
+        <v>8800</v>
       </c>
       <c r="F72" s="3">
-        <v>-25400</v>
+        <v>-26000</v>
       </c>
       <c r="G72" s="3">
-        <v>-57800</v>
+        <v>-59200</v>
       </c>
       <c r="H72" s="3">
-        <v>-82400</v>
+        <v>-84400</v>
       </c>
       <c r="I72" s="3">
-        <v>-92000</v>
+        <v>-94200</v>
       </c>
       <c r="J72" s="3">
-        <v>-94200</v>
+        <v>-96500</v>
       </c>
       <c r="K72" s="3">
         <v>-95700</v>
@@ -3309,25 +3309,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>221200</v>
+        <v>226600</v>
       </c>
       <c r="E76" s="3">
-        <v>201400</v>
+        <v>206300</v>
       </c>
       <c r="F76" s="3">
-        <v>179700</v>
+        <v>184000</v>
       </c>
       <c r="G76" s="3">
-        <v>130300</v>
+        <v>133400</v>
       </c>
       <c r="H76" s="3">
-        <v>108300</v>
+        <v>110900</v>
       </c>
       <c r="I76" s="3">
-        <v>105500</v>
+        <v>108100</v>
       </c>
       <c r="J76" s="3">
-        <v>115000</v>
+        <v>117700</v>
       </c>
       <c r="K76" s="3">
         <v>128900</v>
@@ -3440,22 +3440,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>48700</v>
+        <v>49900</v>
       </c>
       <c r="E81" s="3">
-        <v>37200</v>
+        <v>38100</v>
       </c>
       <c r="F81" s="3">
-        <v>35600</v>
+        <v>36500</v>
       </c>
       <c r="G81" s="3">
-        <v>26700</v>
+        <v>27300</v>
       </c>
       <c r="H81" s="3">
-        <v>11100</v>
+        <v>11300</v>
       </c>
       <c r="I81" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="J81" s="3">
         <v>-300</v>
@@ -3500,25 +3500,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>86300</v>
+        <v>88300</v>
       </c>
       <c r="E83" s="3">
-        <v>78100</v>
+        <v>80000</v>
       </c>
       <c r="F83" s="3">
-        <v>64600</v>
+        <v>66200</v>
       </c>
       <c r="G83" s="3">
-        <v>74000</v>
+        <v>75800</v>
       </c>
       <c r="H83" s="3">
-        <v>42500</v>
+        <v>43500</v>
       </c>
       <c r="I83" s="3">
-        <v>33000</v>
+        <v>33800</v>
       </c>
       <c r="J83" s="3">
-        <v>30700</v>
+        <v>31500</v>
       </c>
       <c r="K83" s="3">
         <v>31600</v>
@@ -3752,25 +3752,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>125300</v>
+      </c>
+      <c r="E89" s="3">
         <v>122400</v>
       </c>
-      <c r="E89" s="3">
-        <v>119500</v>
-      </c>
       <c r="F89" s="3">
-        <v>106000</v>
+        <v>108600</v>
       </c>
       <c r="G89" s="3">
-        <v>114200</v>
+        <v>117000</v>
       </c>
       <c r="H89" s="3">
-        <v>79100</v>
+        <v>81000</v>
       </c>
       <c r="I89" s="3">
-        <v>36000</v>
+        <v>36800</v>
       </c>
       <c r="J89" s="3">
-        <v>28800</v>
+        <v>29500</v>
       </c>
       <c r="K89" s="3">
         <v>57900</v>
@@ -3812,25 +3812,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-80600</v>
+        <v>-82600</v>
       </c>
       <c r="E91" s="3">
-        <v>-81400</v>
+        <v>-83400</v>
       </c>
       <c r="F91" s="3">
-        <v>-84700</v>
+        <v>-86700</v>
       </c>
       <c r="G91" s="3">
-        <v>-113600</v>
+        <v>-116300</v>
       </c>
       <c r="H91" s="3">
-        <v>-58600</v>
+        <v>-60100</v>
       </c>
       <c r="I91" s="3">
-        <v>-38900</v>
+        <v>-39900</v>
       </c>
       <c r="J91" s="3">
-        <v>-19600</v>
+        <v>-20100</v>
       </c>
       <c r="K91" s="3">
         <v>-24400</v>
@@ -3938,25 +3938,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-70500</v>
+        <v>-72200</v>
       </c>
       <c r="E94" s="3">
-        <v>-71800</v>
+        <v>-73500</v>
       </c>
       <c r="F94" s="3">
-        <v>-81600</v>
+        <v>-83600</v>
       </c>
       <c r="G94" s="3">
-        <v>-116200</v>
+        <v>-119000</v>
       </c>
       <c r="H94" s="3">
-        <v>-165300</v>
+        <v>-169300</v>
       </c>
       <c r="I94" s="3">
-        <v>-24300</v>
+        <v>-24900</v>
       </c>
       <c r="J94" s="3">
-        <v>-7600</v>
+        <v>-7800</v>
       </c>
       <c r="K94" s="3">
         <v>3600</v>
@@ -3998,16 +3998,16 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-5600</v>
+        <v>-5800</v>
       </c>
       <c r="E96" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="F96" s="3">
         <v>-3200</v>
       </c>
       <c r="G96" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="H96" s="3">
         <v>-1500</v>
@@ -4166,25 +4166,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-14100</v>
+        <v>-14400</v>
       </c>
       <c r="E100" s="3">
-        <v>-67100</v>
+        <v>-68700</v>
       </c>
       <c r="F100" s="3">
         <v>3300</v>
       </c>
       <c r="G100" s="3">
-        <v>-8100</v>
+        <v>-8300</v>
       </c>
       <c r="H100" s="3">
-        <v>94400</v>
+        <v>96700</v>
       </c>
       <c r="I100" s="3">
-        <v>-15600</v>
+        <v>-16000</v>
       </c>
       <c r="J100" s="3">
-        <v>-34700</v>
+        <v>-35600</v>
       </c>
       <c r="K100" s="3">
         <v>-37900</v>
@@ -4250,25 +4250,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>38000</v>
+        <v>38900</v>
       </c>
       <c r="E102" s="3">
-        <v>-19400</v>
+        <v>-19900</v>
       </c>
       <c r="F102" s="3">
-        <v>27700</v>
+        <v>28300</v>
       </c>
       <c r="G102" s="3">
-        <v>-10100</v>
+        <v>-10300</v>
       </c>
       <c r="H102" s="3">
-        <v>8200</v>
+        <v>8400</v>
       </c>
       <c r="I102" s="3">
-        <v>-4000</v>
+        <v>-4100</v>
       </c>
       <c r="J102" s="3">
-        <v>-13500</v>
+        <v>-13800</v>
       </c>
       <c r="K102" s="3">
         <v>23600</v>

--- a/AAII_Financials/Yearly/NOA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NOA_YR_FIN.xlsx
@@ -727,25 +727,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>570000</v>
+        <v>569700</v>
       </c>
       <c r="E8" s="3">
-        <v>484500</v>
+        <v>484300</v>
       </c>
       <c r="F8" s="3">
-        <v>369200</v>
+        <v>369000</v>
       </c>
       <c r="G8" s="3">
-        <v>532600</v>
+        <v>532400</v>
       </c>
       <c r="H8" s="3">
-        <v>303700</v>
+        <v>303600</v>
       </c>
       <c r="I8" s="3">
-        <v>216700</v>
+        <v>216600</v>
       </c>
       <c r="J8" s="3">
-        <v>157900</v>
+        <v>157800</v>
       </c>
       <c r="K8" s="3">
         <v>211200</v>
@@ -769,25 +769,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>494800</v>
+        <v>494600</v>
       </c>
       <c r="E9" s="3">
-        <v>426800</v>
+        <v>426600</v>
       </c>
       <c r="F9" s="3">
-        <v>319600</v>
+        <v>319400</v>
       </c>
       <c r="G9" s="3">
-        <v>461200</v>
+        <v>461000</v>
       </c>
       <c r="H9" s="3">
-        <v>252600</v>
+        <v>252500</v>
       </c>
       <c r="I9" s="3">
-        <v>187300</v>
+        <v>187200</v>
       </c>
       <c r="J9" s="3">
-        <v>134000</v>
+        <v>133900</v>
       </c>
       <c r="K9" s="3">
         <v>187300</v>
@@ -817,19 +817,19 @@
         <v>57700</v>
       </c>
       <c r="F10" s="3">
-        <v>49700</v>
+        <v>49600</v>
       </c>
       <c r="G10" s="3">
         <v>71400</v>
       </c>
       <c r="H10" s="3">
-        <v>51200</v>
+        <v>51100</v>
       </c>
       <c r="I10" s="3">
         <v>29400</v>
       </c>
       <c r="J10" s="3">
-        <v>24000</v>
+        <v>23900</v>
       </c>
       <c r="K10" s="3">
         <v>23900</v>
@@ -1015,7 +1015,7 @@
         <v>700</v>
       </c>
       <c r="J15" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="K15" s="3">
         <v>1500</v>
@@ -1054,25 +1054,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>517300</v>
+        <v>517100</v>
       </c>
       <c r="E17" s="3">
-        <v>443700</v>
+        <v>443500</v>
       </c>
       <c r="F17" s="3">
-        <v>319500</v>
+        <v>319400</v>
       </c>
       <c r="G17" s="3">
-        <v>489100</v>
+        <v>488800</v>
       </c>
       <c r="H17" s="3">
-        <v>281500</v>
+        <v>281400</v>
       </c>
       <c r="I17" s="3">
-        <v>206800</v>
+        <v>206700</v>
       </c>
       <c r="J17" s="3">
-        <v>155000</v>
+        <v>154900</v>
       </c>
       <c r="K17" s="3">
         <v>209500</v>
@@ -1105,7 +1105,7 @@
         <v>49700</v>
       </c>
       <c r="G18" s="3">
-        <v>43600</v>
+        <v>43500</v>
       </c>
       <c r="H18" s="3">
         <v>22200</v>
@@ -1198,25 +1198,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>168500</v>
+        <v>168100</v>
       </c>
       <c r="E21" s="3">
-        <v>138200</v>
+        <v>137900</v>
       </c>
       <c r="F21" s="3">
-        <v>124200</v>
+        <v>123900</v>
       </c>
       <c r="G21" s="3">
-        <v>121600</v>
+        <v>121200</v>
       </c>
       <c r="H21" s="3">
-        <v>66000</v>
+        <v>65800</v>
       </c>
       <c r="I21" s="3">
-        <v>44000</v>
+        <v>43800</v>
       </c>
       <c r="J21" s="3">
-        <v>35600</v>
+        <v>35500</v>
       </c>
       <c r="K21" s="3">
         <v>32900</v>
@@ -1282,10 +1282,10 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>62600</v>
+        <v>62500</v>
       </c>
       <c r="E23" s="3">
-        <v>45000</v>
+        <v>44900</v>
       </c>
       <c r="F23" s="3">
         <v>44800</v>
@@ -1414,7 +1414,7 @@
         <v>38100</v>
       </c>
       <c r="F26" s="3">
-        <v>36500</v>
+        <v>36400</v>
       </c>
       <c r="G26" s="3">
         <v>27500</v>
@@ -1456,7 +1456,7 @@
         <v>38100</v>
       </c>
       <c r="F27" s="3">
-        <v>36500</v>
+        <v>36400</v>
       </c>
       <c r="G27" s="3">
         <v>27300</v>
@@ -1708,7 +1708,7 @@
         <v>38100</v>
       </c>
       <c r="F33" s="3">
-        <v>36500</v>
+        <v>36400</v>
       </c>
       <c r="G33" s="3">
         <v>27300</v>
@@ -1792,7 +1792,7 @@
         <v>38100</v>
       </c>
       <c r="F35" s="3">
-        <v>36500</v>
+        <v>36400</v>
       </c>
       <c r="G35" s="3">
         <v>27300</v>
@@ -1923,7 +1923,7 @@
         <v>4100</v>
       </c>
       <c r="H41" s="3">
-        <v>14500</v>
+        <v>14400</v>
       </c>
       <c r="I41" s="3">
         <v>6100</v>
@@ -1995,22 +1995,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>73800</v>
+        <v>73700</v>
       </c>
       <c r="E43" s="3">
         <v>58200</v>
       </c>
       <c r="F43" s="3">
-        <v>59000</v>
+        <v>58900</v>
       </c>
       <c r="G43" s="3">
-        <v>63700</v>
+        <v>63600</v>
       </c>
       <c r="H43" s="3">
         <v>68900</v>
       </c>
       <c r="I43" s="3">
-        <v>50700</v>
+        <v>50600</v>
       </c>
       <c r="J43" s="3">
         <v>41500</v>
@@ -2037,7 +2037,7 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>37000</v>
+        <v>36900</v>
       </c>
       <c r="E44" s="3">
         <v>33000</v>
@@ -2121,19 +2121,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>170600</v>
+        <v>170500</v>
       </c>
       <c r="E46" s="3">
         <v>109000</v>
       </c>
       <c r="F46" s="3">
-        <v>88400</v>
+        <v>88300</v>
       </c>
       <c r="G46" s="3">
-        <v>87300</v>
+        <v>87200</v>
       </c>
       <c r="H46" s="3">
-        <v>96100</v>
+        <v>96000</v>
       </c>
       <c r="I46" s="3">
         <v>65800</v>
@@ -2166,7 +2166,7 @@
         <v>57800</v>
       </c>
       <c r="E47" s="3">
-        <v>41500</v>
+        <v>41400</v>
       </c>
       <c r="F47" s="3">
         <v>34300</v>
@@ -2205,25 +2205,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>489300</v>
+        <v>489000</v>
       </c>
       <c r="E48" s="3">
-        <v>480500</v>
+        <v>480300</v>
       </c>
       <c r="F48" s="3">
-        <v>477100</v>
+        <v>476800</v>
       </c>
       <c r="G48" s="3">
-        <v>447700</v>
+        <v>447500</v>
       </c>
       <c r="H48" s="3">
-        <v>775800</v>
+        <v>775400</v>
       </c>
       <c r="I48" s="3">
-        <v>198900</v>
+        <v>198800</v>
       </c>
       <c r="J48" s="3">
-        <v>182700</v>
+        <v>182600</v>
       </c>
       <c r="K48" s="3">
         <v>388600</v>
@@ -2457,25 +2457,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>725600</v>
+        <v>725200</v>
       </c>
       <c r="E54" s="3">
-        <v>643900</v>
+        <v>643600</v>
       </c>
       <c r="F54" s="3">
-        <v>621500</v>
+        <v>621200</v>
       </c>
       <c r="G54" s="3">
-        <v>587100</v>
+        <v>586800</v>
       </c>
       <c r="H54" s="3">
-        <v>511000</v>
+        <v>510700</v>
       </c>
       <c r="I54" s="3">
-        <v>284200</v>
+        <v>284000</v>
       </c>
       <c r="J54" s="3">
-        <v>259300</v>
+        <v>259200</v>
       </c>
       <c r="K54" s="3">
         <v>270400</v>
@@ -2535,7 +2535,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>76000</v>
+        <v>75900</v>
       </c>
       <c r="E57" s="3">
         <v>56500</v>
@@ -2664,7 +2664,7 @@
         <v>142400</v>
       </c>
       <c r="E60" s="3">
-        <v>119300</v>
+        <v>119200</v>
       </c>
       <c r="F60" s="3">
         <v>81100</v>
@@ -2673,10 +2673,10 @@
         <v>116500</v>
       </c>
       <c r="H60" s="3">
-        <v>110300</v>
+        <v>110200</v>
       </c>
       <c r="I60" s="3">
-        <v>57500</v>
+        <v>57400</v>
       </c>
       <c r="J60" s="3">
         <v>54800</v>
@@ -2703,19 +2703,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>280300</v>
+        <v>280200</v>
       </c>
       <c r="E61" s="3">
-        <v>248700</v>
+        <v>248600</v>
       </c>
       <c r="F61" s="3">
-        <v>284400</v>
+        <v>284300</v>
       </c>
       <c r="G61" s="3">
-        <v>267000</v>
+        <v>266900</v>
       </c>
       <c r="H61" s="3">
-        <v>237200</v>
+        <v>237100</v>
       </c>
       <c r="I61" s="3">
         <v>79900</v>
@@ -2745,19 +2745,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>76200</v>
+        <v>76100</v>
       </c>
       <c r="E62" s="3">
-        <v>69700</v>
+        <v>69600</v>
       </c>
       <c r="F62" s="3">
-        <v>72000</v>
+        <v>71900</v>
       </c>
       <c r="G62" s="3">
-        <v>70200</v>
+        <v>70100</v>
       </c>
       <c r="H62" s="3">
-        <v>52200</v>
+        <v>52100</v>
       </c>
       <c r="I62" s="3">
         <v>38700</v>
@@ -2913,25 +2913,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>499000</v>
+        <v>498700</v>
       </c>
       <c r="E66" s="3">
-        <v>437600</v>
+        <v>437400</v>
       </c>
       <c r="F66" s="3">
-        <v>437500</v>
+        <v>437300</v>
       </c>
       <c r="G66" s="3">
-        <v>453700</v>
+        <v>453500</v>
       </c>
       <c r="H66" s="3">
-        <v>400100</v>
+        <v>399900</v>
       </c>
       <c r="I66" s="3">
-        <v>176100</v>
+        <v>176000</v>
       </c>
       <c r="J66" s="3">
-        <v>141600</v>
+        <v>141500</v>
       </c>
       <c r="K66" s="3">
         <v>141600</v>
@@ -3150,13 +3150,13 @@
         <v>-26000</v>
       </c>
       <c r="G72" s="3">
-        <v>-59200</v>
+        <v>-59100</v>
       </c>
       <c r="H72" s="3">
-        <v>-84400</v>
+        <v>-84300</v>
       </c>
       <c r="I72" s="3">
-        <v>-94200</v>
+        <v>-94100</v>
       </c>
       <c r="J72" s="3">
         <v>-96500</v>
@@ -3309,22 +3309,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>226600</v>
+        <v>226500</v>
       </c>
       <c r="E76" s="3">
-        <v>206300</v>
+        <v>206200</v>
       </c>
       <c r="F76" s="3">
-        <v>184000</v>
+        <v>183900</v>
       </c>
       <c r="G76" s="3">
         <v>133400</v>
       </c>
       <c r="H76" s="3">
-        <v>110900</v>
+        <v>110800</v>
       </c>
       <c r="I76" s="3">
-        <v>108100</v>
+        <v>108000</v>
       </c>
       <c r="J76" s="3">
         <v>117700</v>
@@ -3446,7 +3446,7 @@
         <v>38100</v>
       </c>
       <c r="F81" s="3">
-        <v>36500</v>
+        <v>36400</v>
       </c>
       <c r="G81" s="3">
         <v>27300</v>
@@ -3509,7 +3509,7 @@
         <v>66200</v>
       </c>
       <c r="G83" s="3">
-        <v>75800</v>
+        <v>75700</v>
       </c>
       <c r="H83" s="3">
         <v>43500</v>
@@ -3755,13 +3755,13 @@
         <v>125300</v>
       </c>
       <c r="E89" s="3">
-        <v>122400</v>
+        <v>122300</v>
       </c>
       <c r="F89" s="3">
-        <v>108600</v>
+        <v>108500</v>
       </c>
       <c r="G89" s="3">
-        <v>117000</v>
+        <v>116900</v>
       </c>
       <c r="H89" s="3">
         <v>81000</v>
@@ -3812,10 +3812,10 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-82600</v>
+        <v>-82500</v>
       </c>
       <c r="E91" s="3">
-        <v>-83400</v>
+        <v>-83300</v>
       </c>
       <c r="F91" s="3">
         <v>-86700</v>
@@ -3824,13 +3824,13 @@
         <v>-116300</v>
       </c>
       <c r="H91" s="3">
-        <v>-60100</v>
+        <v>-60000</v>
       </c>
       <c r="I91" s="3">
-        <v>-39900</v>
+        <v>-39800</v>
       </c>
       <c r="J91" s="3">
-        <v>-20100</v>
+        <v>-20000</v>
       </c>
       <c r="K91" s="3">
         <v>-24400</v>
@@ -3944,7 +3944,7 @@
         <v>-73500</v>
       </c>
       <c r="F94" s="3">
-        <v>-83600</v>
+        <v>-83500</v>
       </c>
       <c r="G94" s="3">
         <v>-119000</v>
@@ -4184,7 +4184,7 @@
         <v>-16000</v>
       </c>
       <c r="J100" s="3">
-        <v>-35600</v>
+        <v>-35500</v>
       </c>
       <c r="K100" s="3">
         <v>-37900</v>

--- a/AAII_Financials/Yearly/NOA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NOA_YR_FIN.xlsx
@@ -727,25 +727,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>569700</v>
+        <v>559500</v>
       </c>
       <c r="E8" s="3">
-        <v>484300</v>
+        <v>475600</v>
       </c>
       <c r="F8" s="3">
-        <v>369000</v>
+        <v>362400</v>
       </c>
       <c r="G8" s="3">
-        <v>532400</v>
+        <v>522800</v>
       </c>
       <c r="H8" s="3">
-        <v>303600</v>
+        <v>298100</v>
       </c>
       <c r="I8" s="3">
-        <v>216600</v>
+        <v>212700</v>
       </c>
       <c r="J8" s="3">
-        <v>157800</v>
+        <v>155000</v>
       </c>
       <c r="K8" s="3">
         <v>211200</v>
@@ -769,25 +769,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>494600</v>
+        <v>485600</v>
       </c>
       <c r="E9" s="3">
-        <v>426600</v>
+        <v>418900</v>
       </c>
       <c r="F9" s="3">
-        <v>319400</v>
+        <v>313600</v>
       </c>
       <c r="G9" s="3">
-        <v>461000</v>
+        <v>452700</v>
       </c>
       <c r="H9" s="3">
-        <v>252500</v>
+        <v>247900</v>
       </c>
       <c r="I9" s="3">
-        <v>187200</v>
+        <v>183900</v>
       </c>
       <c r="J9" s="3">
-        <v>133900</v>
+        <v>131500</v>
       </c>
       <c r="K9" s="3">
         <v>187300</v>
@@ -811,25 +811,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>75200</v>
+        <v>73800</v>
       </c>
       <c r="E10" s="3">
-        <v>57700</v>
+        <v>56700</v>
       </c>
       <c r="F10" s="3">
-        <v>49600</v>
+        <v>48800</v>
       </c>
       <c r="G10" s="3">
-        <v>71400</v>
+        <v>70100</v>
       </c>
       <c r="H10" s="3">
-        <v>51100</v>
+        <v>50200</v>
       </c>
       <c r="I10" s="3">
-        <v>29400</v>
+        <v>28800</v>
       </c>
       <c r="J10" s="3">
-        <v>23900</v>
+        <v>23500</v>
       </c>
       <c r="K10" s="3">
         <v>23900</v>
@@ -958,10 +958,10 @@
         <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>-9700</v>
+        <v>-9500</v>
       </c>
       <c r="F14" s="3">
-        <v>-20800</v>
+        <v>-20400</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1054,25 +1054,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>517100</v>
+        <v>507700</v>
       </c>
       <c r="E17" s="3">
-        <v>443500</v>
+        <v>435500</v>
       </c>
       <c r="F17" s="3">
-        <v>319400</v>
+        <v>313600</v>
       </c>
       <c r="G17" s="3">
-        <v>488800</v>
+        <v>480000</v>
       </c>
       <c r="H17" s="3">
-        <v>281400</v>
+        <v>276300</v>
       </c>
       <c r="I17" s="3">
-        <v>206700</v>
+        <v>202900</v>
       </c>
       <c r="J17" s="3">
-        <v>154900</v>
+        <v>152100</v>
       </c>
       <c r="K17" s="3">
         <v>209500</v>
@@ -1096,22 +1096,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>52700</v>
+        <v>51700</v>
       </c>
       <c r="E18" s="3">
-        <v>40800</v>
+        <v>40100</v>
       </c>
       <c r="F18" s="3">
-        <v>49700</v>
+        <v>48800</v>
       </c>
       <c r="G18" s="3">
-        <v>43500</v>
+        <v>42700</v>
       </c>
       <c r="H18" s="3">
-        <v>22200</v>
+        <v>21800</v>
       </c>
       <c r="I18" s="3">
-        <v>9900</v>
+        <v>9700</v>
       </c>
       <c r="J18" s="3">
         <v>2900</v>
@@ -1156,16 +1156,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>27100</v>
+        <v>26600</v>
       </c>
       <c r="E20" s="3">
-        <v>17100</v>
+        <v>16800</v>
       </c>
       <c r="F20" s="3">
-        <v>8100</v>
+        <v>7900</v>
       </c>
       <c r="G20" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="H20" s="3">
         <v>100</v>
@@ -1174,7 +1174,7 @@
         <v>100</v>
       </c>
       <c r="J20" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="K20" s="3">
         <v>100</v>
@@ -1198,25 +1198,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>168100</v>
+        <v>165600</v>
       </c>
       <c r="E21" s="3">
-        <v>137900</v>
+        <v>135800</v>
       </c>
       <c r="F21" s="3">
-        <v>123900</v>
+        <v>122100</v>
       </c>
       <c r="G21" s="3">
-        <v>121200</v>
+        <v>119500</v>
       </c>
       <c r="H21" s="3">
-        <v>65800</v>
+        <v>64900</v>
       </c>
       <c r="I21" s="3">
-        <v>43800</v>
+        <v>43200</v>
       </c>
       <c r="J21" s="3">
-        <v>35500</v>
+        <v>35000</v>
       </c>
       <c r="K21" s="3">
         <v>32900</v>
@@ -1240,25 +1240,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>17300</v>
+        <v>17000</v>
       </c>
       <c r="E22" s="3">
-        <v>13000</v>
+        <v>12700</v>
       </c>
       <c r="F22" s="3">
-        <v>13000</v>
+        <v>12800</v>
       </c>
       <c r="G22" s="3">
-        <v>15900</v>
+        <v>15600</v>
       </c>
       <c r="H22" s="3">
-        <v>6500</v>
+        <v>6400</v>
       </c>
       <c r="I22" s="3">
         <v>5200</v>
       </c>
       <c r="J22" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="K22" s="3">
         <v>7500</v>
@@ -1282,22 +1282,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>62500</v>
+        <v>61400</v>
       </c>
       <c r="E23" s="3">
-        <v>44900</v>
+        <v>44100</v>
       </c>
       <c r="F23" s="3">
-        <v>44800</v>
+        <v>44000</v>
       </c>
       <c r="G23" s="3">
-        <v>29600</v>
+        <v>29100</v>
       </c>
       <c r="H23" s="3">
-        <v>15900</v>
+        <v>15600</v>
       </c>
       <c r="I23" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="J23" s="3">
         <v>-400</v>
@@ -1324,19 +1324,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>12600</v>
+        <v>12400</v>
       </c>
       <c r="E24" s="3">
-        <v>6900</v>
+        <v>6800</v>
       </c>
       <c r="F24" s="3">
-        <v>8300</v>
+        <v>8200</v>
       </c>
       <c r="G24" s="3">
         <v>2100</v>
       </c>
       <c r="H24" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="I24" s="3">
         <v>900</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>49900</v>
+        <v>49000</v>
       </c>
       <c r="E26" s="3">
-        <v>38100</v>
+        <v>37400</v>
       </c>
       <c r="F26" s="3">
-        <v>36400</v>
+        <v>35800</v>
       </c>
       <c r="G26" s="3">
-        <v>27500</v>
+        <v>27000</v>
       </c>
       <c r="H26" s="3">
-        <v>11300</v>
+        <v>11100</v>
       </c>
       <c r="I26" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="J26" s="3">
         <v>-300</v>
@@ -1450,22 +1450,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>49900</v>
+        <v>49000</v>
       </c>
       <c r="E27" s="3">
-        <v>38100</v>
+        <v>37400</v>
       </c>
       <c r="F27" s="3">
-        <v>36400</v>
+        <v>35800</v>
       </c>
       <c r="G27" s="3">
-        <v>27300</v>
+        <v>26800</v>
       </c>
       <c r="H27" s="3">
-        <v>11300</v>
+        <v>11100</v>
       </c>
       <c r="I27" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="J27" s="3">
         <v>-300</v>
@@ -1660,16 +1660,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-27100</v>
+        <v>-26600</v>
       </c>
       <c r="E32" s="3">
-        <v>-17100</v>
+        <v>-16800</v>
       </c>
       <c r="F32" s="3">
-        <v>-8100</v>
+        <v>-7900</v>
       </c>
       <c r="G32" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="H32" s="3">
         <v>-100</v>
@@ -1678,7 +1678,7 @@
         <v>-100</v>
       </c>
       <c r="J32" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="K32" s="3">
         <v>-100</v>
@@ -1702,22 +1702,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>49900</v>
+        <v>49000</v>
       </c>
       <c r="E33" s="3">
-        <v>38100</v>
+        <v>37400</v>
       </c>
       <c r="F33" s="3">
-        <v>36400</v>
+        <v>35800</v>
       </c>
       <c r="G33" s="3">
-        <v>27300</v>
+        <v>26800</v>
       </c>
       <c r="H33" s="3">
-        <v>11300</v>
+        <v>11100</v>
       </c>
       <c r="I33" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="J33" s="3">
         <v>-300</v>
@@ -1786,22 +1786,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>49900</v>
+        <v>49000</v>
       </c>
       <c r="E35" s="3">
-        <v>38100</v>
+        <v>37400</v>
       </c>
       <c r="F35" s="3">
-        <v>36400</v>
+        <v>35800</v>
       </c>
       <c r="G35" s="3">
-        <v>27300</v>
+        <v>26800</v>
       </c>
       <c r="H35" s="3">
-        <v>11300</v>
+        <v>11100</v>
       </c>
       <c r="I35" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="J35" s="3">
         <v>-300</v>
@@ -1911,25 +1911,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>51200</v>
+        <v>50300</v>
       </c>
       <c r="E41" s="3">
-        <v>12300</v>
+        <v>12100</v>
       </c>
       <c r="F41" s="3">
-        <v>32200</v>
+        <v>31600</v>
       </c>
       <c r="G41" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="H41" s="3">
-        <v>14400</v>
+        <v>14200</v>
       </c>
       <c r="I41" s="3">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="J41" s="3">
-        <v>10100</v>
+        <v>9900</v>
       </c>
       <c r="K41" s="3">
         <v>24300</v>
@@ -1995,25 +1995,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>73700</v>
+        <v>72400</v>
       </c>
       <c r="E43" s="3">
-        <v>58200</v>
+        <v>57100</v>
       </c>
       <c r="F43" s="3">
-        <v>58900</v>
+        <v>57900</v>
       </c>
       <c r="G43" s="3">
-        <v>63600</v>
+        <v>62500</v>
       </c>
       <c r="H43" s="3">
-        <v>68900</v>
+        <v>67700</v>
       </c>
       <c r="I43" s="3">
-        <v>50600</v>
+        <v>49700</v>
       </c>
       <c r="J43" s="3">
-        <v>41500</v>
+        <v>40700</v>
       </c>
       <c r="K43" s="3">
         <v>31800</v>
@@ -2037,19 +2037,19 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>36900</v>
+        <v>36300</v>
       </c>
       <c r="E44" s="3">
-        <v>33000</v>
+        <v>32400</v>
       </c>
       <c r="F44" s="3">
-        <v>14200</v>
+        <v>13900</v>
       </c>
       <c r="G44" s="3">
-        <v>16000</v>
+        <v>15700</v>
       </c>
       <c r="H44" s="3">
-        <v>9900</v>
+        <v>9700</v>
       </c>
       <c r="I44" s="3">
         <v>3500</v>
@@ -2079,22 +2079,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>8700</v>
+        <v>8500</v>
       </c>
       <c r="E45" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F45" s="3">
+        <v>9800</v>
+      </c>
+      <c r="G45" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H45" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I45" s="3">
         <v>5500</v>
-      </c>
-      <c r="F45" s="3">
-        <v>10000</v>
-      </c>
-      <c r="G45" s="3">
-        <v>3500</v>
-      </c>
-      <c r="H45" s="3">
-        <v>3300</v>
-      </c>
-      <c r="I45" s="3">
-        <v>5600</v>
       </c>
       <c r="J45" s="3">
         <v>1300</v>
@@ -2121,25 +2121,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>170500</v>
+        <v>167500</v>
       </c>
       <c r="E46" s="3">
-        <v>109000</v>
+        <v>107000</v>
       </c>
       <c r="F46" s="3">
-        <v>88300</v>
+        <v>86700</v>
       </c>
       <c r="G46" s="3">
-        <v>87200</v>
+        <v>85600</v>
       </c>
       <c r="H46" s="3">
-        <v>96000</v>
+        <v>94300</v>
       </c>
       <c r="I46" s="3">
-        <v>65800</v>
+        <v>64600</v>
       </c>
       <c r="J46" s="3">
-        <v>55500</v>
+        <v>54500</v>
       </c>
       <c r="K46" s="3">
         <v>59400</v>
@@ -2163,19 +2163,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>57800</v>
+        <v>56800</v>
       </c>
       <c r="E47" s="3">
-        <v>41400</v>
+        <v>40700</v>
       </c>
       <c r="F47" s="3">
-        <v>34300</v>
+        <v>33600</v>
       </c>
       <c r="G47" s="3">
-        <v>31800</v>
+        <v>31200</v>
       </c>
       <c r="H47" s="3">
-        <v>10900</v>
+        <v>10700</v>
       </c>
       <c r="I47" s="3">
         <v>300</v>
@@ -2205,25 +2205,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>489000</v>
+        <v>480200</v>
       </c>
       <c r="E48" s="3">
-        <v>480300</v>
+        <v>471600</v>
       </c>
       <c r="F48" s="3">
-        <v>476800</v>
+        <v>468200</v>
       </c>
       <c r="G48" s="3">
-        <v>447500</v>
+        <v>439400</v>
       </c>
       <c r="H48" s="3">
-        <v>775400</v>
+        <v>761400</v>
       </c>
       <c r="I48" s="3">
-        <v>198800</v>
+        <v>195200</v>
       </c>
       <c r="J48" s="3">
-        <v>182600</v>
+        <v>179300</v>
       </c>
       <c r="K48" s="3">
         <v>388600</v>
@@ -2247,10 +2247,10 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="E49" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="F49" s="3">
         <v>300</v>
@@ -2259,7 +2259,7 @@
         <v>8</v>
       </c>
       <c r="H49" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="I49" s="3">
         <v>1400</v>
@@ -2373,25 +2373,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="E52" s="3">
-        <v>9600</v>
+        <v>9500</v>
       </c>
       <c r="F52" s="3">
-        <v>21500</v>
+        <v>21100</v>
       </c>
       <c r="G52" s="3">
-        <v>20400</v>
+        <v>20000</v>
       </c>
       <c r="H52" s="3">
-        <v>24800</v>
+        <v>24300</v>
       </c>
       <c r="I52" s="3">
-        <v>18500</v>
+        <v>18100</v>
       </c>
       <c r="J52" s="3">
-        <v>19700</v>
+        <v>19400</v>
       </c>
       <c r="K52" s="3">
         <v>19700</v>
@@ -2457,25 +2457,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>725200</v>
+        <v>712100</v>
       </c>
       <c r="E54" s="3">
-        <v>643600</v>
+        <v>632000</v>
       </c>
       <c r="F54" s="3">
-        <v>621200</v>
+        <v>610000</v>
       </c>
       <c r="G54" s="3">
-        <v>586800</v>
+        <v>576300</v>
       </c>
       <c r="H54" s="3">
-        <v>510700</v>
+        <v>501500</v>
       </c>
       <c r="I54" s="3">
-        <v>284000</v>
+        <v>278900</v>
       </c>
       <c r="J54" s="3">
-        <v>259200</v>
+        <v>254500</v>
       </c>
       <c r="K54" s="3">
         <v>270400</v>
@@ -2535,25 +2535,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>75900</v>
+        <v>74600</v>
       </c>
       <c r="E57" s="3">
-        <v>56500</v>
+        <v>55400</v>
       </c>
       <c r="F57" s="3">
-        <v>30700</v>
+        <v>30100</v>
       </c>
       <c r="G57" s="3">
-        <v>65300</v>
+        <v>64100</v>
       </c>
       <c r="H57" s="3">
-        <v>47000</v>
+        <v>46100</v>
       </c>
       <c r="I57" s="3">
-        <v>26100</v>
+        <v>25600</v>
       </c>
       <c r="J57" s="3">
-        <v>21900</v>
+        <v>21500</v>
       </c>
       <c r="K57" s="3">
         <v>18800</v>
@@ -2577,25 +2577,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>31200</v>
+        <v>30600</v>
       </c>
       <c r="E58" s="3">
-        <v>33100</v>
+        <v>32500</v>
       </c>
       <c r="F58" s="3">
-        <v>32000</v>
+        <v>31400</v>
       </c>
       <c r="G58" s="3">
-        <v>35300</v>
+        <v>34700</v>
       </c>
       <c r="H58" s="3">
-        <v>46100</v>
+        <v>45300</v>
       </c>
       <c r="I58" s="3">
-        <v>21600</v>
+        <v>21200</v>
       </c>
       <c r="J58" s="3">
-        <v>23900</v>
+        <v>23400</v>
       </c>
       <c r="K58" s="3">
         <v>22500</v>
@@ -2619,25 +2619,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>35300</v>
+        <v>34700</v>
       </c>
       <c r="E59" s="3">
-        <v>29700</v>
+        <v>29100</v>
       </c>
       <c r="F59" s="3">
-        <v>20800</v>
+        <v>20400</v>
       </c>
       <c r="G59" s="3">
-        <v>28800</v>
+        <v>28300</v>
       </c>
       <c r="H59" s="3">
-        <v>31400</v>
+        <v>30800</v>
       </c>
       <c r="I59" s="3">
-        <v>10900</v>
+        <v>10700</v>
       </c>
       <c r="J59" s="3">
-        <v>9100</v>
+        <v>8900</v>
       </c>
       <c r="K59" s="3">
         <v>10500</v>
@@ -2661,25 +2661,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>142400</v>
+        <v>139800</v>
       </c>
       <c r="E60" s="3">
-        <v>119200</v>
+        <v>117100</v>
       </c>
       <c r="F60" s="3">
-        <v>81100</v>
+        <v>79600</v>
       </c>
       <c r="G60" s="3">
-        <v>116500</v>
+        <v>114400</v>
       </c>
       <c r="H60" s="3">
-        <v>110200</v>
+        <v>108200</v>
       </c>
       <c r="I60" s="3">
-        <v>57400</v>
+        <v>56400</v>
       </c>
       <c r="J60" s="3">
-        <v>54800</v>
+        <v>53800</v>
       </c>
       <c r="K60" s="3">
         <v>46700</v>
@@ -2703,25 +2703,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>280200</v>
+        <v>275100</v>
       </c>
       <c r="E61" s="3">
-        <v>248600</v>
+        <v>244100</v>
       </c>
       <c r="F61" s="3">
-        <v>284300</v>
+        <v>279200</v>
       </c>
       <c r="G61" s="3">
-        <v>266900</v>
+        <v>262100</v>
       </c>
       <c r="H61" s="3">
-        <v>237100</v>
+        <v>232800</v>
       </c>
       <c r="I61" s="3">
-        <v>79900</v>
+        <v>78400</v>
       </c>
       <c r="J61" s="3">
-        <v>50800</v>
+        <v>49900</v>
       </c>
       <c r="K61" s="3">
         <v>60400</v>
@@ -2745,25 +2745,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>76100</v>
+        <v>74800</v>
       </c>
       <c r="E62" s="3">
-        <v>69600</v>
+        <v>68400</v>
       </c>
       <c r="F62" s="3">
-        <v>71900</v>
+        <v>70600</v>
       </c>
       <c r="G62" s="3">
-        <v>70100</v>
+        <v>68900</v>
       </c>
       <c r="H62" s="3">
-        <v>52100</v>
+        <v>51200</v>
       </c>
       <c r="I62" s="3">
-        <v>38700</v>
+        <v>38000</v>
       </c>
       <c r="J62" s="3">
-        <v>35900</v>
+        <v>35300</v>
       </c>
       <c r="K62" s="3">
         <v>34400</v>
@@ -2913,25 +2913,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>498700</v>
+        <v>489700</v>
       </c>
       <c r="E66" s="3">
-        <v>437400</v>
+        <v>429500</v>
       </c>
       <c r="F66" s="3">
-        <v>437300</v>
+        <v>429400</v>
       </c>
       <c r="G66" s="3">
-        <v>453500</v>
+        <v>445300</v>
       </c>
       <c r="H66" s="3">
-        <v>399900</v>
+        <v>392600</v>
       </c>
       <c r="I66" s="3">
-        <v>176000</v>
+        <v>172800</v>
       </c>
       <c r="J66" s="3">
-        <v>141500</v>
+        <v>139000</v>
       </c>
       <c r="K66" s="3">
         <v>141600</v>
@@ -3141,25 +3141,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>52200</v>
+        <v>51300</v>
       </c>
       <c r="E72" s="3">
-        <v>8800</v>
+        <v>8600</v>
       </c>
       <c r="F72" s="3">
-        <v>-26000</v>
+        <v>-25600</v>
       </c>
       <c r="G72" s="3">
-        <v>-59100</v>
+        <v>-58100</v>
       </c>
       <c r="H72" s="3">
-        <v>-84300</v>
+        <v>-82800</v>
       </c>
       <c r="I72" s="3">
-        <v>-94100</v>
+        <v>-92400</v>
       </c>
       <c r="J72" s="3">
-        <v>-96500</v>
+        <v>-94700</v>
       </c>
       <c r="K72" s="3">
         <v>-95700</v>
@@ -3309,25 +3309,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>226500</v>
+        <v>222400</v>
       </c>
       <c r="E76" s="3">
-        <v>206200</v>
+        <v>202400</v>
       </c>
       <c r="F76" s="3">
-        <v>183900</v>
+        <v>180600</v>
       </c>
       <c r="G76" s="3">
-        <v>133400</v>
+        <v>130900</v>
       </c>
       <c r="H76" s="3">
-        <v>110800</v>
+        <v>108800</v>
       </c>
       <c r="I76" s="3">
-        <v>108000</v>
+        <v>106100</v>
       </c>
       <c r="J76" s="3">
-        <v>117700</v>
+        <v>115600</v>
       </c>
       <c r="K76" s="3">
         <v>128900</v>
@@ -3440,22 +3440,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>49900</v>
+        <v>49000</v>
       </c>
       <c r="E81" s="3">
-        <v>38100</v>
+        <v>37400</v>
       </c>
       <c r="F81" s="3">
-        <v>36400</v>
+        <v>35800</v>
       </c>
       <c r="G81" s="3">
-        <v>27300</v>
+        <v>26800</v>
       </c>
       <c r="H81" s="3">
-        <v>11300</v>
+        <v>11100</v>
       </c>
       <c r="I81" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="J81" s="3">
         <v>-300</v>
@@ -3500,25 +3500,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>88300</v>
+        <v>86700</v>
       </c>
       <c r="E83" s="3">
-        <v>80000</v>
+        <v>78500</v>
       </c>
       <c r="F83" s="3">
-        <v>66200</v>
+        <v>65000</v>
       </c>
       <c r="G83" s="3">
-        <v>75700</v>
+        <v>74400</v>
       </c>
       <c r="H83" s="3">
-        <v>43500</v>
+        <v>42700</v>
       </c>
       <c r="I83" s="3">
-        <v>33800</v>
+        <v>33200</v>
       </c>
       <c r="J83" s="3">
-        <v>31500</v>
+        <v>30900</v>
       </c>
       <c r="K83" s="3">
         <v>31600</v>
@@ -3752,25 +3752,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>125300</v>
+        <v>123000</v>
       </c>
       <c r="E89" s="3">
-        <v>122300</v>
+        <v>120100</v>
       </c>
       <c r="F89" s="3">
-        <v>108500</v>
+        <v>106500</v>
       </c>
       <c r="G89" s="3">
-        <v>116900</v>
+        <v>114800</v>
       </c>
       <c r="H89" s="3">
-        <v>81000</v>
+        <v>79500</v>
       </c>
       <c r="I89" s="3">
-        <v>36800</v>
+        <v>36200</v>
       </c>
       <c r="J89" s="3">
-        <v>29500</v>
+        <v>29000</v>
       </c>
       <c r="K89" s="3">
         <v>57900</v>
@@ -3812,25 +3812,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-82500</v>
+        <v>-81100</v>
       </c>
       <c r="E91" s="3">
-        <v>-83300</v>
+        <v>-81800</v>
       </c>
       <c r="F91" s="3">
-        <v>-86700</v>
+        <v>-85100</v>
       </c>
       <c r="G91" s="3">
-        <v>-116300</v>
+        <v>-114200</v>
       </c>
       <c r="H91" s="3">
-        <v>-60000</v>
+        <v>-58900</v>
       </c>
       <c r="I91" s="3">
-        <v>-39800</v>
+        <v>-39100</v>
       </c>
       <c r="J91" s="3">
-        <v>-20000</v>
+        <v>-19700</v>
       </c>
       <c r="K91" s="3">
         <v>-24400</v>
@@ -3938,25 +3938,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-70900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-72200</v>
       </c>
-      <c r="E94" s="3">
-        <v>-73500</v>
-      </c>
       <c r="F94" s="3">
-        <v>-83500</v>
+        <v>-82000</v>
       </c>
       <c r="G94" s="3">
-        <v>-119000</v>
+        <v>-116800</v>
       </c>
       <c r="H94" s="3">
-        <v>-169300</v>
+        <v>-166200</v>
       </c>
       <c r="I94" s="3">
-        <v>-24900</v>
+        <v>-24400</v>
       </c>
       <c r="J94" s="3">
-        <v>-7800</v>
+        <v>-7600</v>
       </c>
       <c r="K94" s="3">
         <v>3600</v>
@@ -3998,16 +3998,16 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-5800</v>
+        <v>-5700</v>
       </c>
       <c r="E96" s="3">
-        <v>-3300</v>
+        <v>-3200</v>
       </c>
       <c r="F96" s="3">
         <v>-3200</v>
       </c>
       <c r="G96" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="H96" s="3">
         <v>-1500</v>
@@ -4166,25 +4166,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-14400</v>
+        <v>-14200</v>
       </c>
       <c r="E100" s="3">
-        <v>-68700</v>
+        <v>-67400</v>
       </c>
       <c r="F100" s="3">
         <v>3300</v>
       </c>
       <c r="G100" s="3">
-        <v>-8300</v>
+        <v>-8200</v>
       </c>
       <c r="H100" s="3">
-        <v>96700</v>
+        <v>94900</v>
       </c>
       <c r="I100" s="3">
-        <v>-16000</v>
+        <v>-15700</v>
       </c>
       <c r="J100" s="3">
-        <v>-35500</v>
+        <v>-34900</v>
       </c>
       <c r="K100" s="3">
         <v>-37900</v>
@@ -4250,25 +4250,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>38900</v>
+        <v>38200</v>
       </c>
       <c r="E102" s="3">
-        <v>-19900</v>
+        <v>-19500</v>
       </c>
       <c r="F102" s="3">
-        <v>28300</v>
+        <v>27800</v>
       </c>
       <c r="G102" s="3">
-        <v>-10300</v>
+        <v>-10200</v>
       </c>
       <c r="H102" s="3">
-        <v>8400</v>
+        <v>8200</v>
       </c>
       <c r="I102" s="3">
-        <v>-4100</v>
+        <v>-4000</v>
       </c>
       <c r="J102" s="3">
-        <v>-13800</v>
+        <v>-13600</v>
       </c>
       <c r="K102" s="3">
         <v>23600</v>
